--- a/source-data/ecuador/ecuador_total_source_latest.xlsx
+++ b/source-data/ecuador/ecuador_total_source_latest.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-mortality-tracker/source-data/ecuador/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/ecuador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DABAFA54-9AE3-C942-8878-CF1F3945D046}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3C8CAC-1785-AE49-B984-64ACDAA29622}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16320"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="26700" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ecuador_total_source_latest" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ecuador_total_source_latest!$A$1:$I$376</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="59">
   <si>
     <t>country</t>
   </si>
@@ -202,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -1037,11 +1040,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I301"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3508,7 +3511,7 @@
         <v>4</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3566,7 +3569,7 @@
         <v>4</v>
       </c>
       <c r="I87">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3972,7 +3975,7 @@
         <v>4</v>
       </c>
       <c r="I101">
-        <v>5696</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3989,19 +3992,19 @@
         <v>867200</v>
       </c>
       <c r="E102" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F102" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G102">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I102">
-        <v>353</v>
+        <v>318</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4018,19 +4021,19 @@
         <v>208400</v>
       </c>
       <c r="E103" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F103" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G103">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I103">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4047,19 +4050,19 @@
         <v>276800</v>
       </c>
       <c r="E104" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F104" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G104">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I104">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4076,19 +4079,19 @@
         <v>185500</v>
       </c>
       <c r="E105" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F105" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G105">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I105">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4105,19 +4108,19 @@
         <v>519800</v>
       </c>
       <c r="E106" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F106" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G106">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I106">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4134,19 +4137,19 @@
         <v>482600</v>
       </c>
       <c r="E107" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F107" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G107">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I107">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4163,19 +4166,19 @@
         <v>707200</v>
       </c>
       <c r="E108" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F108" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G108">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I108">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4192,19 +4195,19 @@
         <v>635200</v>
       </c>
       <c r="E109" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F109" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G109">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I109">
-        <v>153</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4221,16 +4224,16 @@
         <v>32300</v>
       </c>
       <c r="E110" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F110" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G110">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I110">
         <v>6</v>
@@ -4250,19 +4253,19 @@
         <v>4327800</v>
       </c>
       <c r="E111" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F111" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G111">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I111">
-        <v>1965</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4279,19 +4282,19 @@
         <v>470100</v>
       </c>
       <c r="E112" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F112" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G112">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I112">
-        <v>197</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4308,19 +4311,19 @@
         <v>516200</v>
       </c>
       <c r="E113" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F113" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G113">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I113">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4337,19 +4340,19 @@
         <v>910800</v>
       </c>
       <c r="E114" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F114" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G114">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I114">
-        <v>309</v>
+        <v>284</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4366,19 +4369,19 @@
         <v>1549800</v>
       </c>
       <c r="E115" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F115" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G115">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I115">
-        <v>604</v>
+        <v>497</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4395,19 +4398,19 @@
         <v>192300</v>
       </c>
       <c r="E116" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F116" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G116">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I116">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4424,19 +4427,19 @@
         <v>131000</v>
       </c>
       <c r="E117" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F117" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G117">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I117">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4453,19 +4456,19 @@
         <v>159500</v>
       </c>
       <c r="E118" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F118" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G118">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I118">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4482,19 +4485,19 @@
         <v>111300</v>
       </c>
       <c r="E119" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F119" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G119">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I119">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4511,19 +4514,19 @@
         <v>3172200</v>
       </c>
       <c r="E120" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F120" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G120">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I120">
-        <v>1218</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4540,19 +4543,19 @@
         <v>392600</v>
       </c>
       <c r="E121" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F121" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G121">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I121">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4569,19 +4572,19 @@
         <v>450700</v>
       </c>
       <c r="E122" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F122" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G122">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I122">
-        <v>226</v>
+        <v>187</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4598,19 +4601,19 @@
         <v>225500</v>
       </c>
       <c r="E123" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F123" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G123">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I123">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4627,19 +4630,19 @@
         <v>584100</v>
       </c>
       <c r="E124" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F124" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G124">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I124">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4656,19 +4659,19 @@
         <v>117900</v>
       </c>
       <c r="E125" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F125" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G125">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I125">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4685,19 +4688,19 @@
         <v>17226800</v>
       </c>
       <c r="E126" s="1">
-        <v>43466</v>
+        <v>43221</v>
       </c>
       <c r="F126" s="1">
-        <v>43496</v>
+        <v>43251</v>
       </c>
       <c r="G126">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I126">
-        <v>6637</v>
+        <v>5811</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4714,19 +4717,19 @@
         <v>867200</v>
       </c>
       <c r="E127" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F127" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G127">
         <v>2019</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>297</v>
+        <v>353</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4743,19 +4746,19 @@
         <v>208400</v>
       </c>
       <c r="E128" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F128" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G128">
         <v>2019</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4772,19 +4775,19 @@
         <v>276800</v>
       </c>
       <c r="E129" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F129" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G129">
         <v>2019</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4801,19 +4804,19 @@
         <v>185500</v>
       </c>
       <c r="E130" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F130" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G130">
         <v>2019</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4830,19 +4833,19 @@
         <v>519800</v>
       </c>
       <c r="E131" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F131" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G131">
         <v>2019</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4859,19 +4862,19 @@
         <v>482600</v>
       </c>
       <c r="E132" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F132" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G132">
         <v>2019</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>125</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4888,19 +4891,19 @@
         <v>707200</v>
       </c>
       <c r="E133" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F133" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G133">
         <v>2019</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4917,19 +4920,19 @@
         <v>635200</v>
       </c>
       <c r="E134" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F134" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G134">
         <v>2019</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>122</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4946,16 +4949,16 @@
         <v>32300</v>
       </c>
       <c r="E135" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F135" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G135">
         <v>2019</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>6</v>
@@ -4975,19 +4978,19 @@
         <v>4327800</v>
       </c>
       <c r="E136" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F136" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G136">
         <v>2019</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>1771</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5004,19 +5007,19 @@
         <v>470100</v>
       </c>
       <c r="E137" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F137" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G137">
         <v>2019</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>158</v>
+        <v>197</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5033,19 +5036,19 @@
         <v>516200</v>
       </c>
       <c r="E138" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F138" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G138">
         <v>2019</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5062,19 +5065,19 @@
         <v>910800</v>
       </c>
       <c r="E139" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F139" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G139">
         <v>2019</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5091,19 +5094,19 @@
         <v>1549800</v>
       </c>
       <c r="E140" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F140" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G140">
         <v>2019</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>549</v>
+        <v>604</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5120,19 +5123,19 @@
         <v>192300</v>
       </c>
       <c r="E141" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F141" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G141">
         <v>2019</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5149,19 +5152,19 @@
         <v>131000</v>
       </c>
       <c r="E142" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F142" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G142">
         <v>2019</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5178,19 +5181,19 @@
         <v>159500</v>
       </c>
       <c r="E143" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F143" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G143">
         <v>2019</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5207,19 +5210,19 @@
         <v>111300</v>
       </c>
       <c r="E144" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F144" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G144">
         <v>2019</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5236,19 +5239,19 @@
         <v>3172200</v>
       </c>
       <c r="E145" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F145" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G145">
         <v>2019</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>996</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5265,19 +5268,19 @@
         <v>392600</v>
       </c>
       <c r="E146" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F146" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G146">
         <v>2019</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5294,19 +5297,19 @@
         <v>450700</v>
       </c>
       <c r="E147" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F147" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G147">
         <v>2019</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
-        <v>156</v>
+        <v>226</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5323,19 +5326,19 @@
         <v>225500</v>
       </c>
       <c r="E148" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F148" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G148">
         <v>2019</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5352,19 +5355,19 @@
         <v>584100</v>
       </c>
       <c r="E149" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F149" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G149">
         <v>2019</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>196</v>
+        <v>237</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5381,19 +5384,19 @@
         <v>117900</v>
       </c>
       <c r="E150" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F150" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G150">
         <v>2019</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5410,19 +5413,19 @@
         <v>17226800</v>
       </c>
       <c r="E151" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F151" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G151">
         <v>2019</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151">
-        <v>5867</v>
+        <v>6637</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5439,19 +5442,19 @@
         <v>867200</v>
       </c>
       <c r="E152" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F152" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G152">
         <v>2019</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5468,19 +5471,19 @@
         <v>208400</v>
       </c>
       <c r="E153" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F153" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G153">
         <v>2019</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5497,19 +5500,19 @@
         <v>276800</v>
       </c>
       <c r="E154" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F154" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G154">
         <v>2019</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5526,16 +5529,16 @@
         <v>185500</v>
       </c>
       <c r="E155" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F155" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G155">
         <v>2019</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155">
         <v>57</v>
@@ -5555,19 +5558,19 @@
         <v>519800</v>
       </c>
       <c r="E156" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F156" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G156">
         <v>2019</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>227</v>
+        <v>194</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5584,19 +5587,19 @@
         <v>482600</v>
       </c>
       <c r="E157" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F157" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G157">
         <v>2019</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157">
-        <v>168</v>
+        <v>125</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5613,19 +5616,19 @@
         <v>707200</v>
       </c>
       <c r="E158" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F158" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G158">
         <v>2019</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>289</v>
+        <v>249</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5642,19 +5645,19 @@
         <v>635200</v>
       </c>
       <c r="E159" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F159" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G159">
         <v>2019</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>154</v>
+        <v>122</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5671,19 +5674,19 @@
         <v>32300</v>
       </c>
       <c r="E160" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F160" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G160">
         <v>2019</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5700,19 +5703,19 @@
         <v>4327800</v>
       </c>
       <c r="E161" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F161" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G161">
         <v>2019</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>1909</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5729,19 +5732,19 @@
         <v>470100</v>
       </c>
       <c r="E162" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F162" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G162">
         <v>2019</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5758,19 +5761,19 @@
         <v>516200</v>
       </c>
       <c r="E163" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F163" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G163">
         <v>2019</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5787,19 +5790,19 @@
         <v>910800</v>
       </c>
       <c r="E164" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F164" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G164">
         <v>2019</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>329</v>
+        <v>299</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5816,19 +5819,19 @@
         <v>1549800</v>
       </c>
       <c r="E165" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F165" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G165">
         <v>2019</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>583</v>
+        <v>549</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5845,19 +5848,19 @@
         <v>192300</v>
       </c>
       <c r="E166" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F166" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G166">
         <v>2019</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5874,19 +5877,19 @@
         <v>131000</v>
       </c>
       <c r="E167" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F167" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G167">
         <v>2019</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5903,19 +5906,19 @@
         <v>159500</v>
       </c>
       <c r="E168" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F168" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G168">
         <v>2019</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5932,16 +5935,16 @@
         <v>111300</v>
       </c>
       <c r="E169" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F169" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G169">
         <v>2019</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169">
         <v>28</v>
@@ -5961,19 +5964,19 @@
         <v>3172200</v>
       </c>
       <c r="E170" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F170" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G170">
         <v>2019</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170">
-        <v>1094</v>
+        <v>996</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5990,19 +5993,19 @@
         <v>392600</v>
       </c>
       <c r="E171" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F171" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G171">
         <v>2019</v>
       </c>
       <c r="H171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6019,19 +6022,19 @@
         <v>450700</v>
       </c>
       <c r="E172" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F172" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G172">
         <v>2019</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>240</v>
+        <v>156</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6048,19 +6051,19 @@
         <v>225500</v>
       </c>
       <c r="E173" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F173" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G173">
         <v>2019</v>
       </c>
       <c r="H173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6077,19 +6080,19 @@
         <v>584100</v>
       </c>
       <c r="E174" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F174" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G174">
         <v>2019</v>
       </c>
       <c r="H174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174">
-        <v>266</v>
+        <v>196</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6106,19 +6109,19 @@
         <v>117900</v>
       </c>
       <c r="E175" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F175" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G175">
         <v>2019</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6135,19 +6138,19 @@
         <v>17226800</v>
       </c>
       <c r="E176" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F176" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G176">
         <v>2019</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>6492</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6164,19 +6167,19 @@
         <v>867200</v>
       </c>
       <c r="E177" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F177" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G177">
         <v>2019</v>
       </c>
       <c r="H177">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I177">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6193,19 +6196,19 @@
         <v>208400</v>
       </c>
       <c r="E178" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F178" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G178">
         <v>2019</v>
       </c>
       <c r="H178">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6222,19 +6225,19 @@
         <v>276800</v>
       </c>
       <c r="E179" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F179" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G179">
         <v>2019</v>
       </c>
       <c r="H179">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I179">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6251,16 +6254,16 @@
         <v>185500</v>
       </c>
       <c r="E180" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F180" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G180">
         <v>2019</v>
       </c>
       <c r="H180">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I180">
         <v>57</v>
@@ -6280,19 +6283,19 @@
         <v>519800</v>
       </c>
       <c r="E181" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F181" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G181">
         <v>2019</v>
       </c>
       <c r="H181">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I181">
-        <v>177</v>
+        <v>227</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6309,19 +6312,19 @@
         <v>482600</v>
       </c>
       <c r="E182" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F182" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G182">
         <v>2019</v>
       </c>
       <c r="H182">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I182">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6338,19 +6341,19 @@
         <v>707200</v>
       </c>
       <c r="E183" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F183" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G183">
         <v>2019</v>
       </c>
       <c r="H183">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I183">
-        <v>233</v>
+        <v>289</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6367,19 +6370,19 @@
         <v>635200</v>
       </c>
       <c r="E184" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F184" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G184">
         <v>2019</v>
       </c>
       <c r="H184">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I184">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6396,19 +6399,19 @@
         <v>32300</v>
       </c>
       <c r="E185" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F185" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G185">
         <v>2019</v>
       </c>
       <c r="H185">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I185">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6425,19 +6428,19 @@
         <v>4327800</v>
       </c>
       <c r="E186" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F186" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G186">
         <v>2019</v>
       </c>
       <c r="H186">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I186">
-        <v>1862</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6454,19 +6457,19 @@
         <v>470100</v>
       </c>
       <c r="E187" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F187" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G187">
         <v>2019</v>
       </c>
       <c r="H187">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I187">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6483,19 +6486,19 @@
         <v>516200</v>
       </c>
       <c r="E188" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F188" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G188">
         <v>2019</v>
       </c>
       <c r="H188">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I188">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6512,19 +6515,19 @@
         <v>910800</v>
       </c>
       <c r="E189" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F189" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G189">
         <v>2019</v>
       </c>
       <c r="H189">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I189">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6541,19 +6544,19 @@
         <v>1549800</v>
       </c>
       <c r="E190" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F190" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G190">
         <v>2019</v>
       </c>
       <c r="H190">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I190">
-        <v>554</v>
+        <v>583</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6570,19 +6573,19 @@
         <v>192300</v>
       </c>
       <c r="E191" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F191" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G191">
         <v>2019</v>
       </c>
       <c r="H191">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I191">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6599,19 +6602,19 @@
         <v>131000</v>
       </c>
       <c r="E192" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F192" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G192">
         <v>2019</v>
       </c>
       <c r="H192">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I192">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6628,19 +6631,19 @@
         <v>159500</v>
       </c>
       <c r="E193" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F193" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G193">
         <v>2019</v>
       </c>
       <c r="H193">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I193">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6657,19 +6660,19 @@
         <v>111300</v>
       </c>
       <c r="E194" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F194" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G194">
         <v>2019</v>
       </c>
       <c r="H194">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I194">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6686,19 +6689,19 @@
         <v>3172200</v>
       </c>
       <c r="E195" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F195" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G195">
         <v>2019</v>
       </c>
       <c r="H195">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I195">
-        <v>995</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6715,19 +6718,19 @@
         <v>392600</v>
       </c>
       <c r="E196" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F196" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G196">
         <v>2019</v>
       </c>
       <c r="H196">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I196">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -6744,19 +6747,19 @@
         <v>450700</v>
       </c>
       <c r="E197" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F197" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G197">
         <v>2019</v>
       </c>
       <c r="H197">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I197">
-        <v>198</v>
+        <v>240</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6773,19 +6776,19 @@
         <v>225500</v>
       </c>
       <c r="E198" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F198" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G198">
         <v>2019</v>
       </c>
       <c r="H198">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I198">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -6802,19 +6805,19 @@
         <v>584100</v>
       </c>
       <c r="E199" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F199" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G199">
         <v>2019</v>
       </c>
       <c r="H199">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I199">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -6831,19 +6834,19 @@
         <v>117900</v>
       </c>
       <c r="E200" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F200" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G200">
         <v>2019</v>
       </c>
       <c r="H200">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I200">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6860,19 +6863,19 @@
         <v>17226800</v>
       </c>
       <c r="E201" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F201" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G201">
         <v>2019</v>
       </c>
       <c r="H201">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I201">
-        <v>6065</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -6889,19 +6892,19 @@
         <v>867200</v>
       </c>
       <c r="E202" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F202" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G202">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I202">
-        <v>360</v>
+        <v>309</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6918,19 +6921,19 @@
         <v>208400</v>
       </c>
       <c r="E203" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F203" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G203">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I203">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -6947,19 +6950,19 @@
         <v>276800</v>
       </c>
       <c r="E204" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F204" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G204">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I204">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -6976,19 +6979,19 @@
         <v>185500</v>
       </c>
       <c r="E205" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F205" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G205">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I205">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -7005,19 +7008,19 @@
         <v>519800</v>
       </c>
       <c r="E206" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F206" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G206">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I206">
-        <v>216</v>
+        <v>177</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -7034,19 +7037,19 @@
         <v>482600</v>
       </c>
       <c r="E207" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F207" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G207">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I207">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -7063,19 +7066,19 @@
         <v>707200</v>
       </c>
       <c r="E208" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F208" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G208">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I208">
-        <v>298</v>
+        <v>233</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -7092,19 +7095,19 @@
         <v>635200</v>
       </c>
       <c r="E209" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F209" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G209">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I209">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -7121,19 +7124,19 @@
         <v>32300</v>
       </c>
       <c r="E210" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F210" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G210">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I210">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -7150,19 +7153,19 @@
         <v>4327800</v>
       </c>
       <c r="E211" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F211" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G211">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I211">
-        <v>1960</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -7179,19 +7182,19 @@
         <v>470100</v>
       </c>
       <c r="E212" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F212" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G212">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I212">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -7208,19 +7211,19 @@
         <v>516200</v>
       </c>
       <c r="E213" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F213" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G213">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I213">
-        <v>210</v>
+        <v>189</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -7237,19 +7240,19 @@
         <v>910800</v>
       </c>
       <c r="E214" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F214" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G214">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I214">
-        <v>296</v>
+        <v>327</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -7266,19 +7269,19 @@
         <v>1549800</v>
       </c>
       <c r="E215" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F215" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G215">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I215">
-        <v>623</v>
+        <v>554</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -7295,16 +7298,16 @@
         <v>192300</v>
       </c>
       <c r="E216" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F216" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G216">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I216">
         <v>49</v>
@@ -7324,19 +7327,19 @@
         <v>131000</v>
       </c>
       <c r="E217" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F217" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G217">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I217">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -7353,19 +7356,19 @@
         <v>159500</v>
       </c>
       <c r="E218" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F218" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G218">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I218">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -7382,19 +7385,19 @@
         <v>111300</v>
       </c>
       <c r="E219" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F219" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G219">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I219">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -7411,19 +7414,19 @@
         <v>3172200</v>
       </c>
       <c r="E220" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F220" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G220">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I220">
-        <v>1204</v>
+        <v>995</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -7440,19 +7443,19 @@
         <v>392600</v>
       </c>
       <c r="E221" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F221" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G221">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I221">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -7469,19 +7472,19 @@
         <v>450700</v>
       </c>
       <c r="E222" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F222" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G222">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I222">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -7498,19 +7501,19 @@
         <v>225500</v>
       </c>
       <c r="E223" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F223" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G223">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I223">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -7527,19 +7530,19 @@
         <v>584100</v>
       </c>
       <c r="E224" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F224" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G224">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I224">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -7556,19 +7559,19 @@
         <v>117900</v>
       </c>
       <c r="E225" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F225" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G225">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I225">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -7585,19 +7588,19 @@
         <v>17226800</v>
       </c>
       <c r="E226" s="1">
-        <v>43831</v>
+        <v>43556</v>
       </c>
       <c r="F226" s="1">
-        <v>43861</v>
+        <v>43585</v>
       </c>
       <c r="G226">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I226">
-        <v>6669</v>
+        <v>6071</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -7614,19 +7617,19 @@
         <v>867200</v>
       </c>
       <c r="E227" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F227" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G227">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I227">
-        <v>319</v>
+        <v>347</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -7643,19 +7646,19 @@
         <v>208400</v>
       </c>
       <c r="E228" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F228" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G228">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I228">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -7672,19 +7675,19 @@
         <v>276800</v>
       </c>
       <c r="E229" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F229" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G229">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I229">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -7701,19 +7704,19 @@
         <v>185500</v>
       </c>
       <c r="E230" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F230" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G230">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I230">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -7730,19 +7733,19 @@
         <v>519800</v>
       </c>
       <c r="E231" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F231" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G231">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I231">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -7759,19 +7762,19 @@
         <v>482600</v>
       </c>
       <c r="E232" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F232" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G232">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I232">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -7788,19 +7791,19 @@
         <v>707200</v>
       </c>
       <c r="E233" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F233" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G233">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I233">
-        <v>224</v>
+        <v>262</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -7817,19 +7820,19 @@
         <v>635200</v>
       </c>
       <c r="E234" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F234" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G234">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I234">
-        <v>149</v>
+        <v>114</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -7846,19 +7849,19 @@
         <v>32300</v>
       </c>
       <c r="E235" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F235" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G235">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H235">
+        <v>5</v>
+      </c>
+      <c r="I235">
         <v>2</v>
-      </c>
-      <c r="I235">
-        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -7875,19 +7878,19 @@
         <v>4327800</v>
       </c>
       <c r="E236" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F236" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G236">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I236">
-        <v>1699</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -7904,19 +7907,19 @@
         <v>470100</v>
       </c>
       <c r="E237" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F237" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G237">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I237">
-        <v>154</v>
+        <v>188</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -7933,19 +7936,19 @@
         <v>516200</v>
       </c>
       <c r="E238" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F238" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G238">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I238">
-        <v>162</v>
+        <v>194</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -7962,19 +7965,19 @@
         <v>910800</v>
       </c>
       <c r="E239" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F239" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G239">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I239">
-        <v>286</v>
+        <v>304</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -7991,19 +7994,19 @@
         <v>1549800</v>
       </c>
       <c r="E240" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F240" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G240">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I240">
-        <v>530</v>
+        <v>450</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -8020,19 +8023,19 @@
         <v>192300</v>
       </c>
       <c r="E241" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F241" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G241">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I241">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -8049,19 +8052,19 @@
         <v>131000</v>
       </c>
       <c r="E242" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F242" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G242">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I242">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -8078,19 +8081,19 @@
         <v>159500</v>
       </c>
       <c r="E243" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F243" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G243">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I243">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -8107,19 +8110,19 @@
         <v>111300</v>
       </c>
       <c r="E244" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F244" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G244">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I244">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -8136,19 +8139,19 @@
         <v>3172200</v>
       </c>
       <c r="E245" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F245" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G245">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I245">
-        <v>1143</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -8165,19 +8168,19 @@
         <v>392600</v>
       </c>
       <c r="E246" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F246" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G246">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I246">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -8194,19 +8197,19 @@
         <v>450700</v>
       </c>
       <c r="E247" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F247" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G247">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I247">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -8223,19 +8226,19 @@
         <v>225500</v>
       </c>
       <c r="E248" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F248" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G248">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I248">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -8252,19 +8255,19 @@
         <v>584100</v>
       </c>
       <c r="E249" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F249" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G249">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I249">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -8281,19 +8284,19 @@
         <v>117900</v>
       </c>
       <c r="E250" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F250" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G250">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I250">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -8310,19 +8313,19 @@
         <v>17226800</v>
       </c>
       <c r="E251" s="1">
-        <v>43862</v>
+        <v>43586</v>
       </c>
       <c r="F251" s="1">
-        <v>43890</v>
+        <v>43616</v>
       </c>
       <c r="G251">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I251">
-        <v>5986</v>
+        <v>5892</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -8339,19 +8342,19 @@
         <v>867200</v>
       </c>
       <c r="E252" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F252" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G252">
         <v>2020</v>
       </c>
       <c r="H252">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I252">
-        <v>293</v>
+        <v>360</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -8368,19 +8371,19 @@
         <v>208400</v>
       </c>
       <c r="E253" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F253" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G253">
         <v>2020</v>
       </c>
       <c r="H253">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I253">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -8397,19 +8400,19 @@
         <v>276800</v>
       </c>
       <c r="E254" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F254" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G254">
         <v>2020</v>
       </c>
       <c r="H254">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I254">
-        <v>56</v>
+        <v>107</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -8426,19 +8429,19 @@
         <v>185500</v>
       </c>
       <c r="E255" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F255" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G255">
         <v>2020</v>
       </c>
       <c r="H255">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I255">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -8455,19 +8458,19 @@
         <v>519800</v>
       </c>
       <c r="E256" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F256" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G256">
         <v>2020</v>
       </c>
       <c r="H256">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I256">
-        <v>173</v>
+        <v>216</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -8484,19 +8487,19 @@
         <v>482600</v>
       </c>
       <c r="E257" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F257" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G257">
         <v>2020</v>
       </c>
       <c r="H257">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I257">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -8513,19 +8516,19 @@
         <v>707200</v>
       </c>
       <c r="E258" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F258" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G258">
         <v>2020</v>
       </c>
       <c r="H258">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I258">
-        <v>235</v>
+        <v>298</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -8542,19 +8545,19 @@
         <v>635200</v>
       </c>
       <c r="E259" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F259" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G259">
         <v>2020</v>
       </c>
       <c r="H259">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I259">
-        <v>86</v>
+        <v>133</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -8571,19 +8574,19 @@
         <v>32300</v>
       </c>
       <c r="E260" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F260" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G260">
         <v>2020</v>
       </c>
       <c r="H260">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I260">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -8600,19 +8603,19 @@
         <v>4327800</v>
       </c>
       <c r="E261" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F261" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G261">
         <v>2020</v>
       </c>
       <c r="H261">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I261">
-        <v>4764</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -8629,19 +8632,19 @@
         <v>470100</v>
       </c>
       <c r="E262" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F262" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G262">
         <v>2020</v>
       </c>
       <c r="H262">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I262">
-        <v>133</v>
+        <v>185</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -8658,19 +8661,19 @@
         <v>516200</v>
       </c>
       <c r="E263" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F263" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G263">
         <v>2020</v>
       </c>
       <c r="H263">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I263">
-        <v>127</v>
+        <v>210</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -8687,19 +8690,19 @@
         <v>910800</v>
       </c>
       <c r="E264" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F264" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G264">
         <v>2020</v>
       </c>
       <c r="H264">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I264">
-        <v>248</v>
+        <v>296</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -8716,19 +8719,19 @@
         <v>1549800</v>
       </c>
       <c r="E265" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F265" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G265">
         <v>2020</v>
       </c>
       <c r="H265">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I265">
-        <v>471</v>
+        <v>623</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -8745,19 +8748,19 @@
         <v>192300</v>
       </c>
       <c r="E266" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F266" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G266">
         <v>2020</v>
       </c>
       <c r="H266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I266">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -8774,19 +8777,19 @@
         <v>131000</v>
       </c>
       <c r="E267" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F267" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G267">
         <v>2020</v>
       </c>
       <c r="H267">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I267">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -8803,19 +8806,19 @@
         <v>159500</v>
       </c>
       <c r="E268" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F268" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G268">
         <v>2020</v>
       </c>
       <c r="H268">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I268">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -8832,19 +8835,19 @@
         <v>111300</v>
       </c>
       <c r="E269" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F269" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G269">
         <v>2020</v>
       </c>
       <c r="H269">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I269">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -8861,19 +8864,19 @@
         <v>3172200</v>
       </c>
       <c r="E270" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F270" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G270">
         <v>2020</v>
       </c>
       <c r="H270">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I270">
-        <v>1076</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -8890,19 +8893,19 @@
         <v>392600</v>
       </c>
       <c r="E271" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F271" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G271">
         <v>2020</v>
       </c>
       <c r="H271">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I271">
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -8919,19 +8922,19 @@
         <v>450700</v>
       </c>
       <c r="E272" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F272" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G272">
         <v>2020</v>
       </c>
       <c r="H272">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I272">
-        <v>158</v>
+        <v>204</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -8948,19 +8951,19 @@
         <v>225500</v>
       </c>
       <c r="E273" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F273" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G273">
         <v>2020</v>
       </c>
       <c r="H273">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I273">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -8977,19 +8980,19 @@
         <v>584100</v>
       </c>
       <c r="E274" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F274" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G274">
         <v>2020</v>
       </c>
       <c r="H274">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I274">
-        <v>204</v>
+        <v>250</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -9006,19 +9009,19 @@
         <v>117900</v>
       </c>
       <c r="E275" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F275" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G275">
         <v>2020</v>
       </c>
       <c r="H275">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I275">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -9035,19 +9038,19 @@
         <v>17226800</v>
       </c>
       <c r="E276" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F276" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G276">
         <v>2020</v>
       </c>
       <c r="H276">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I276">
-        <v>8547</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -9064,19 +9067,19 @@
         <v>867200</v>
       </c>
       <c r="E277" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F277" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G277">
         <v>2020</v>
       </c>
       <c r="H277">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I277">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -9093,19 +9096,19 @@
         <v>208400</v>
       </c>
       <c r="E278" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F278" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G278">
         <v>2020</v>
       </c>
       <c r="H278">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I278">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -9122,19 +9125,19 @@
         <v>276800</v>
       </c>
       <c r="E279" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F279" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G279">
         <v>2020</v>
       </c>
       <c r="H279">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I279">
-        <v>112</v>
+        <v>75</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -9151,19 +9154,19 @@
         <v>185500</v>
       </c>
       <c r="E280" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F280" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G280">
         <v>2020</v>
       </c>
       <c r="H280">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I280">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -9180,19 +9183,19 @@
         <v>519800</v>
       </c>
       <c r="E281" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F281" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G281">
         <v>2020</v>
       </c>
       <c r="H281">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I281">
-        <v>250</v>
+        <v>184</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -9209,19 +9212,19 @@
         <v>482600</v>
       </c>
       <c r="E282" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F282" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G282">
         <v>2020</v>
       </c>
       <c r="H282">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I282">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -9238,19 +9241,19 @@
         <v>707200</v>
       </c>
       <c r="E283" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F283" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G283">
         <v>2020</v>
       </c>
       <c r="H283">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I283">
-        <v>503</v>
+        <v>224</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -9267,19 +9270,19 @@
         <v>635200</v>
       </c>
       <c r="E284" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F284" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G284">
         <v>2020</v>
       </c>
       <c r="H284">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I284">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -9296,19 +9299,19 @@
         <v>32300</v>
       </c>
       <c r="E285" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F285" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G285">
         <v>2020</v>
       </c>
       <c r="H285">
+        <v>2</v>
+      </c>
+      <c r="I285">
         <v>4</v>
-      </c>
-      <c r="I285">
-        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:9">
@@ -9325,19 +9328,19 @@
         <v>4327800</v>
       </c>
       <c r="E286" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F286" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G286">
         <v>2020</v>
       </c>
       <c r="H286">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I286">
-        <v>10700</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -9354,19 +9357,19 @@
         <v>470100</v>
       </c>
       <c r="E287" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F287" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G287">
         <v>2020</v>
       </c>
       <c r="H287">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I287">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -9383,19 +9386,19 @@
         <v>516200</v>
       </c>
       <c r="E288" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F288" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G288">
         <v>2020</v>
       </c>
       <c r="H288">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I288">
-        <v>129</v>
+        <v>162</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -9412,19 +9415,19 @@
         <v>910800</v>
       </c>
       <c r="E289" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F289" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G289">
         <v>2020</v>
       </c>
       <c r="H289">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I289">
-        <v>573</v>
+        <v>286</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -9441,19 +9444,19 @@
         <v>1549800</v>
       </c>
       <c r="E290" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F290" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G290">
         <v>2020</v>
       </c>
       <c r="H290">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I290">
-        <v>1272</v>
+        <v>532</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -9470,19 +9473,19 @@
         <v>192300</v>
       </c>
       <c r="E291" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F291" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G291">
         <v>2020</v>
       </c>
       <c r="H291">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I291">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -9499,19 +9502,19 @@
         <v>131000</v>
       </c>
       <c r="E292" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F292" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G292">
         <v>2020</v>
       </c>
       <c r="H292">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I292">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -9528,19 +9531,19 @@
         <v>159500</v>
       </c>
       <c r="E293" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F293" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G293">
         <v>2020</v>
       </c>
       <c r="H293">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I293">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -9557,19 +9560,19 @@
         <v>111300</v>
       </c>
       <c r="E294" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F294" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G294">
         <v>2020</v>
       </c>
       <c r="H294">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I294">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -9586,19 +9589,19 @@
         <v>3172200</v>
       </c>
       <c r="E295" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F295" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G295">
         <v>2020</v>
       </c>
       <c r="H295">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I295">
-        <v>1245</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -9615,19 +9618,19 @@
         <v>392600</v>
       </c>
       <c r="E296" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F296" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G296">
         <v>2020</v>
       </c>
       <c r="H296">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I296">
-        <v>847</v>
+        <v>113</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -9644,19 +9647,19 @@
         <v>450700</v>
       </c>
       <c r="E297" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F297" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G297">
         <v>2020</v>
       </c>
       <c r="H297">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I297">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -9673,19 +9676,19 @@
         <v>225500</v>
       </c>
       <c r="E298" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F298" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G298">
         <v>2020</v>
       </c>
       <c r="H298">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I298">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -9702,19 +9705,19 @@
         <v>584100</v>
       </c>
       <c r="E299" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F299" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G299">
         <v>2020</v>
       </c>
       <c r="H299">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I299">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -9731,19 +9734,19 @@
         <v>117900</v>
       </c>
       <c r="E300" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F300" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G300">
         <v>2020</v>
       </c>
       <c r="H300">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I300">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -9760,19 +9763,2194 @@
         <v>17226800</v>
       </c>
       <c r="E301" s="1">
+        <v>43862</v>
+      </c>
+      <c r="F301" s="1">
+        <v>43890</v>
+      </c>
+      <c r="G301">
+        <v>2020</v>
+      </c>
+      <c r="H301">
+        <v>2</v>
+      </c>
+      <c r="I301">
+        <v>5993</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
+      <c r="A302" t="s">
+        <v>9</v>
+      </c>
+      <c r="B302" t="s">
+        <v>10</v>
+      </c>
+      <c r="C302" t="s">
+        <v>11</v>
+      </c>
+      <c r="D302">
+        <v>867200</v>
+      </c>
+      <c r="E302" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F302" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G302">
+        <v>2020</v>
+      </c>
+      <c r="H302">
+        <v>3</v>
+      </c>
+      <c r="I302">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
+      <c r="A303" t="s">
+        <v>9</v>
+      </c>
+      <c r="B303" t="s">
+        <v>12</v>
+      </c>
+      <c r="C303" t="s">
+        <v>13</v>
+      </c>
+      <c r="D303">
+        <v>208400</v>
+      </c>
+      <c r="E303" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F303" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G303">
+        <v>2020</v>
+      </c>
+      <c r="H303">
+        <v>3</v>
+      </c>
+      <c r="I303">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
+      <c r="A304" t="s">
+        <v>9</v>
+      </c>
+      <c r="B304" t="s">
+        <v>14</v>
+      </c>
+      <c r="C304" t="s">
+        <v>15</v>
+      </c>
+      <c r="D304">
+        <v>276800</v>
+      </c>
+      <c r="E304" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F304" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G304">
+        <v>2020</v>
+      </c>
+      <c r="H304">
+        <v>3</v>
+      </c>
+      <c r="I304">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
+      <c r="A305" t="s">
+        <v>9</v>
+      </c>
+      <c r="B305" t="s">
+        <v>16</v>
+      </c>
+      <c r="C305" t="s">
+        <v>17</v>
+      </c>
+      <c r="D305">
+        <v>185500</v>
+      </c>
+      <c r="E305" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F305" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G305">
+        <v>2020</v>
+      </c>
+      <c r="H305">
+        <v>3</v>
+      </c>
+      <c r="I305">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
+      <c r="A306" t="s">
+        <v>9</v>
+      </c>
+      <c r="B306" t="s">
+        <v>18</v>
+      </c>
+      <c r="C306" t="s">
+        <v>19</v>
+      </c>
+      <c r="D306">
+        <v>519800</v>
+      </c>
+      <c r="E306" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F306" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G306">
+        <v>2020</v>
+      </c>
+      <c r="H306">
+        <v>3</v>
+      </c>
+      <c r="I306">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
+      <c r="A307" t="s">
+        <v>9</v>
+      </c>
+      <c r="B307" t="s">
+        <v>20</v>
+      </c>
+      <c r="C307" t="s">
+        <v>21</v>
+      </c>
+      <c r="D307">
+        <v>482600</v>
+      </c>
+      <c r="E307" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F307" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G307">
+        <v>2020</v>
+      </c>
+      <c r="H307">
+        <v>3</v>
+      </c>
+      <c r="I307">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
+      <c r="A308" t="s">
+        <v>9</v>
+      </c>
+      <c r="B308" t="s">
+        <v>22</v>
+      </c>
+      <c r="C308" t="s">
+        <v>23</v>
+      </c>
+      <c r="D308">
+        <v>707200</v>
+      </c>
+      <c r="E308" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F308" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G308">
+        <v>2020</v>
+      </c>
+      <c r="H308">
+        <v>3</v>
+      </c>
+      <c r="I308">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
+      <c r="A309" t="s">
+        <v>9</v>
+      </c>
+      <c r="B309" t="s">
+        <v>24</v>
+      </c>
+      <c r="C309" t="s">
+        <v>25</v>
+      </c>
+      <c r="D309">
+        <v>635200</v>
+      </c>
+      <c r="E309" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F309" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G309">
+        <v>2020</v>
+      </c>
+      <c r="H309">
+        <v>3</v>
+      </c>
+      <c r="I309">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="A310" t="s">
+        <v>9</v>
+      </c>
+      <c r="B310" t="s">
+        <v>26</v>
+      </c>
+      <c r="C310" t="s">
+        <v>27</v>
+      </c>
+      <c r="D310">
+        <v>32300</v>
+      </c>
+      <c r="E310" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F310" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G310">
+        <v>2020</v>
+      </c>
+      <c r="H310">
+        <v>3</v>
+      </c>
+      <c r="I310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="A311" t="s">
+        <v>9</v>
+      </c>
+      <c r="B311" t="s">
+        <v>28</v>
+      </c>
+      <c r="C311" t="s">
+        <v>29</v>
+      </c>
+      <c r="D311">
+        <v>4327800</v>
+      </c>
+      <c r="E311" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F311" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G311">
+        <v>2020</v>
+      </c>
+      <c r="H311">
+        <v>3</v>
+      </c>
+      <c r="I311">
+        <v>5021</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
+      <c r="A312" t="s">
+        <v>9</v>
+      </c>
+      <c r="B312" t="s">
+        <v>30</v>
+      </c>
+      <c r="C312" t="s">
+        <v>31</v>
+      </c>
+      <c r="D312">
+        <v>470100</v>
+      </c>
+      <c r="E312" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F312" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G312">
+        <v>2020</v>
+      </c>
+      <c r="H312">
+        <v>3</v>
+      </c>
+      <c r="I312">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
+      <c r="A313" t="s">
+        <v>9</v>
+      </c>
+      <c r="B313" t="s">
+        <v>32</v>
+      </c>
+      <c r="C313" t="s">
+        <v>33</v>
+      </c>
+      <c r="D313">
+        <v>516200</v>
+      </c>
+      <c r="E313" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F313" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G313">
+        <v>2020</v>
+      </c>
+      <c r="H313">
+        <v>3</v>
+      </c>
+      <c r="I313">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
+      <c r="A314" t="s">
+        <v>9</v>
+      </c>
+      <c r="B314" t="s">
+        <v>34</v>
+      </c>
+      <c r="C314" t="s">
+        <v>35</v>
+      </c>
+      <c r="D314">
+        <v>910800</v>
+      </c>
+      <c r="E314" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F314" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G314">
+        <v>2020</v>
+      </c>
+      <c r="H314">
+        <v>3</v>
+      </c>
+      <c r="I314">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
+      <c r="A315" t="s">
+        <v>9</v>
+      </c>
+      <c r="B315" t="s">
+        <v>36</v>
+      </c>
+      <c r="C315" t="s">
+        <v>37</v>
+      </c>
+      <c r="D315">
+        <v>1549800</v>
+      </c>
+      <c r="E315" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F315" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G315">
+        <v>2020</v>
+      </c>
+      <c r="H315">
+        <v>3</v>
+      </c>
+      <c r="I315">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
+      <c r="A316" t="s">
+        <v>9</v>
+      </c>
+      <c r="B316" t="s">
+        <v>38</v>
+      </c>
+      <c r="C316" t="s">
+        <v>39</v>
+      </c>
+      <c r="D316">
+        <v>192300</v>
+      </c>
+      <c r="E316" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F316" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G316">
+        <v>2020</v>
+      </c>
+      <c r="H316">
+        <v>3</v>
+      </c>
+      <c r="I316">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
+      <c r="A317" t="s">
+        <v>9</v>
+      </c>
+      <c r="B317" t="s">
+        <v>40</v>
+      </c>
+      <c r="C317" t="s">
+        <v>41</v>
+      </c>
+      <c r="D317">
+        <v>131000</v>
+      </c>
+      <c r="E317" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F317" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G317">
+        <v>2020</v>
+      </c>
+      <c r="H317">
+        <v>3</v>
+      </c>
+      <c r="I317">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
+      <c r="A318" t="s">
+        <v>9</v>
+      </c>
+      <c r="B318" t="s">
+        <v>42</v>
+      </c>
+      <c r="C318" t="s">
+        <v>43</v>
+      </c>
+      <c r="D318">
+        <v>159500</v>
+      </c>
+      <c r="E318" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F318" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G318">
+        <v>2020</v>
+      </c>
+      <c r="H318">
+        <v>3</v>
+      </c>
+      <c r="I318">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
+      <c r="A319" t="s">
+        <v>9</v>
+      </c>
+      <c r="B319" t="s">
+        <v>44</v>
+      </c>
+      <c r="C319" t="s">
+        <v>45</v>
+      </c>
+      <c r="D319">
+        <v>111300</v>
+      </c>
+      <c r="E319" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F319" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G319">
+        <v>2020</v>
+      </c>
+      <c r="H319">
+        <v>3</v>
+      </c>
+      <c r="I319">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
+      <c r="A320" t="s">
+        <v>9</v>
+      </c>
+      <c r="B320" t="s">
+        <v>46</v>
+      </c>
+      <c r="C320" t="s">
+        <v>47</v>
+      </c>
+      <c r="D320">
+        <v>3172200</v>
+      </c>
+      <c r="E320" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F320" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G320">
+        <v>2020</v>
+      </c>
+      <c r="H320">
+        <v>3</v>
+      </c>
+      <c r="I320">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
+      <c r="A321" t="s">
+        <v>9</v>
+      </c>
+      <c r="B321" t="s">
+        <v>48</v>
+      </c>
+      <c r="C321" t="s">
+        <v>49</v>
+      </c>
+      <c r="D321">
+        <v>392600</v>
+      </c>
+      <c r="E321" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F321" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G321">
+        <v>2020</v>
+      </c>
+      <c r="H321">
+        <v>3</v>
+      </c>
+      <c r="I321">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
+      <c r="A322" t="s">
+        <v>9</v>
+      </c>
+      <c r="B322" t="s">
+        <v>50</v>
+      </c>
+      <c r="C322" t="s">
+        <v>51</v>
+      </c>
+      <c r="D322">
+        <v>450700</v>
+      </c>
+      <c r="E322" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F322" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G322">
+        <v>2020</v>
+      </c>
+      <c r="H322">
+        <v>3</v>
+      </c>
+      <c r="I322">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="A323" t="s">
+        <v>9</v>
+      </c>
+      <c r="B323" t="s">
+        <v>52</v>
+      </c>
+      <c r="C323" t="s">
+        <v>53</v>
+      </c>
+      <c r="D323">
+        <v>225500</v>
+      </c>
+      <c r="E323" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F323" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G323">
+        <v>2020</v>
+      </c>
+      <c r="H323">
+        <v>3</v>
+      </c>
+      <c r="I323">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
+      <c r="A324" t="s">
+        <v>9</v>
+      </c>
+      <c r="B324" t="s">
+        <v>54</v>
+      </c>
+      <c r="C324" t="s">
+        <v>55</v>
+      </c>
+      <c r="D324">
+        <v>584100</v>
+      </c>
+      <c r="E324" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F324" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G324">
+        <v>2020</v>
+      </c>
+      <c r="H324">
+        <v>3</v>
+      </c>
+      <c r="I324">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
+      <c r="A325" t="s">
+        <v>9</v>
+      </c>
+      <c r="B325" t="s">
+        <v>56</v>
+      </c>
+      <c r="C325" t="s">
+        <v>57</v>
+      </c>
+      <c r="D325">
+        <v>117900</v>
+      </c>
+      <c r="E325" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F325" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G325">
+        <v>2020</v>
+      </c>
+      <c r="H325">
+        <v>3</v>
+      </c>
+      <c r="I325">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9">
+      <c r="A326" t="s">
+        <v>9</v>
+      </c>
+      <c r="B326" t="s">
+        <v>9</v>
+      </c>
+      <c r="C326" t="s">
+        <v>58</v>
+      </c>
+      <c r="D326">
+        <v>17226800</v>
+      </c>
+      <c r="E326" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F326" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G326">
+        <v>2020</v>
+      </c>
+      <c r="H326">
+        <v>3</v>
+      </c>
+      <c r="I326">
+        <v>8985</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="A327" t="s">
+        <v>9</v>
+      </c>
+      <c r="B327" t="s">
+        <v>10</v>
+      </c>
+      <c r="C327" t="s">
+        <v>11</v>
+      </c>
+      <c r="D327">
+        <v>867200</v>
+      </c>
+      <c r="E327" s="1">
         <v>43922</v>
       </c>
-      <c r="F301" s="1">
+      <c r="F327" s="1">
         <v>43951</v>
       </c>
-      <c r="G301">
-        <v>2020</v>
-      </c>
-      <c r="H301">
+      <c r="G327">
+        <v>2020</v>
+      </c>
+      <c r="H327">
         <v>4</v>
       </c>
-      <c r="I301">
-        <v>17162</v>
+      <c r="I327">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="A328" t="s">
+        <v>9</v>
+      </c>
+      <c r="B328" t="s">
+        <v>12</v>
+      </c>
+      <c r="C328" t="s">
+        <v>13</v>
+      </c>
+      <c r="D328">
+        <v>208400</v>
+      </c>
+      <c r="E328" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F328" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G328">
+        <v>2020</v>
+      </c>
+      <c r="H328">
+        <v>4</v>
+      </c>
+      <c r="I328">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="A329" t="s">
+        <v>9</v>
+      </c>
+      <c r="B329" t="s">
+        <v>14</v>
+      </c>
+      <c r="C329" t="s">
+        <v>15</v>
+      </c>
+      <c r="D329">
+        <v>276800</v>
+      </c>
+      <c r="E329" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F329" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G329">
+        <v>2020</v>
+      </c>
+      <c r="H329">
+        <v>4</v>
+      </c>
+      <c r="I329">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330" t="s">
+        <v>9</v>
+      </c>
+      <c r="B330" t="s">
+        <v>16</v>
+      </c>
+      <c r="C330" t="s">
+        <v>17</v>
+      </c>
+      <c r="D330">
+        <v>185500</v>
+      </c>
+      <c r="E330" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F330" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G330">
+        <v>2020</v>
+      </c>
+      <c r="H330">
+        <v>4</v>
+      </c>
+      <c r="I330">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
+      <c r="A331" t="s">
+        <v>9</v>
+      </c>
+      <c r="B331" t="s">
+        <v>18</v>
+      </c>
+      <c r="C331" t="s">
+        <v>19</v>
+      </c>
+      <c r="D331">
+        <v>519800</v>
+      </c>
+      <c r="E331" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F331" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G331">
+        <v>2020</v>
+      </c>
+      <c r="H331">
+        <v>4</v>
+      </c>
+      <c r="I331">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9">
+      <c r="A332" t="s">
+        <v>9</v>
+      </c>
+      <c r="B332" t="s">
+        <v>20</v>
+      </c>
+      <c r="C332" t="s">
+        <v>21</v>
+      </c>
+      <c r="D332">
+        <v>482600</v>
+      </c>
+      <c r="E332" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F332" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G332">
+        <v>2020</v>
+      </c>
+      <c r="H332">
+        <v>4</v>
+      </c>
+      <c r="I332">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" t="s">
+        <v>9</v>
+      </c>
+      <c r="B333" t="s">
+        <v>22</v>
+      </c>
+      <c r="C333" t="s">
+        <v>23</v>
+      </c>
+      <c r="D333">
+        <v>707200</v>
+      </c>
+      <c r="E333" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F333" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G333">
+        <v>2020</v>
+      </c>
+      <c r="H333">
+        <v>4</v>
+      </c>
+      <c r="I333">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" t="s">
+        <v>9</v>
+      </c>
+      <c r="B334" t="s">
+        <v>24</v>
+      </c>
+      <c r="C334" t="s">
+        <v>25</v>
+      </c>
+      <c r="D334">
+        <v>635200</v>
+      </c>
+      <c r="E334" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F334" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G334">
+        <v>2020</v>
+      </c>
+      <c r="H334">
+        <v>4</v>
+      </c>
+      <c r="I334">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" t="s">
+        <v>9</v>
+      </c>
+      <c r="B335" t="s">
+        <v>26</v>
+      </c>
+      <c r="C335" t="s">
+        <v>27</v>
+      </c>
+      <c r="D335">
+        <v>32300</v>
+      </c>
+      <c r="E335" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F335" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G335">
+        <v>2020</v>
+      </c>
+      <c r="H335">
+        <v>4</v>
+      </c>
+      <c r="I335">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" t="s">
+        <v>9</v>
+      </c>
+      <c r="B336" t="s">
+        <v>28</v>
+      </c>
+      <c r="C336" t="s">
+        <v>29</v>
+      </c>
+      <c r="D336">
+        <v>4327800</v>
+      </c>
+      <c r="E336" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F336" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G336">
+        <v>2020</v>
+      </c>
+      <c r="H336">
+        <v>4</v>
+      </c>
+      <c r="I336">
+        <v>11376</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" t="s">
+        <v>9</v>
+      </c>
+      <c r="B337" t="s">
+        <v>30</v>
+      </c>
+      <c r="C337" t="s">
+        <v>31</v>
+      </c>
+      <c r="D337">
+        <v>470100</v>
+      </c>
+      <c r="E337" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F337" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G337">
+        <v>2020</v>
+      </c>
+      <c r="H337">
+        <v>4</v>
+      </c>
+      <c r="I337">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" t="s">
+        <v>9</v>
+      </c>
+      <c r="B338" t="s">
+        <v>32</v>
+      </c>
+      <c r="C338" t="s">
+        <v>33</v>
+      </c>
+      <c r="D338">
+        <v>516200</v>
+      </c>
+      <c r="E338" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F338" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G338">
+        <v>2020</v>
+      </c>
+      <c r="H338">
+        <v>4</v>
+      </c>
+      <c r="I338">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" t="s">
+        <v>9</v>
+      </c>
+      <c r="B339" t="s">
+        <v>34</v>
+      </c>
+      <c r="C339" t="s">
+        <v>35</v>
+      </c>
+      <c r="D339">
+        <v>910800</v>
+      </c>
+      <c r="E339" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F339" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G339">
+        <v>2020</v>
+      </c>
+      <c r="H339">
+        <v>4</v>
+      </c>
+      <c r="I339">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" t="s">
+        <v>9</v>
+      </c>
+      <c r="B340" t="s">
+        <v>36</v>
+      </c>
+      <c r="C340" t="s">
+        <v>37</v>
+      </c>
+      <c r="D340">
+        <v>1549800</v>
+      </c>
+      <c r="E340" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F340" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G340">
+        <v>2020</v>
+      </c>
+      <c r="H340">
+        <v>4</v>
+      </c>
+      <c r="I340">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="A341" t="s">
+        <v>9</v>
+      </c>
+      <c r="B341" t="s">
+        <v>38</v>
+      </c>
+      <c r="C341" t="s">
+        <v>39</v>
+      </c>
+      <c r="D341">
+        <v>192300</v>
+      </c>
+      <c r="E341" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F341" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G341">
+        <v>2020</v>
+      </c>
+      <c r="H341">
+        <v>4</v>
+      </c>
+      <c r="I341">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" t="s">
+        <v>9</v>
+      </c>
+      <c r="B342" t="s">
+        <v>40</v>
+      </c>
+      <c r="C342" t="s">
+        <v>41</v>
+      </c>
+      <c r="D342">
+        <v>131000</v>
+      </c>
+      <c r="E342" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F342" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G342">
+        <v>2020</v>
+      </c>
+      <c r="H342">
+        <v>4</v>
+      </c>
+      <c r="I342">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" t="s">
+        <v>9</v>
+      </c>
+      <c r="B343" t="s">
+        <v>42</v>
+      </c>
+      <c r="C343" t="s">
+        <v>43</v>
+      </c>
+      <c r="D343">
+        <v>159500</v>
+      </c>
+      <c r="E343" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F343" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G343">
+        <v>2020</v>
+      </c>
+      <c r="H343">
+        <v>4</v>
+      </c>
+      <c r="I343">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" t="s">
+        <v>9</v>
+      </c>
+      <c r="B344" t="s">
+        <v>44</v>
+      </c>
+      <c r="C344" t="s">
+        <v>45</v>
+      </c>
+      <c r="D344">
+        <v>111300</v>
+      </c>
+      <c r="E344" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F344" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G344">
+        <v>2020</v>
+      </c>
+      <c r="H344">
+        <v>4</v>
+      </c>
+      <c r="I344">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" t="s">
+        <v>9</v>
+      </c>
+      <c r="B345" t="s">
+        <v>46</v>
+      </c>
+      <c r="C345" t="s">
+        <v>47</v>
+      </c>
+      <c r="D345">
+        <v>3172200</v>
+      </c>
+      <c r="E345" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F345" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G345">
+        <v>2020</v>
+      </c>
+      <c r="H345">
+        <v>4</v>
+      </c>
+      <c r="I345">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" t="s">
+        <v>9</v>
+      </c>
+      <c r="B346" t="s">
+        <v>48</v>
+      </c>
+      <c r="C346" t="s">
+        <v>49</v>
+      </c>
+      <c r="D346">
+        <v>392600</v>
+      </c>
+      <c r="E346" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F346" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G346">
+        <v>2020</v>
+      </c>
+      <c r="H346">
+        <v>4</v>
+      </c>
+      <c r="I346">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" t="s">
+        <v>9</v>
+      </c>
+      <c r="B347" t="s">
+        <v>50</v>
+      </c>
+      <c r="C347" t="s">
+        <v>51</v>
+      </c>
+      <c r="D347">
+        <v>450700</v>
+      </c>
+      <c r="E347" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F347" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G347">
+        <v>2020</v>
+      </c>
+      <c r="H347">
+        <v>4</v>
+      </c>
+      <c r="I347">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" t="s">
+        <v>9</v>
+      </c>
+      <c r="B348" t="s">
+        <v>52</v>
+      </c>
+      <c r="C348" t="s">
+        <v>53</v>
+      </c>
+      <c r="D348">
+        <v>225500</v>
+      </c>
+      <c r="E348" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F348" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G348">
+        <v>2020</v>
+      </c>
+      <c r="H348">
+        <v>4</v>
+      </c>
+      <c r="I348">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" t="s">
+        <v>9</v>
+      </c>
+      <c r="B349" t="s">
+        <v>54</v>
+      </c>
+      <c r="C349" t="s">
+        <v>55</v>
+      </c>
+      <c r="D349">
+        <v>584100</v>
+      </c>
+      <c r="E349" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F349" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G349">
+        <v>2020</v>
+      </c>
+      <c r="H349">
+        <v>4</v>
+      </c>
+      <c r="I349">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="s">
+        <v>56</v>
+      </c>
+      <c r="C350" t="s">
+        <v>57</v>
+      </c>
+      <c r="D350">
+        <v>117900</v>
+      </c>
+      <c r="E350" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F350" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G350">
+        <v>2020</v>
+      </c>
+      <c r="H350">
+        <v>4</v>
+      </c>
+      <c r="I350">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" t="s">
+        <v>9</v>
+      </c>
+      <c r="B351" t="s">
+        <v>9</v>
+      </c>
+      <c r="C351" t="s">
+        <v>58</v>
+      </c>
+      <c r="D351">
+        <v>17226800</v>
+      </c>
+      <c r="E351" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F351" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G351">
+        <v>2020</v>
+      </c>
+      <c r="H351">
+        <v>4</v>
+      </c>
+      <c r="I351">
+        <v>18496</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" t="s">
+        <v>9</v>
+      </c>
+      <c r="B352" t="s">
+        <v>10</v>
+      </c>
+      <c r="C352" t="s">
+        <v>11</v>
+      </c>
+      <c r="D352">
+        <v>867200</v>
+      </c>
+      <c r="E352" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F352" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G352">
+        <v>2020</v>
+      </c>
+      <c r="H352">
+        <v>5</v>
+      </c>
+      <c r="I352">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" t="s">
+        <v>9</v>
+      </c>
+      <c r="B353" t="s">
+        <v>12</v>
+      </c>
+      <c r="C353" t="s">
+        <v>13</v>
+      </c>
+      <c r="D353">
+        <v>208400</v>
+      </c>
+      <c r="E353" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F353" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G353">
+        <v>2020</v>
+      </c>
+      <c r="H353">
+        <v>5</v>
+      </c>
+      <c r="I353">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" t="s">
+        <v>9</v>
+      </c>
+      <c r="B354" t="s">
+        <v>14</v>
+      </c>
+      <c r="C354" t="s">
+        <v>15</v>
+      </c>
+      <c r="D354">
+        <v>276800</v>
+      </c>
+      <c r="E354" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F354" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G354">
+        <v>2020</v>
+      </c>
+      <c r="H354">
+        <v>5</v>
+      </c>
+      <c r="I354">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" t="s">
+        <v>9</v>
+      </c>
+      <c r="B355" t="s">
+        <v>16</v>
+      </c>
+      <c r="C355" t="s">
+        <v>17</v>
+      </c>
+      <c r="D355">
+        <v>185500</v>
+      </c>
+      <c r="E355" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F355" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G355">
+        <v>2020</v>
+      </c>
+      <c r="H355">
+        <v>5</v>
+      </c>
+      <c r="I355">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" t="s">
+        <v>9</v>
+      </c>
+      <c r="B356" t="s">
+        <v>18</v>
+      </c>
+      <c r="C356" t="s">
+        <v>19</v>
+      </c>
+      <c r="D356">
+        <v>519800</v>
+      </c>
+      <c r="E356" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F356" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G356">
+        <v>2020</v>
+      </c>
+      <c r="H356">
+        <v>5</v>
+      </c>
+      <c r="I356">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357" t="s">
+        <v>9</v>
+      </c>
+      <c r="B357" t="s">
+        <v>20</v>
+      </c>
+      <c r="C357" t="s">
+        <v>21</v>
+      </c>
+      <c r="D357">
+        <v>482600</v>
+      </c>
+      <c r="E357" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F357" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G357">
+        <v>2020</v>
+      </c>
+      <c r="H357">
+        <v>5</v>
+      </c>
+      <c r="I357">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358" t="s">
+        <v>9</v>
+      </c>
+      <c r="B358" t="s">
+        <v>22</v>
+      </c>
+      <c r="C358" t="s">
+        <v>23</v>
+      </c>
+      <c r="D358">
+        <v>707200</v>
+      </c>
+      <c r="E358" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F358" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G358">
+        <v>2020</v>
+      </c>
+      <c r="H358">
+        <v>5</v>
+      </c>
+      <c r="I358">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" t="s">
+        <v>9</v>
+      </c>
+      <c r="B359" t="s">
+        <v>24</v>
+      </c>
+      <c r="C359" t="s">
+        <v>25</v>
+      </c>
+      <c r="D359">
+        <v>635200</v>
+      </c>
+      <c r="E359" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F359" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G359">
+        <v>2020</v>
+      </c>
+      <c r="H359">
+        <v>5</v>
+      </c>
+      <c r="I359">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="A360" t="s">
+        <v>9</v>
+      </c>
+      <c r="B360" t="s">
+        <v>26</v>
+      </c>
+      <c r="C360" t="s">
+        <v>27</v>
+      </c>
+      <c r="D360">
+        <v>32300</v>
+      </c>
+      <c r="E360" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F360" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G360">
+        <v>2020</v>
+      </c>
+      <c r="H360">
+        <v>5</v>
+      </c>
+      <c r="I360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="A361" t="s">
+        <v>9</v>
+      </c>
+      <c r="B361" t="s">
+        <v>28</v>
+      </c>
+      <c r="C361" t="s">
+        <v>29</v>
+      </c>
+      <c r="D361">
+        <v>4327800</v>
+      </c>
+      <c r="E361" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F361" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G361">
+        <v>2020</v>
+      </c>
+      <c r="H361">
+        <v>5</v>
+      </c>
+      <c r="I361">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="A362" t="s">
+        <v>9</v>
+      </c>
+      <c r="B362" t="s">
+        <v>30</v>
+      </c>
+      <c r="C362" t="s">
+        <v>31</v>
+      </c>
+      <c r="D362">
+        <v>470100</v>
+      </c>
+      <c r="E362" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F362" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G362">
+        <v>2020</v>
+      </c>
+      <c r="H362">
+        <v>5</v>
+      </c>
+      <c r="I362">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" t="s">
+        <v>9</v>
+      </c>
+      <c r="B363" t="s">
+        <v>32</v>
+      </c>
+      <c r="C363" t="s">
+        <v>33</v>
+      </c>
+      <c r="D363">
+        <v>516200</v>
+      </c>
+      <c r="E363" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F363" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G363">
+        <v>2020</v>
+      </c>
+      <c r="H363">
+        <v>5</v>
+      </c>
+      <c r="I363">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="A364" t="s">
+        <v>9</v>
+      </c>
+      <c r="B364" t="s">
+        <v>34</v>
+      </c>
+      <c r="C364" t="s">
+        <v>35</v>
+      </c>
+      <c r="D364">
+        <v>910800</v>
+      </c>
+      <c r="E364" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F364" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G364">
+        <v>2020</v>
+      </c>
+      <c r="H364">
+        <v>5</v>
+      </c>
+      <c r="I364">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" t="s">
+        <v>9</v>
+      </c>
+      <c r="B365" t="s">
+        <v>36</v>
+      </c>
+      <c r="C365" t="s">
+        <v>37</v>
+      </c>
+      <c r="D365">
+        <v>1549800</v>
+      </c>
+      <c r="E365" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F365" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G365">
+        <v>2020</v>
+      </c>
+      <c r="H365">
+        <v>5</v>
+      </c>
+      <c r="I365">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" t="s">
+        <v>9</v>
+      </c>
+      <c r="B366" t="s">
+        <v>38</v>
+      </c>
+      <c r="C366" t="s">
+        <v>39</v>
+      </c>
+      <c r="D366">
+        <v>192300</v>
+      </c>
+      <c r="E366" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F366" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G366">
+        <v>2020</v>
+      </c>
+      <c r="H366">
+        <v>5</v>
+      </c>
+      <c r="I366">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367" t="s">
+        <v>9</v>
+      </c>
+      <c r="B367" t="s">
+        <v>40</v>
+      </c>
+      <c r="C367" t="s">
+        <v>41</v>
+      </c>
+      <c r="D367">
+        <v>131000</v>
+      </c>
+      <c r="E367" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F367" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G367">
+        <v>2020</v>
+      </c>
+      <c r="H367">
+        <v>5</v>
+      </c>
+      <c r="I367">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" t="s">
+        <v>9</v>
+      </c>
+      <c r="B368" t="s">
+        <v>42</v>
+      </c>
+      <c r="C368" t="s">
+        <v>43</v>
+      </c>
+      <c r="D368">
+        <v>159500</v>
+      </c>
+      <c r="E368" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F368" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G368">
+        <v>2020</v>
+      </c>
+      <c r="H368">
+        <v>5</v>
+      </c>
+      <c r="I368">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" t="s">
+        <v>9</v>
+      </c>
+      <c r="B369" t="s">
+        <v>44</v>
+      </c>
+      <c r="C369" t="s">
+        <v>45</v>
+      </c>
+      <c r="D369">
+        <v>111300</v>
+      </c>
+      <c r="E369" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F369" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G369">
+        <v>2020</v>
+      </c>
+      <c r="H369">
+        <v>5</v>
+      </c>
+      <c r="I369">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" t="s">
+        <v>9</v>
+      </c>
+      <c r="B370" t="s">
+        <v>46</v>
+      </c>
+      <c r="C370" t="s">
+        <v>47</v>
+      </c>
+      <c r="D370">
+        <v>3172200</v>
+      </c>
+      <c r="E370" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F370" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G370">
+        <v>2020</v>
+      </c>
+      <c r="H370">
+        <v>5</v>
+      </c>
+      <c r="I370">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" t="s">
+        <v>9</v>
+      </c>
+      <c r="B371" t="s">
+        <v>48</v>
+      </c>
+      <c r="C371" t="s">
+        <v>49</v>
+      </c>
+      <c r="D371">
+        <v>392600</v>
+      </c>
+      <c r="E371" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F371" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G371">
+        <v>2020</v>
+      </c>
+      <c r="H371">
+        <v>5</v>
+      </c>
+      <c r="I371">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372" t="s">
+        <v>9</v>
+      </c>
+      <c r="B372" t="s">
+        <v>50</v>
+      </c>
+      <c r="C372" t="s">
+        <v>51</v>
+      </c>
+      <c r="D372">
+        <v>450700</v>
+      </c>
+      <c r="E372" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F372" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G372">
+        <v>2020</v>
+      </c>
+      <c r="H372">
+        <v>5</v>
+      </c>
+      <c r="I372">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373" t="s">
+        <v>9</v>
+      </c>
+      <c r="B373" t="s">
+        <v>52</v>
+      </c>
+      <c r="C373" t="s">
+        <v>53</v>
+      </c>
+      <c r="D373">
+        <v>225500</v>
+      </c>
+      <c r="E373" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F373" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G373">
+        <v>2020</v>
+      </c>
+      <c r="H373">
+        <v>5</v>
+      </c>
+      <c r="I373">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" t="s">
+        <v>9</v>
+      </c>
+      <c r="B374" t="s">
+        <v>54</v>
+      </c>
+      <c r="C374" t="s">
+        <v>55</v>
+      </c>
+      <c r="D374">
+        <v>584100</v>
+      </c>
+      <c r="E374" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F374" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G374">
+        <v>2020</v>
+      </c>
+      <c r="H374">
+        <v>5</v>
+      </c>
+      <c r="I374">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" t="s">
+        <v>9</v>
+      </c>
+      <c r="B375" t="s">
+        <v>56</v>
+      </c>
+      <c r="C375" t="s">
+        <v>57</v>
+      </c>
+      <c r="D375">
+        <v>117900</v>
+      </c>
+      <c r="E375" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F375" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G375">
+        <v>2020</v>
+      </c>
+      <c r="H375">
+        <v>5</v>
+      </c>
+      <c r="I375">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376" t="s">
+        <v>9</v>
+      </c>
+      <c r="B376" t="s">
+        <v>9</v>
+      </c>
+      <c r="C376" t="s">
+        <v>58</v>
+      </c>
+      <c r="D376">
+        <v>17226800</v>
+      </c>
+      <c r="E376" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F376" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G376">
+        <v>2020</v>
+      </c>
+      <c r="H376">
+        <v>5</v>
+      </c>
+      <c r="I376">
+        <v>8252</v>
       </c>
     </row>
   </sheetData>

--- a/source-data/ecuador/ecuador_total_source_latest.xlsx
+++ b/source-data/ecuador/ecuador_total_source_latest.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/ecuador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3C8CAC-1785-AE49-B984-64ACDAA29622}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D9F302-AE66-6840-B5BC-A16A799E7288}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="26700" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7520" yWindow="540" windowWidth="22380" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ecuador_total_source_latest" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ecuador_total_source_latest!$A$1:$I$376</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ecuador_total_source_latest!$A$1:$I$426</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="59">
   <si>
     <t>country</t>
   </si>
@@ -1041,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I376"/>
+  <dimension ref="A1:I451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
+      <selection activeCell="B446" sqref="B446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1104,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1220,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1336,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1365,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1819</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1481,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1568,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1319</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1655,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1713,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="I26">
-        <v>6608</v>
+        <v>6675</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1829,7 +1829,7 @@
         <v>2</v>
       </c>
       <c r="I27">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1916,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="I30">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2003,7 +2003,7 @@
         <v>2</v>
       </c>
       <c r="I33">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2032,7 +2032,7 @@
         <v>2</v>
       </c>
       <c r="I34">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2061,7 +2061,7 @@
         <v>2</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2090,7 +2090,7 @@
         <v>2</v>
       </c>
       <c r="I36">
-        <v>1536</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2148,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="I38">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2177,7 +2177,7 @@
         <v>2</v>
       </c>
       <c r="I39">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2206,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="I40">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2264,7 +2264,7 @@
         <v>2</v>
       </c>
       <c r="I42">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2293,7 +2293,7 @@
         <v>2</v>
       </c>
       <c r="I43">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2322,7 +2322,7 @@
         <v>2</v>
       </c>
       <c r="I44">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2351,7 +2351,7 @@
         <v>2</v>
       </c>
       <c r="I45">
-        <v>1000</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2380,7 +2380,7 @@
         <v>2</v>
       </c>
       <c r="I46">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2438,7 +2438,7 @@
         <v>2</v>
       </c>
       <c r="I48">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2467,7 +2467,7 @@
         <v>2</v>
       </c>
       <c r="I49">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2525,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="I51">
-        <v>5680</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2641,7 +2641,7 @@
         <v>3</v>
       </c>
       <c r="I55">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2670,7 +2670,7 @@
         <v>3</v>
       </c>
       <c r="I56">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2699,7 +2699,7 @@
         <v>3</v>
       </c>
       <c r="I57">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2757,7 +2757,7 @@
         <v>3</v>
       </c>
       <c r="I59">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2786,7 +2786,7 @@
         <v>3</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2815,7 +2815,7 @@
         <v>3</v>
       </c>
       <c r="I61">
-        <v>1777</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2844,7 +2844,7 @@
         <v>3</v>
       </c>
       <c r="I62">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2873,7 +2873,7 @@
         <v>3</v>
       </c>
       <c r="I63">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2931,7 +2931,7 @@
         <v>3</v>
       </c>
       <c r="I65">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2960,7 +2960,7 @@
         <v>3</v>
       </c>
       <c r="I66">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3076,7 +3076,7 @@
         <v>3</v>
       </c>
       <c r="I70">
-        <v>1001</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3105,7 +3105,7 @@
         <v>3</v>
       </c>
       <c r="I71">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3163,7 +3163,7 @@
         <v>3</v>
       </c>
       <c r="I73">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3192,7 +3192,7 @@
         <v>3</v>
       </c>
       <c r="I74">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3250,7 +3250,7 @@
         <v>3</v>
       </c>
       <c r="I76">
-        <v>5988</v>
+        <v>6047</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3337,7 +3337,7 @@
         <v>4</v>
       </c>
       <c r="I79">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3366,7 +3366,7 @@
         <v>4</v>
       </c>
       <c r="I80">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3453,7 +3453,7 @@
         <v>4</v>
       </c>
       <c r="I83">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3482,7 +3482,7 @@
         <v>4</v>
       </c>
       <c r="I84">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3511,7 +3511,7 @@
         <v>4</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3540,7 +3540,7 @@
         <v>4</v>
       </c>
       <c r="I86">
-        <v>1682</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3569,7 +3569,7 @@
         <v>4</v>
       </c>
       <c r="I87">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3598,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="I88">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3627,7 +3627,7 @@
         <v>4</v>
       </c>
       <c r="I89">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3656,7 +3656,7 @@
         <v>4</v>
       </c>
       <c r="I90">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3743,7 +3743,7 @@
         <v>4</v>
       </c>
       <c r="I93">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3801,7 +3801,7 @@
         <v>4</v>
       </c>
       <c r="I95">
-        <v>1008</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3830,7 +3830,7 @@
         <v>4</v>
       </c>
       <c r="I96">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3888,7 +3888,7 @@
         <v>4</v>
       </c>
       <c r="I98">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3917,7 +3917,7 @@
         <v>4</v>
       </c>
       <c r="I99">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3975,7 +3975,7 @@
         <v>4</v>
       </c>
       <c r="I101">
-        <v>5692</v>
+        <v>5754</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4004,7 +4004,7 @@
         <v>5</v>
       </c>
       <c r="I102">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4033,7 +4033,7 @@
         <v>5</v>
       </c>
       <c r="I103">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4091,7 +4091,7 @@
         <v>5</v>
       </c>
       <c r="I105">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4120,7 +4120,7 @@
         <v>5</v>
       </c>
       <c r="I106">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4149,7 +4149,7 @@
         <v>5</v>
       </c>
       <c r="I107">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4207,7 +4207,7 @@
         <v>5</v>
       </c>
       <c r="I109">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="I111">
-        <v>1647</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4294,7 +4294,7 @@
         <v>5</v>
       </c>
       <c r="I112">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4323,7 +4323,7 @@
         <v>5</v>
       </c>
       <c r="I113">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4381,7 +4381,7 @@
         <v>5</v>
       </c>
       <c r="I115">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4497,7 +4497,7 @@
         <v>5</v>
       </c>
       <c r="I119">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4526,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="I120">
-        <v>1120</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4613,7 +4613,7 @@
         <v>5</v>
       </c>
       <c r="I123">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4642,7 +4642,7 @@
         <v>5</v>
       </c>
       <c r="I124">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4700,7 +4700,7 @@
         <v>5</v>
       </c>
       <c r="I126">
-        <v>5811</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4717,19 +4717,19 @@
         <v>867200</v>
       </c>
       <c r="E127" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F127" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G127">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I127">
-        <v>353</v>
+        <v>319</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4746,19 +4746,19 @@
         <v>208400</v>
       </c>
       <c r="E128" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F128" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G128">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I128">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4775,19 +4775,19 @@
         <v>276800</v>
       </c>
       <c r="E129" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F129" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G129">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I129">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4804,19 +4804,19 @@
         <v>185500</v>
       </c>
       <c r="E130" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F130" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G130">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I130">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4833,19 +4833,19 @@
         <v>519800</v>
       </c>
       <c r="E131" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F131" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G131">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I131">
-        <v>197</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4862,19 +4862,19 @@
         <v>482600</v>
       </c>
       <c r="E132" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F132" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G132">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I132">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4891,19 +4891,19 @@
         <v>707200</v>
       </c>
       <c r="E133" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F133" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G133">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I133">
-        <v>264</v>
+        <v>205</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4920,19 +4920,19 @@
         <v>635200</v>
       </c>
       <c r="E134" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F134" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G134">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I134">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4949,19 +4949,19 @@
         <v>32300</v>
       </c>
       <c r="E135" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F135" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G135">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I135">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4978,19 +4978,19 @@
         <v>4327800</v>
       </c>
       <c r="E136" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F136" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G136">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I136">
-        <v>1965</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5007,19 +5007,19 @@
         <v>470100</v>
       </c>
       <c r="E137" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F137" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G137">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I137">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5036,19 +5036,19 @@
         <v>516200</v>
       </c>
       <c r="E138" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F138" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G138">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I138">
-        <v>201</v>
+        <v>172</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5065,19 +5065,19 @@
         <v>910800</v>
       </c>
       <c r="E139" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F139" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G139">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I139">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5094,19 +5094,19 @@
         <v>1549800</v>
       </c>
       <c r="E140" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F140" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G140">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I140">
-        <v>604</v>
+        <v>511</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5123,19 +5123,19 @@
         <v>192300</v>
       </c>
       <c r="E141" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F141" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G141">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I141">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5152,19 +5152,19 @@
         <v>131000</v>
       </c>
       <c r="E142" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F142" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G142">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I142">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5181,19 +5181,19 @@
         <v>159500</v>
       </c>
       <c r="E143" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F143" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G143">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I143">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5210,19 +5210,19 @@
         <v>111300</v>
       </c>
       <c r="E144" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F144" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G144">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I144">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5239,19 +5239,19 @@
         <v>3172200</v>
       </c>
       <c r="E145" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F145" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G145">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I145">
-        <v>1218</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5268,19 +5268,19 @@
         <v>392600</v>
       </c>
       <c r="E146" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F146" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G146">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I146">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5297,19 +5297,19 @@
         <v>450700</v>
       </c>
       <c r="E147" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F147" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G147">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I147">
-        <v>226</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5326,19 +5326,19 @@
         <v>225500</v>
       </c>
       <c r="E148" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F148" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G148">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I148">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5355,19 +5355,19 @@
         <v>584100</v>
       </c>
       <c r="E149" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F149" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G149">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I149">
-        <v>237</v>
+        <v>252</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5384,19 +5384,19 @@
         <v>117900</v>
       </c>
       <c r="E150" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F150" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G150">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I150">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5413,19 +5413,19 @@
         <v>17226800</v>
       </c>
       <c r="E151" s="1">
-        <v>43466</v>
+        <v>43252</v>
       </c>
       <c r="F151" s="1">
-        <v>43496</v>
+        <v>43281</v>
       </c>
       <c r="G151">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I151">
-        <v>6637</v>
+        <v>5728</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5442,19 +5442,19 @@
         <v>867200</v>
       </c>
       <c r="E152" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F152" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G152">
         <v>2019</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>297</v>
+        <v>354</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5471,19 +5471,19 @@
         <v>208400</v>
       </c>
       <c r="E153" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F153" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G153">
         <v>2019</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5500,19 +5500,19 @@
         <v>276800</v>
       </c>
       <c r="E154" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F154" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G154">
         <v>2019</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5529,19 +5529,19 @@
         <v>185500</v>
       </c>
       <c r="E155" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F155" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G155">
         <v>2019</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5558,19 +5558,19 @@
         <v>519800</v>
       </c>
       <c r="E156" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F156" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G156">
         <v>2019</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5587,19 +5587,19 @@
         <v>482600</v>
       </c>
       <c r="E157" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F157" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G157">
         <v>2019</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>125</v>
+        <v>164</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5616,19 +5616,19 @@
         <v>707200</v>
       </c>
       <c r="E158" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F158" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G158">
         <v>2019</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>249</v>
+        <v>266</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5645,19 +5645,19 @@
         <v>635200</v>
       </c>
       <c r="E159" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F159" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G159">
         <v>2019</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>122</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5674,16 +5674,16 @@
         <v>32300</v>
       </c>
       <c r="E160" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F160" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G160">
         <v>2019</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160">
         <v>6</v>
@@ -5703,19 +5703,19 @@
         <v>4327800</v>
       </c>
       <c r="E161" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F161" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G161">
         <v>2019</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>1771</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5732,19 +5732,19 @@
         <v>470100</v>
       </c>
       <c r="E162" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F162" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G162">
         <v>2019</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>158</v>
+        <v>197</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5761,19 +5761,19 @@
         <v>516200</v>
       </c>
       <c r="E163" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F163" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G163">
         <v>2019</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5790,19 +5790,19 @@
         <v>910800</v>
       </c>
       <c r="E164" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F164" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G164">
         <v>2019</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5819,19 +5819,19 @@
         <v>1549800</v>
       </c>
       <c r="E165" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F165" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G165">
         <v>2019</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>549</v>
+        <v>604</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5848,19 +5848,19 @@
         <v>192300</v>
       </c>
       <c r="E166" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F166" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G166">
         <v>2019</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5877,19 +5877,19 @@
         <v>131000</v>
       </c>
       <c r="E167" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F167" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G167">
         <v>2019</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5906,19 +5906,19 @@
         <v>159500</v>
       </c>
       <c r="E168" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F168" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G168">
         <v>2019</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5935,19 +5935,19 @@
         <v>111300</v>
       </c>
       <c r="E169" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F169" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G169">
         <v>2019</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5964,19 +5964,19 @@
         <v>3172200</v>
       </c>
       <c r="E170" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F170" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G170">
         <v>2019</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
-        <v>996</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5993,19 +5993,19 @@
         <v>392600</v>
       </c>
       <c r="E171" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F171" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G171">
         <v>2019</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6022,19 +6022,19 @@
         <v>450700</v>
       </c>
       <c r="E172" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F172" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G172">
         <v>2019</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>156</v>
+        <v>226</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6051,19 +6051,19 @@
         <v>225500</v>
       </c>
       <c r="E173" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F173" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G173">
         <v>2019</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6080,19 +6080,19 @@
         <v>584100</v>
       </c>
       <c r="E174" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F174" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G174">
         <v>2019</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174">
-        <v>196</v>
+        <v>237</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6109,19 +6109,19 @@
         <v>117900</v>
       </c>
       <c r="E175" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F175" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G175">
         <v>2019</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6138,19 +6138,19 @@
         <v>17226800</v>
       </c>
       <c r="E176" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F176" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G176">
         <v>2019</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>5867</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6167,19 +6167,19 @@
         <v>867200</v>
       </c>
       <c r="E177" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F177" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G177">
         <v>2019</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6196,19 +6196,19 @@
         <v>208400</v>
       </c>
       <c r="E178" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F178" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G178">
         <v>2019</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6225,19 +6225,19 @@
         <v>276800</v>
       </c>
       <c r="E179" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F179" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G179">
         <v>2019</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6254,16 +6254,16 @@
         <v>185500</v>
       </c>
       <c r="E180" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F180" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G180">
         <v>2019</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180">
         <v>57</v>
@@ -6283,19 +6283,19 @@
         <v>519800</v>
       </c>
       <c r="E181" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F181" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G181">
         <v>2019</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>227</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6312,19 +6312,19 @@
         <v>482600</v>
       </c>
       <c r="E182" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F182" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G182">
         <v>2019</v>
       </c>
       <c r="H182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182">
-        <v>168</v>
+        <v>125</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6341,19 +6341,19 @@
         <v>707200</v>
       </c>
       <c r="E183" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F183" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G183">
         <v>2019</v>
       </c>
       <c r="H183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>289</v>
+        <v>250</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6370,19 +6370,19 @@
         <v>635200</v>
       </c>
       <c r="E184" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F184" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G184">
         <v>2019</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>154</v>
+        <v>122</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6399,19 +6399,19 @@
         <v>32300</v>
       </c>
       <c r="E185" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F185" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G185">
         <v>2019</v>
       </c>
       <c r="H185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6428,19 +6428,19 @@
         <v>4327800</v>
       </c>
       <c r="E186" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F186" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G186">
         <v>2019</v>
       </c>
       <c r="H186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186">
-        <v>1909</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6457,19 +6457,19 @@
         <v>470100</v>
       </c>
       <c r="E187" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F187" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G187">
         <v>2019</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6486,19 +6486,19 @@
         <v>516200</v>
       </c>
       <c r="E188" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F188" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G188">
         <v>2019</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6515,19 +6515,19 @@
         <v>910800</v>
       </c>
       <c r="E189" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F189" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G189">
         <v>2019</v>
       </c>
       <c r="H189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189">
-        <v>329</v>
+        <v>299</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6544,19 +6544,19 @@
         <v>1549800</v>
       </c>
       <c r="E190" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F190" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G190">
         <v>2019</v>
       </c>
       <c r="H190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>583</v>
+        <v>549</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6573,19 +6573,19 @@
         <v>192300</v>
       </c>
       <c r="E191" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F191" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G191">
         <v>2019</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6602,19 +6602,19 @@
         <v>131000</v>
       </c>
       <c r="E192" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F192" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G192">
         <v>2019</v>
       </c>
       <c r="H192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6631,19 +6631,19 @@
         <v>159500</v>
       </c>
       <c r="E193" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F193" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G193">
         <v>2019</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6660,16 +6660,16 @@
         <v>111300</v>
       </c>
       <c r="E194" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F194" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G194">
         <v>2019</v>
       </c>
       <c r="H194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194">
         <v>28</v>
@@ -6689,19 +6689,19 @@
         <v>3172200</v>
       </c>
       <c r="E195" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F195" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G195">
         <v>2019</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I195">
-        <v>1094</v>
+        <v>999</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6718,19 +6718,19 @@
         <v>392600</v>
       </c>
       <c r="E196" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F196" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G196">
         <v>2019</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -6747,19 +6747,19 @@
         <v>450700</v>
       </c>
       <c r="E197" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F197" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G197">
         <v>2019</v>
       </c>
       <c r="H197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>240</v>
+        <v>156</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6776,19 +6776,19 @@
         <v>225500</v>
       </c>
       <c r="E198" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F198" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G198">
         <v>2019</v>
       </c>
       <c r="H198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -6805,19 +6805,19 @@
         <v>584100</v>
       </c>
       <c r="E199" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F199" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G199">
         <v>2019</v>
       </c>
       <c r="H199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>266</v>
+        <v>196</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -6834,19 +6834,19 @@
         <v>117900</v>
       </c>
       <c r="E200" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F200" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G200">
         <v>2019</v>
       </c>
       <c r="H200">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6863,19 +6863,19 @@
         <v>17226800</v>
       </c>
       <c r="E201" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F201" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G201">
         <v>2019</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201">
-        <v>6492</v>
+        <v>5876</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -6892,19 +6892,19 @@
         <v>867200</v>
       </c>
       <c r="E202" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F202" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G202">
         <v>2019</v>
       </c>
       <c r="H202">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I202">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6921,19 +6921,19 @@
         <v>208400</v>
       </c>
       <c r="E203" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F203" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G203">
         <v>2019</v>
       </c>
       <c r="H203">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I203">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -6950,19 +6950,19 @@
         <v>276800</v>
       </c>
       <c r="E204" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F204" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G204">
         <v>2019</v>
       </c>
       <c r="H204">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I204">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -6979,16 +6979,16 @@
         <v>185500</v>
       </c>
       <c r="E205" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F205" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G205">
         <v>2019</v>
       </c>
       <c r="H205">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I205">
         <v>57</v>
@@ -7008,19 +7008,19 @@
         <v>519800</v>
       </c>
       <c r="E206" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F206" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G206">
         <v>2019</v>
       </c>
       <c r="H206">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I206">
-        <v>177</v>
+        <v>227</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -7037,19 +7037,19 @@
         <v>482600</v>
       </c>
       <c r="E207" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F207" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G207">
         <v>2019</v>
       </c>
       <c r="H207">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I207">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -7066,19 +7066,19 @@
         <v>707200</v>
       </c>
       <c r="E208" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F208" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G208">
         <v>2019</v>
       </c>
       <c r="H208">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I208">
-        <v>233</v>
+        <v>289</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -7095,19 +7095,19 @@
         <v>635200</v>
       </c>
       <c r="E209" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F209" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G209">
         <v>2019</v>
       </c>
       <c r="H209">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I209">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -7124,19 +7124,19 @@
         <v>32300</v>
       </c>
       <c r="E210" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F210" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G210">
         <v>2019</v>
       </c>
       <c r="H210">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I210">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -7153,19 +7153,19 @@
         <v>4327800</v>
       </c>
       <c r="E211" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F211" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G211">
         <v>2019</v>
       </c>
       <c r="H211">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I211">
-        <v>1863</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -7182,19 +7182,19 @@
         <v>470100</v>
       </c>
       <c r="E212" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F212" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G212">
         <v>2019</v>
       </c>
       <c r="H212">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I212">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -7211,19 +7211,19 @@
         <v>516200</v>
       </c>
       <c r="E213" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F213" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G213">
         <v>2019</v>
       </c>
       <c r="H213">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I213">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -7240,19 +7240,19 @@
         <v>910800</v>
       </c>
       <c r="E214" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F214" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G214">
         <v>2019</v>
       </c>
       <c r="H214">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I214">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -7269,19 +7269,19 @@
         <v>1549800</v>
       </c>
       <c r="E215" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F215" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G215">
         <v>2019</v>
       </c>
       <c r="H215">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I215">
-        <v>554</v>
+        <v>583</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -7298,19 +7298,19 @@
         <v>192300</v>
       </c>
       <c r="E216" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F216" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G216">
         <v>2019</v>
       </c>
       <c r="H216">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I216">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -7327,19 +7327,19 @@
         <v>131000</v>
       </c>
       <c r="E217" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F217" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G217">
         <v>2019</v>
       </c>
       <c r="H217">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I217">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -7356,19 +7356,19 @@
         <v>159500</v>
       </c>
       <c r="E218" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F218" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G218">
         <v>2019</v>
       </c>
       <c r="H218">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I218">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -7385,19 +7385,19 @@
         <v>111300</v>
       </c>
       <c r="E219" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F219" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G219">
         <v>2019</v>
       </c>
       <c r="H219">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I219">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -7414,19 +7414,19 @@
         <v>3172200</v>
       </c>
       <c r="E220" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F220" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G220">
         <v>2019</v>
       </c>
       <c r="H220">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I220">
-        <v>995</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -7443,19 +7443,19 @@
         <v>392600</v>
       </c>
       <c r="E221" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F221" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G221">
         <v>2019</v>
       </c>
       <c r="H221">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I221">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -7472,19 +7472,19 @@
         <v>450700</v>
       </c>
       <c r="E222" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F222" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G222">
         <v>2019</v>
       </c>
       <c r="H222">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I222">
-        <v>198</v>
+        <v>240</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -7501,19 +7501,19 @@
         <v>225500</v>
       </c>
       <c r="E223" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F223" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G223">
         <v>2019</v>
       </c>
       <c r="H223">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I223">
-        <v>64</v>
+        <v>42</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -7530,19 +7530,19 @@
         <v>584100</v>
       </c>
       <c r="E224" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F224" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G224">
         <v>2019</v>
       </c>
       <c r="H224">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I224">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -7559,16 +7559,16 @@
         <v>117900</v>
       </c>
       <c r="E225" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F225" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G225">
         <v>2019</v>
       </c>
       <c r="H225">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I225">
         <v>22</v>
@@ -7588,19 +7588,19 @@
         <v>17226800</v>
       </c>
       <c r="E226" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F226" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G226">
         <v>2019</v>
       </c>
       <c r="H226">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I226">
-        <v>6071</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -7617,19 +7617,19 @@
         <v>867200</v>
       </c>
       <c r="E227" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F227" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G227">
         <v>2019</v>
       </c>
       <c r="H227">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I227">
-        <v>347</v>
+        <v>309</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -7646,19 +7646,19 @@
         <v>208400</v>
       </c>
       <c r="E228" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F228" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G228">
         <v>2019</v>
       </c>
       <c r="H228">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I228">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -7675,19 +7675,19 @@
         <v>276800</v>
       </c>
       <c r="E229" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F229" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G229">
         <v>2019</v>
       </c>
       <c r="H229">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I229">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -7704,19 +7704,19 @@
         <v>185500</v>
       </c>
       <c r="E230" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F230" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G230">
         <v>2019</v>
       </c>
       <c r="H230">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I230">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -7733,19 +7733,19 @@
         <v>519800</v>
       </c>
       <c r="E231" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F231" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G231">
         <v>2019</v>
       </c>
       <c r="H231">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I231">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -7762,19 +7762,19 @@
         <v>482600</v>
       </c>
       <c r="E232" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F232" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G232">
         <v>2019</v>
       </c>
       <c r="H232">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I232">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -7791,19 +7791,19 @@
         <v>707200</v>
       </c>
       <c r="E233" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F233" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G233">
         <v>2019</v>
       </c>
       <c r="H233">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I233">
-        <v>262</v>
+        <v>233</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -7820,19 +7820,19 @@
         <v>635200</v>
       </c>
       <c r="E234" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F234" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G234">
         <v>2019</v>
       </c>
       <c r="H234">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I234">
-        <v>114</v>
+        <v>151</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -7849,19 +7849,19 @@
         <v>32300</v>
       </c>
       <c r="E235" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F235" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G235">
         <v>2019</v>
       </c>
       <c r="H235">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I235">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -7878,19 +7878,19 @@
         <v>4327800</v>
       </c>
       <c r="E236" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F236" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G236">
         <v>2019</v>
       </c>
       <c r="H236">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I236">
-        <v>1704</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -7907,19 +7907,19 @@
         <v>470100</v>
       </c>
       <c r="E237" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F237" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G237">
         <v>2019</v>
       </c>
       <c r="H237">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I237">
-        <v>188</v>
+        <v>158</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -7936,19 +7936,19 @@
         <v>516200</v>
       </c>
       <c r="E238" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F238" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G238">
         <v>2019</v>
       </c>
       <c r="H238">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I238">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -7965,19 +7965,19 @@
         <v>910800</v>
       </c>
       <c r="E239" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F239" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G239">
         <v>2019</v>
       </c>
       <c r="H239">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I239">
-        <v>304</v>
+        <v>327</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -7994,19 +7994,19 @@
         <v>1549800</v>
       </c>
       <c r="E240" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F240" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G240">
         <v>2019</v>
       </c>
       <c r="H240">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I240">
-        <v>450</v>
+        <v>554</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -8023,19 +8023,19 @@
         <v>192300</v>
       </c>
       <c r="E241" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F241" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G241">
         <v>2019</v>
       </c>
       <c r="H241">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I241">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -8052,19 +8052,19 @@
         <v>131000</v>
       </c>
       <c r="E242" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F242" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G242">
         <v>2019</v>
       </c>
       <c r="H242">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I242">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -8081,19 +8081,19 @@
         <v>159500</v>
       </c>
       <c r="E243" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F243" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G243">
         <v>2019</v>
       </c>
       <c r="H243">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I243">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -8110,19 +8110,19 @@
         <v>111300</v>
       </c>
       <c r="E244" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F244" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G244">
         <v>2019</v>
       </c>
       <c r="H244">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I244">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -8139,19 +8139,19 @@
         <v>3172200</v>
       </c>
       <c r="E245" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F245" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G245">
         <v>2019</v>
       </c>
       <c r="H245">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I245">
-        <v>1072</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -8168,19 +8168,19 @@
         <v>392600</v>
       </c>
       <c r="E246" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F246" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G246">
         <v>2019</v>
       </c>
       <c r="H246">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I246">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -8197,19 +8197,19 @@
         <v>450700</v>
       </c>
       <c r="E247" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F247" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G247">
         <v>2019</v>
       </c>
       <c r="H247">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I247">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -8226,19 +8226,19 @@
         <v>225500</v>
       </c>
       <c r="E248" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F248" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G248">
         <v>2019</v>
       </c>
       <c r="H248">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I248">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -8255,19 +8255,19 @@
         <v>584100</v>
       </c>
       <c r="E249" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F249" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G249">
         <v>2019</v>
       </c>
       <c r="H249">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I249">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -8284,19 +8284,19 @@
         <v>117900</v>
       </c>
       <c r="E250" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F250" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G250">
         <v>2019</v>
       </c>
       <c r="H250">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I250">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -8313,19 +8313,19 @@
         <v>17226800</v>
       </c>
       <c r="E251" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F251" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G251">
         <v>2019</v>
       </c>
       <c r="H251">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I251">
-        <v>5892</v>
+        <v>6076</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -8342,19 +8342,19 @@
         <v>867200</v>
       </c>
       <c r="E252" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F252" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G252">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I252">
-        <v>360</v>
+        <v>347</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -8371,19 +8371,19 @@
         <v>208400</v>
       </c>
       <c r="E253" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F253" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G253">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I253">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -8400,19 +8400,19 @@
         <v>276800</v>
       </c>
       <c r="E254" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F254" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G254">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I254">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -8429,19 +8429,19 @@
         <v>185500</v>
       </c>
       <c r="E255" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F255" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G255">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I255">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -8458,19 +8458,19 @@
         <v>519800</v>
       </c>
       <c r="E256" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F256" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G256">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I256">
-        <v>216</v>
+        <v>191</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -8487,19 +8487,19 @@
         <v>482600</v>
       </c>
       <c r="E257" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F257" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G257">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I257">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -8516,19 +8516,19 @@
         <v>707200</v>
       </c>
       <c r="E258" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F258" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G258">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I258">
-        <v>298</v>
+        <v>262</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -8545,19 +8545,19 @@
         <v>635200</v>
       </c>
       <c r="E259" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F259" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G259">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I259">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -8574,19 +8574,19 @@
         <v>32300</v>
       </c>
       <c r="E260" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F260" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G260">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I260">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -8603,19 +8603,19 @@
         <v>4327800</v>
       </c>
       <c r="E261" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F261" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G261">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I261">
-        <v>1960</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -8632,19 +8632,19 @@
         <v>470100</v>
       </c>
       <c r="E262" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F262" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G262">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I262">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -8661,19 +8661,19 @@
         <v>516200</v>
       </c>
       <c r="E263" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F263" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G263">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I263">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -8690,19 +8690,19 @@
         <v>910800</v>
       </c>
       <c r="E264" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F264" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G264">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I264">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -8719,19 +8719,19 @@
         <v>1549800</v>
       </c>
       <c r="E265" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F265" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G265">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I265">
-        <v>623</v>
+        <v>450</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -8748,19 +8748,19 @@
         <v>192300</v>
       </c>
       <c r="E266" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F266" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G266">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I266">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -8777,19 +8777,19 @@
         <v>131000</v>
       </c>
       <c r="E267" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F267" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G267">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I267">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -8806,19 +8806,19 @@
         <v>159500</v>
       </c>
       <c r="E268" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F268" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G268">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I268">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -8835,19 +8835,19 @@
         <v>111300</v>
       </c>
       <c r="E269" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F269" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G269">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I269">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -8864,19 +8864,19 @@
         <v>3172200</v>
       </c>
       <c r="E270" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F270" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G270">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I270">
-        <v>1204</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -8893,19 +8893,19 @@
         <v>392600</v>
       </c>
       <c r="E271" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F271" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G271">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I271">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -8922,19 +8922,19 @@
         <v>450700</v>
       </c>
       <c r="E272" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F272" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G272">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I272">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -8951,19 +8951,19 @@
         <v>225500</v>
       </c>
       <c r="E273" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F273" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G273">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I273">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -8980,19 +8980,19 @@
         <v>584100</v>
       </c>
       <c r="E274" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F274" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G274">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I274">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -9009,19 +9009,19 @@
         <v>117900</v>
       </c>
       <c r="E275" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F275" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G275">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I275">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -9038,19 +9038,19 @@
         <v>17226800</v>
       </c>
       <c r="E276" s="1">
-        <v>43831</v>
+        <v>43586</v>
       </c>
       <c r="F276" s="1">
-        <v>43861</v>
+        <v>43616</v>
       </c>
       <c r="G276">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I276">
-        <v>6669</v>
+        <v>5896</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -9067,19 +9067,19 @@
         <v>867200</v>
       </c>
       <c r="E277" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F277" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G277">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I277">
-        <v>319</v>
+        <v>334</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -9096,19 +9096,19 @@
         <v>208400</v>
       </c>
       <c r="E278" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F278" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G278">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I278">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -9125,19 +9125,19 @@
         <v>276800</v>
       </c>
       <c r="E279" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F279" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G279">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I279">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -9154,19 +9154,19 @@
         <v>185500</v>
       </c>
       <c r="E280" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F280" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G280">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I280">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -9183,19 +9183,19 @@
         <v>519800</v>
       </c>
       <c r="E281" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F281" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G281">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I281">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -9212,19 +9212,19 @@
         <v>482600</v>
       </c>
       <c r="E282" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F282" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G282">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I282">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -9241,19 +9241,19 @@
         <v>707200</v>
       </c>
       <c r="E283" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F283" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G283">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I283">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -9270,19 +9270,19 @@
         <v>635200</v>
       </c>
       <c r="E284" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F284" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G284">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I284">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -9299,19 +9299,19 @@
         <v>32300</v>
       </c>
       <c r="E285" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F285" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G285">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H285">
+        <v>6</v>
+      </c>
+      <c r="I285">
         <v>2</v>
-      </c>
-      <c r="I285">
-        <v>4</v>
       </c>
     </row>
     <row r="286" spans="1:9">
@@ -9328,19 +9328,19 @@
         <v>4327800</v>
       </c>
       <c r="E286" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F286" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G286">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I286">
-        <v>1703</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -9357,19 +9357,19 @@
         <v>470100</v>
       </c>
       <c r="E287" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F287" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G287">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I287">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -9386,19 +9386,19 @@
         <v>516200</v>
       </c>
       <c r="E288" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F288" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G288">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I288">
-        <v>162</v>
+        <v>191</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -9415,19 +9415,19 @@
         <v>910800</v>
       </c>
       <c r="E289" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F289" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G289">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I289">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -9444,19 +9444,19 @@
         <v>1549800</v>
       </c>
       <c r="E290" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F290" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G290">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I290">
-        <v>532</v>
+        <v>487</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -9473,19 +9473,19 @@
         <v>192300</v>
       </c>
       <c r="E291" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F291" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G291">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I291">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -9502,19 +9502,19 @@
         <v>131000</v>
       </c>
       <c r="E292" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F292" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G292">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I292">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -9531,19 +9531,19 @@
         <v>159500</v>
       </c>
       <c r="E293" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F293" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G293">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I293">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -9560,19 +9560,19 @@
         <v>111300</v>
       </c>
       <c r="E294" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F294" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G294">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I294">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -9589,19 +9589,19 @@
         <v>3172200</v>
       </c>
       <c r="E295" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F295" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G295">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I295">
-        <v>1143</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -9618,19 +9618,19 @@
         <v>392600</v>
       </c>
       <c r="E296" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F296" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G296">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I296">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -9647,19 +9647,19 @@
         <v>450700</v>
       </c>
       <c r="E297" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F297" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G297">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I297">
-        <v>202</v>
+        <v>174</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -9676,16 +9676,16 @@
         <v>225500</v>
       </c>
       <c r="E298" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F298" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G298">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I298">
         <v>51</v>
@@ -9705,19 +9705,19 @@
         <v>584100</v>
       </c>
       <c r="E299" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F299" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G299">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I299">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -9734,16 +9734,16 @@
         <v>117900</v>
       </c>
       <c r="E300" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F300" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G300">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I300">
         <v>24</v>
@@ -9763,19 +9763,19 @@
         <v>17226800</v>
       </c>
       <c r="E301" s="1">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="F301" s="1">
-        <v>43890</v>
+        <v>43646</v>
       </c>
       <c r="G301">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I301">
-        <v>5993</v>
+        <v>5842</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -9792,19 +9792,19 @@
         <v>867200</v>
       </c>
       <c r="E302" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F302" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G302">
         <v>2020</v>
       </c>
       <c r="H302">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I302">
-        <v>306</v>
+        <v>361</v>
       </c>
     </row>
     <row r="303" spans="1:9">
@@ -9821,19 +9821,19 @@
         <v>208400</v>
       </c>
       <c r="E303" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F303" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G303">
         <v>2020</v>
       </c>
       <c r="H303">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I303">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="304" spans="1:9">
@@ -9850,19 +9850,19 @@
         <v>276800</v>
       </c>
       <c r="E304" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F304" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G304">
         <v>2020</v>
       </c>
       <c r="H304">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I304">
-        <v>72</v>
+        <v>107</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -9879,19 +9879,19 @@
         <v>185500</v>
       </c>
       <c r="E305" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F305" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G305">
         <v>2020</v>
       </c>
       <c r="H305">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I305">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -9908,19 +9908,19 @@
         <v>519800</v>
       </c>
       <c r="E306" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F306" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G306">
         <v>2020</v>
       </c>
       <c r="H306">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I306">
-        <v>182</v>
+        <v>216</v>
       </c>
     </row>
     <row r="307" spans="1:9">
@@ -9937,19 +9937,19 @@
         <v>482600</v>
       </c>
       <c r="E307" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F307" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G307">
         <v>2020</v>
       </c>
       <c r="H307">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I307">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -9966,19 +9966,19 @@
         <v>707200</v>
       </c>
       <c r="E308" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F308" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G308">
         <v>2020</v>
       </c>
       <c r="H308">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I308">
-        <v>251</v>
+        <v>299</v>
       </c>
     </row>
     <row r="309" spans="1:9">
@@ -9995,19 +9995,19 @@
         <v>635200</v>
       </c>
       <c r="E309" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F309" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G309">
         <v>2020</v>
       </c>
       <c r="H309">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I309">
-        <v>90</v>
+        <v>133</v>
       </c>
     </row>
     <row r="310" spans="1:9">
@@ -10024,19 +10024,19 @@
         <v>32300</v>
       </c>
       <c r="E310" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F310" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G310">
         <v>2020</v>
       </c>
       <c r="H310">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I310">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311" spans="1:9">
@@ -10053,19 +10053,19 @@
         <v>4327800</v>
       </c>
       <c r="E311" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F311" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G311">
         <v>2020</v>
       </c>
       <c r="H311">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I311">
-        <v>5021</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="312" spans="1:9">
@@ -10082,19 +10082,19 @@
         <v>470100</v>
       </c>
       <c r="E312" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F312" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G312">
         <v>2020</v>
       </c>
       <c r="H312">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I312">
-        <v>135</v>
+        <v>185</v>
       </c>
     </row>
     <row r="313" spans="1:9">
@@ -10111,19 +10111,19 @@
         <v>516200</v>
       </c>
       <c r="E313" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F313" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G313">
         <v>2020</v>
       </c>
       <c r="H313">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I313">
-        <v>139</v>
+        <v>213</v>
       </c>
     </row>
     <row r="314" spans="1:9">
@@ -10140,19 +10140,19 @@
         <v>910800</v>
       </c>
       <c r="E314" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F314" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G314">
         <v>2020</v>
       </c>
       <c r="H314">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I314">
-        <v>267</v>
+        <v>296</v>
       </c>
     </row>
     <row r="315" spans="1:9">
@@ -10169,19 +10169,19 @@
         <v>1549800</v>
       </c>
       <c r="E315" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F315" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G315">
         <v>2020</v>
       </c>
       <c r="H315">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I315">
-        <v>506</v>
+        <v>623</v>
       </c>
     </row>
     <row r="316" spans="1:9">
@@ -10198,19 +10198,19 @@
         <v>192300</v>
       </c>
       <c r="E316" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F316" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G316">
         <v>2020</v>
       </c>
       <c r="H316">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I316">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="317" spans="1:9">
@@ -10227,19 +10227,19 @@
         <v>131000</v>
       </c>
       <c r="E317" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F317" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G317">
         <v>2020</v>
       </c>
       <c r="H317">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I317">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="318" spans="1:9">
@@ -10256,19 +10256,19 @@
         <v>159500</v>
       </c>
       <c r="E318" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F318" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G318">
         <v>2020</v>
       </c>
       <c r="H318">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I318">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="319" spans="1:9">
@@ -10285,19 +10285,19 @@
         <v>111300</v>
       </c>
       <c r="E319" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F319" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G319">
         <v>2020</v>
       </c>
       <c r="H319">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I319">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="320" spans="1:9">
@@ -10314,19 +10314,19 @@
         <v>3172200</v>
       </c>
       <c r="E320" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F320" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G320">
         <v>2020</v>
       </c>
       <c r="H320">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I320">
-        <v>1086</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -10343,19 +10343,19 @@
         <v>392600</v>
       </c>
       <c r="E321" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F321" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G321">
         <v>2020</v>
       </c>
       <c r="H321">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I321">
-        <v>156</v>
+        <v>116</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -10372,19 +10372,19 @@
         <v>450700</v>
       </c>
       <c r="E322" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F322" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G322">
         <v>2020</v>
       </c>
       <c r="H322">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I322">
-        <v>162</v>
+        <v>204</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -10401,19 +10401,19 @@
         <v>225500</v>
       </c>
       <c r="E323" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F323" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G323">
         <v>2020</v>
       </c>
       <c r="H323">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I323">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -10430,19 +10430,19 @@
         <v>584100</v>
       </c>
       <c r="E324" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F324" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G324">
         <v>2020</v>
       </c>
       <c r="H324">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I324">
-        <v>215</v>
+        <v>250</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -10459,19 +10459,19 @@
         <v>117900</v>
       </c>
       <c r="E325" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F325" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G325">
         <v>2020</v>
       </c>
       <c r="H325">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I325">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -10488,19 +10488,19 @@
         <v>17226800</v>
       </c>
       <c r="E326" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F326" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G326">
         <v>2020</v>
       </c>
       <c r="H326">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I326">
-        <v>8985</v>
+        <v>6682</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -10517,19 +10517,19 @@
         <v>867200</v>
       </c>
       <c r="E327" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F327" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G327">
         <v>2020</v>
       </c>
       <c r="H327">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I327">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="328" spans="1:9">
@@ -10546,19 +10546,19 @@
         <v>208400</v>
       </c>
       <c r="E328" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F328" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G328">
         <v>2020</v>
       </c>
       <c r="H328">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I328">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -10575,19 +10575,19 @@
         <v>276800</v>
       </c>
       <c r="E329" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F329" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G329">
         <v>2020</v>
       </c>
       <c r="H329">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I329">
-        <v>132</v>
+        <v>75</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -10604,19 +10604,19 @@
         <v>185500</v>
       </c>
       <c r="E330" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F330" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G330">
         <v>2020</v>
       </c>
       <c r="H330">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I330">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -10633,19 +10633,19 @@
         <v>519800</v>
       </c>
       <c r="E331" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F331" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G331">
         <v>2020</v>
       </c>
       <c r="H331">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I331">
-        <v>286</v>
+        <v>184</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -10662,19 +10662,19 @@
         <v>482600</v>
       </c>
       <c r="E332" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F332" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G332">
         <v>2020</v>
       </c>
       <c r="H332">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I332">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -10691,19 +10691,19 @@
         <v>707200</v>
       </c>
       <c r="E333" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F333" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G333">
         <v>2020</v>
       </c>
       <c r="H333">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I333">
-        <v>564</v>
+        <v>225</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -10720,19 +10720,19 @@
         <v>635200</v>
       </c>
       <c r="E334" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F334" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G334">
         <v>2020</v>
       </c>
       <c r="H334">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I334">
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -10749,19 +10749,19 @@
         <v>32300</v>
       </c>
       <c r="E335" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F335" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G335">
         <v>2020</v>
       </c>
       <c r="H335">
+        <v>2</v>
+      </c>
+      <c r="I335">
         <v>4</v>
-      </c>
-      <c r="I335">
-        <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -10778,19 +10778,19 @@
         <v>4327800</v>
       </c>
       <c r="E336" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F336" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G336">
         <v>2020</v>
       </c>
       <c r="H336">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I336">
-        <v>11376</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="337" spans="1:9">
@@ -10807,19 +10807,19 @@
         <v>470100</v>
       </c>
       <c r="E337" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F337" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G337">
         <v>2020</v>
       </c>
       <c r="H337">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I337">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -10836,19 +10836,19 @@
         <v>516200</v>
       </c>
       <c r="E338" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F338" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G338">
         <v>2020</v>
       </c>
       <c r="H338">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I338">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -10865,19 +10865,19 @@
         <v>910800</v>
       </c>
       <c r="E339" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F339" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G339">
         <v>2020</v>
       </c>
       <c r="H339">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I339">
-        <v>677</v>
+        <v>286</v>
       </c>
     </row>
     <row r="340" spans="1:9">
@@ -10894,19 +10894,19 @@
         <v>1549800</v>
       </c>
       <c r="E340" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F340" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G340">
         <v>2020</v>
       </c>
       <c r="H340">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I340">
-        <v>1445</v>
+        <v>533</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -10923,19 +10923,19 @@
         <v>192300</v>
       </c>
       <c r="E341" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F341" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G341">
         <v>2020</v>
       </c>
       <c r="H341">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I341">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -10952,19 +10952,19 @@
         <v>131000</v>
       </c>
       <c r="E342" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F342" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G342">
         <v>2020</v>
       </c>
       <c r="H342">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I342">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -10981,19 +10981,19 @@
         <v>159500</v>
       </c>
       <c r="E343" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F343" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G343">
         <v>2020</v>
       </c>
       <c r="H343">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I343">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -11010,19 +11010,19 @@
         <v>111300</v>
       </c>
       <c r="E344" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F344" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G344">
         <v>2020</v>
       </c>
       <c r="H344">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I344">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -11039,19 +11039,19 @@
         <v>3172200</v>
       </c>
       <c r="E345" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F345" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G345">
         <v>2020</v>
       </c>
       <c r="H345">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I345">
-        <v>1255</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -11068,19 +11068,19 @@
         <v>392600</v>
       </c>
       <c r="E346" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F346" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G346">
         <v>2020</v>
       </c>
       <c r="H346">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I346">
-        <v>982</v>
+        <v>114</v>
       </c>
     </row>
     <row r="347" spans="1:9">
@@ -11097,19 +11097,19 @@
         <v>450700</v>
       </c>
       <c r="E347" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F347" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G347">
         <v>2020</v>
       </c>
       <c r="H347">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I347">
-        <v>239</v>
+        <v>202</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -11126,19 +11126,19 @@
         <v>225500</v>
       </c>
       <c r="E348" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F348" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G348">
         <v>2020</v>
       </c>
       <c r="H348">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I348">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -11155,19 +11155,19 @@
         <v>584100</v>
       </c>
       <c r="E349" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F349" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G349">
         <v>2020</v>
       </c>
       <c r="H349">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I349">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -11184,19 +11184,19 @@
         <v>117900</v>
       </c>
       <c r="E350" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F350" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G350">
         <v>2020</v>
       </c>
       <c r="H350">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I350">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -11213,19 +11213,19 @@
         <v>17226800</v>
       </c>
       <c r="E351" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F351" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G351">
         <v>2020</v>
       </c>
       <c r="H351">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I351">
-        <v>18496</v>
+        <v>5998</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -11242,19 +11242,19 @@
         <v>867200</v>
       </c>
       <c r="E352" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F352" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G352">
         <v>2020</v>
       </c>
       <c r="H352">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I352">
-        <v>304</v>
+        <v>330</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -11271,19 +11271,19 @@
         <v>208400</v>
       </c>
       <c r="E353" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F353" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G353">
         <v>2020</v>
       </c>
       <c r="H353">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I353">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -11300,19 +11300,19 @@
         <v>276800</v>
       </c>
       <c r="E354" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F354" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G354">
         <v>2020</v>
       </c>
       <c r="H354">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I354">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -11329,19 +11329,19 @@
         <v>185500</v>
       </c>
       <c r="E355" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F355" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G355">
         <v>2020</v>
       </c>
       <c r="H355">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I355">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -11358,19 +11358,19 @@
         <v>519800</v>
       </c>
       <c r="E356" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F356" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G356">
         <v>2020</v>
       </c>
       <c r="H356">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I356">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -11387,19 +11387,19 @@
         <v>482600</v>
       </c>
       <c r="E357" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F357" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G357">
         <v>2020</v>
       </c>
       <c r="H357">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I357">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -11416,19 +11416,19 @@
         <v>707200</v>
       </c>
       <c r="E358" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F358" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G358">
         <v>2020</v>
       </c>
       <c r="H358">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I358">
-        <v>546</v>
+        <v>276</v>
       </c>
     </row>
     <row r="359" spans="1:9">
@@ -11445,19 +11445,19 @@
         <v>635200</v>
       </c>
       <c r="E359" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F359" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G359">
         <v>2020</v>
       </c>
       <c r="H359">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I359">
-        <v>213</v>
+        <v>100</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -11474,19 +11474,19 @@
         <v>32300</v>
       </c>
       <c r="E360" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F360" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G360">
         <v>2020</v>
       </c>
       <c r="H360">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I360">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:9">
@@ -11503,19 +11503,19 @@
         <v>4327800</v>
       </c>
       <c r="E361" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F361" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G361">
         <v>2020</v>
       </c>
       <c r="H361">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I361">
-        <v>2350</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -11532,19 +11532,19 @@
         <v>470100</v>
       </c>
       <c r="E362" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F362" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G362">
         <v>2020</v>
       </c>
       <c r="H362">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I362">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -11561,19 +11561,19 @@
         <v>516200</v>
       </c>
       <c r="E363" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F363" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G363">
         <v>2020</v>
       </c>
       <c r="H363">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I363">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="364" spans="1:9">
@@ -11590,19 +11590,19 @@
         <v>910800</v>
       </c>
       <c r="E364" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F364" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G364">
         <v>2020</v>
       </c>
       <c r="H364">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I364">
-        <v>426</v>
+        <v>308</v>
       </c>
     </row>
     <row r="365" spans="1:9">
@@ -11619,19 +11619,19 @@
         <v>1549800</v>
       </c>
       <c r="E365" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F365" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G365">
         <v>2020</v>
       </c>
       <c r="H365">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I365">
-        <v>1017</v>
+        <v>547</v>
       </c>
     </row>
     <row r="366" spans="1:9">
@@ -11648,19 +11648,19 @@
         <v>192300</v>
       </c>
       <c r="E366" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F366" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G366">
         <v>2020</v>
       </c>
       <c r="H366">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I366">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -11677,19 +11677,19 @@
         <v>131000</v>
       </c>
       <c r="E367" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F367" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G367">
         <v>2020</v>
       </c>
       <c r="H367">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I367">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="368" spans="1:9">
@@ -11706,19 +11706,19 @@
         <v>159500</v>
       </c>
       <c r="E368" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F368" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G368">
         <v>2020</v>
       </c>
       <c r="H368">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I368">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -11735,19 +11735,19 @@
         <v>111300</v>
       </c>
       <c r="E369" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F369" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G369">
         <v>2020</v>
       </c>
       <c r="H369">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I369">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -11764,19 +11764,19 @@
         <v>3172200</v>
       </c>
       <c r="E370" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F370" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G370">
         <v>2020</v>
       </c>
       <c r="H370">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I370">
-        <v>1507</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -11793,19 +11793,19 @@
         <v>392600</v>
       </c>
       <c r="E371" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F371" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G371">
         <v>2020</v>
       </c>
       <c r="H371">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I371">
-        <v>310</v>
+        <v>166</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -11822,19 +11822,19 @@
         <v>450700</v>
       </c>
       <c r="E372" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F372" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G372">
         <v>2020</v>
       </c>
       <c r="H372">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I372">
-        <v>256</v>
+        <v>173</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -11851,19 +11851,19 @@
         <v>225500</v>
       </c>
       <c r="E373" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F373" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G373">
         <v>2020</v>
       </c>
       <c r="H373">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I373">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -11880,19 +11880,19 @@
         <v>584100</v>
       </c>
       <c r="E374" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F374" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G374">
         <v>2020</v>
       </c>
       <c r="H374">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I374">
-        <v>323</v>
+        <v>220</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -11909,19 +11909,19 @@
         <v>117900</v>
       </c>
       <c r="E375" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F375" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G375">
         <v>2020</v>
       </c>
       <c r="H375">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I375">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -11938,19 +11938,2194 @@
         <v>17226800</v>
       </c>
       <c r="E376" s="1">
+        <v>43891</v>
+      </c>
+      <c r="F376" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G376">
+        <v>2020</v>
+      </c>
+      <c r="H376">
+        <v>3</v>
+      </c>
+      <c r="I376">
+        <v>9470</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377" t="s">
+        <v>9</v>
+      </c>
+      <c r="B377" t="s">
+        <v>10</v>
+      </c>
+      <c r="C377" t="s">
+        <v>11</v>
+      </c>
+      <c r="D377">
+        <v>867200</v>
+      </c>
+      <c r="E377" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F377" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G377">
+        <v>2020</v>
+      </c>
+      <c r="H377">
+        <v>4</v>
+      </c>
+      <c r="I377">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" t="s">
+        <v>9</v>
+      </c>
+      <c r="B378" t="s">
+        <v>12</v>
+      </c>
+      <c r="C378" t="s">
+        <v>13</v>
+      </c>
+      <c r="D378">
+        <v>208400</v>
+      </c>
+      <c r="E378" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F378" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G378">
+        <v>2020</v>
+      </c>
+      <c r="H378">
+        <v>4</v>
+      </c>
+      <c r="I378">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" t="s">
+        <v>9</v>
+      </c>
+      <c r="B379" t="s">
+        <v>14</v>
+      </c>
+      <c r="C379" t="s">
+        <v>15</v>
+      </c>
+      <c r="D379">
+        <v>276800</v>
+      </c>
+      <c r="E379" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F379" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G379">
+        <v>2020</v>
+      </c>
+      <c r="H379">
+        <v>4</v>
+      </c>
+      <c r="I379">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" t="s">
+        <v>9</v>
+      </c>
+      <c r="B380" t="s">
+        <v>16</v>
+      </c>
+      <c r="C380" t="s">
+        <v>17</v>
+      </c>
+      <c r="D380">
+        <v>185500</v>
+      </c>
+      <c r="E380" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F380" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G380">
+        <v>2020</v>
+      </c>
+      <c r="H380">
+        <v>4</v>
+      </c>
+      <c r="I380">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" t="s">
+        <v>9</v>
+      </c>
+      <c r="B381" t="s">
+        <v>18</v>
+      </c>
+      <c r="C381" t="s">
+        <v>19</v>
+      </c>
+      <c r="D381">
+        <v>519800</v>
+      </c>
+      <c r="E381" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F381" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G381">
+        <v>2020</v>
+      </c>
+      <c r="H381">
+        <v>4</v>
+      </c>
+      <c r="I381">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" t="s">
+        <v>9</v>
+      </c>
+      <c r="B382" t="s">
+        <v>20</v>
+      </c>
+      <c r="C382" t="s">
+        <v>21</v>
+      </c>
+      <c r="D382">
+        <v>482600</v>
+      </c>
+      <c r="E382" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F382" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G382">
+        <v>2020</v>
+      </c>
+      <c r="H382">
+        <v>4</v>
+      </c>
+      <c r="I382">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" t="s">
+        <v>9</v>
+      </c>
+      <c r="B383" t="s">
+        <v>22</v>
+      </c>
+      <c r="C383" t="s">
+        <v>23</v>
+      </c>
+      <c r="D383">
+        <v>707200</v>
+      </c>
+      <c r="E383" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F383" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G383">
+        <v>2020</v>
+      </c>
+      <c r="H383">
+        <v>4</v>
+      </c>
+      <c r="I383">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="A384" t="s">
+        <v>9</v>
+      </c>
+      <c r="B384" t="s">
+        <v>24</v>
+      </c>
+      <c r="C384" t="s">
+        <v>25</v>
+      </c>
+      <c r="D384">
+        <v>635200</v>
+      </c>
+      <c r="E384" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F384" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G384">
+        <v>2020</v>
+      </c>
+      <c r="H384">
+        <v>4</v>
+      </c>
+      <c r="I384">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385" t="s">
+        <v>9</v>
+      </c>
+      <c r="B385" t="s">
+        <v>26</v>
+      </c>
+      <c r="C385" t="s">
+        <v>27</v>
+      </c>
+      <c r="D385">
+        <v>32300</v>
+      </c>
+      <c r="E385" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F385" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G385">
+        <v>2020</v>
+      </c>
+      <c r="H385">
+        <v>4</v>
+      </c>
+      <c r="I385">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
+      <c r="A386" t="s">
+        <v>9</v>
+      </c>
+      <c r="B386" t="s">
+        <v>28</v>
+      </c>
+      <c r="C386" t="s">
+        <v>29</v>
+      </c>
+      <c r="D386">
+        <v>4327800</v>
+      </c>
+      <c r="E386" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F386" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G386">
+        <v>2020</v>
+      </c>
+      <c r="H386">
+        <v>4</v>
+      </c>
+      <c r="I386">
+        <v>12004</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
+      <c r="A387" t="s">
+        <v>9</v>
+      </c>
+      <c r="B387" t="s">
+        <v>30</v>
+      </c>
+      <c r="C387" t="s">
+        <v>31</v>
+      </c>
+      <c r="D387">
+        <v>470100</v>
+      </c>
+      <c r="E387" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F387" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G387">
+        <v>2020</v>
+      </c>
+      <c r="H387">
+        <v>4</v>
+      </c>
+      <c r="I387">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
+      <c r="A388" t="s">
+        <v>9</v>
+      </c>
+      <c r="B388" t="s">
+        <v>32</v>
+      </c>
+      <c r="C388" t="s">
+        <v>33</v>
+      </c>
+      <c r="D388">
+        <v>516200</v>
+      </c>
+      <c r="E388" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F388" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G388">
+        <v>2020</v>
+      </c>
+      <c r="H388">
+        <v>4</v>
+      </c>
+      <c r="I388">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389" t="s">
+        <v>9</v>
+      </c>
+      <c r="B389" t="s">
+        <v>34</v>
+      </c>
+      <c r="C389" t="s">
+        <v>35</v>
+      </c>
+      <c r="D389">
+        <v>910800</v>
+      </c>
+      <c r="E389" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F389" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G389">
+        <v>2020</v>
+      </c>
+      <c r="H389">
+        <v>4</v>
+      </c>
+      <c r="I389">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9">
+      <c r="A390" t="s">
+        <v>9</v>
+      </c>
+      <c r="B390" t="s">
+        <v>36</v>
+      </c>
+      <c r="C390" t="s">
+        <v>37</v>
+      </c>
+      <c r="D390">
+        <v>1549800</v>
+      </c>
+      <c r="E390" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F390" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G390">
+        <v>2020</v>
+      </c>
+      <c r="H390">
+        <v>4</v>
+      </c>
+      <c r="I390">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
+      <c r="A391" t="s">
+        <v>9</v>
+      </c>
+      <c r="B391" t="s">
+        <v>38</v>
+      </c>
+      <c r="C391" t="s">
+        <v>39</v>
+      </c>
+      <c r="D391">
+        <v>192300</v>
+      </c>
+      <c r="E391" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F391" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G391">
+        <v>2020</v>
+      </c>
+      <c r="H391">
+        <v>4</v>
+      </c>
+      <c r="I391">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
+      <c r="A392" t="s">
+        <v>9</v>
+      </c>
+      <c r="B392" t="s">
+        <v>40</v>
+      </c>
+      <c r="C392" t="s">
+        <v>41</v>
+      </c>
+      <c r="D392">
+        <v>131000</v>
+      </c>
+      <c r="E392" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F392" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G392">
+        <v>2020</v>
+      </c>
+      <c r="H392">
+        <v>4</v>
+      </c>
+      <c r="I392">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
+      <c r="A393" t="s">
+        <v>9</v>
+      </c>
+      <c r="B393" t="s">
+        <v>42</v>
+      </c>
+      <c r="C393" t="s">
+        <v>43</v>
+      </c>
+      <c r="D393">
+        <v>159500</v>
+      </c>
+      <c r="E393" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F393" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G393">
+        <v>2020</v>
+      </c>
+      <c r="H393">
+        <v>4</v>
+      </c>
+      <c r="I393">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" t="s">
+        <v>9</v>
+      </c>
+      <c r="B394" t="s">
+        <v>44</v>
+      </c>
+      <c r="C394" t="s">
+        <v>45</v>
+      </c>
+      <c r="D394">
+        <v>111300</v>
+      </c>
+      <c r="E394" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F394" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G394">
+        <v>2020</v>
+      </c>
+      <c r="H394">
+        <v>4</v>
+      </c>
+      <c r="I394">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395" t="s">
+        <v>9</v>
+      </c>
+      <c r="B395" t="s">
+        <v>46</v>
+      </c>
+      <c r="C395" t="s">
+        <v>47</v>
+      </c>
+      <c r="D395">
+        <v>3172200</v>
+      </c>
+      <c r="E395" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F395" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G395">
+        <v>2020</v>
+      </c>
+      <c r="H395">
+        <v>4</v>
+      </c>
+      <c r="I395">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" t="s">
+        <v>9</v>
+      </c>
+      <c r="B396" t="s">
+        <v>48</v>
+      </c>
+      <c r="C396" t="s">
+        <v>49</v>
+      </c>
+      <c r="D396">
+        <v>392600</v>
+      </c>
+      <c r="E396" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F396" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G396">
+        <v>2020</v>
+      </c>
+      <c r="H396">
+        <v>4</v>
+      </c>
+      <c r="I396">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" t="s">
+        <v>9</v>
+      </c>
+      <c r="B397" t="s">
+        <v>50</v>
+      </c>
+      <c r="C397" t="s">
+        <v>51</v>
+      </c>
+      <c r="D397">
+        <v>450700</v>
+      </c>
+      <c r="E397" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F397" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G397">
+        <v>2020</v>
+      </c>
+      <c r="H397">
+        <v>4</v>
+      </c>
+      <c r="I397">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
+      <c r="A398" t="s">
+        <v>9</v>
+      </c>
+      <c r="B398" t="s">
+        <v>52</v>
+      </c>
+      <c r="C398" t="s">
+        <v>53</v>
+      </c>
+      <c r="D398">
+        <v>225500</v>
+      </c>
+      <c r="E398" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F398" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G398">
+        <v>2020</v>
+      </c>
+      <c r="H398">
+        <v>4</v>
+      </c>
+      <c r="I398">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
+      <c r="A399" t="s">
+        <v>9</v>
+      </c>
+      <c r="B399" t="s">
+        <v>54</v>
+      </c>
+      <c r="C399" t="s">
+        <v>55</v>
+      </c>
+      <c r="D399">
+        <v>584100</v>
+      </c>
+      <c r="E399" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F399" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G399">
+        <v>2020</v>
+      </c>
+      <c r="H399">
+        <v>4</v>
+      </c>
+      <c r="I399">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9">
+      <c r="A400" t="s">
+        <v>9</v>
+      </c>
+      <c r="B400" t="s">
+        <v>56</v>
+      </c>
+      <c r="C400" t="s">
+        <v>57</v>
+      </c>
+      <c r="D400">
+        <v>117900</v>
+      </c>
+      <c r="E400" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F400" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G400">
+        <v>2020</v>
+      </c>
+      <c r="H400">
+        <v>4</v>
+      </c>
+      <c r="I400">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
+      <c r="A401" t="s">
+        <v>9</v>
+      </c>
+      <c r="B401" t="s">
+        <v>9</v>
+      </c>
+      <c r="C401" t="s">
+        <v>58</v>
+      </c>
+      <c r="D401">
+        <v>17226800</v>
+      </c>
+      <c r="E401" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F401" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G401">
+        <v>2020</v>
+      </c>
+      <c r="H401">
+        <v>4</v>
+      </c>
+      <c r="I401">
+        <v>19709</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9">
+      <c r="A402" t="s">
+        <v>9</v>
+      </c>
+      <c r="B402" t="s">
+        <v>10</v>
+      </c>
+      <c r="C402" t="s">
+        <v>11</v>
+      </c>
+      <c r="D402">
+        <v>867200</v>
+      </c>
+      <c r="E402" s="1">
         <v>43952</v>
       </c>
-      <c r="F376" s="1">
+      <c r="F402" s="1">
         <v>43982</v>
       </c>
-      <c r="G376">
-        <v>2020</v>
-      </c>
-      <c r="H376">
+      <c r="G402">
+        <v>2020</v>
+      </c>
+      <c r="H402">
         <v>5</v>
       </c>
-      <c r="I376">
-        <v>8252</v>
+      <c r="I402">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
+      <c r="A403" t="s">
+        <v>9</v>
+      </c>
+      <c r="B403" t="s">
+        <v>12</v>
+      </c>
+      <c r="C403" t="s">
+        <v>13</v>
+      </c>
+      <c r="D403">
+        <v>208400</v>
+      </c>
+      <c r="E403" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F403" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G403">
+        <v>2020</v>
+      </c>
+      <c r="H403">
+        <v>5</v>
+      </c>
+      <c r="I403">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9">
+      <c r="A404" t="s">
+        <v>9</v>
+      </c>
+      <c r="B404" t="s">
+        <v>14</v>
+      </c>
+      <c r="C404" t="s">
+        <v>15</v>
+      </c>
+      <c r="D404">
+        <v>276800</v>
+      </c>
+      <c r="E404" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F404" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G404">
+        <v>2020</v>
+      </c>
+      <c r="H404">
+        <v>5</v>
+      </c>
+      <c r="I404">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9">
+      <c r="A405" t="s">
+        <v>9</v>
+      </c>
+      <c r="B405" t="s">
+        <v>16</v>
+      </c>
+      <c r="C405" t="s">
+        <v>17</v>
+      </c>
+      <c r="D405">
+        <v>185500</v>
+      </c>
+      <c r="E405" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F405" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G405">
+        <v>2020</v>
+      </c>
+      <c r="H405">
+        <v>5</v>
+      </c>
+      <c r="I405">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9">
+      <c r="A406" t="s">
+        <v>9</v>
+      </c>
+      <c r="B406" t="s">
+        <v>18</v>
+      </c>
+      <c r="C406" t="s">
+        <v>19</v>
+      </c>
+      <c r="D406">
+        <v>519800</v>
+      </c>
+      <c r="E406" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F406" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G406">
+        <v>2020</v>
+      </c>
+      <c r="H406">
+        <v>5</v>
+      </c>
+      <c r="I406">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
+      <c r="A407" t="s">
+        <v>9</v>
+      </c>
+      <c r="B407" t="s">
+        <v>20</v>
+      </c>
+      <c r="C407" t="s">
+        <v>21</v>
+      </c>
+      <c r="D407">
+        <v>482600</v>
+      </c>
+      <c r="E407" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F407" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G407">
+        <v>2020</v>
+      </c>
+      <c r="H407">
+        <v>5</v>
+      </c>
+      <c r="I407">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
+      <c r="A408" t="s">
+        <v>9</v>
+      </c>
+      <c r="B408" t="s">
+        <v>22</v>
+      </c>
+      <c r="C408" t="s">
+        <v>23</v>
+      </c>
+      <c r="D408">
+        <v>707200</v>
+      </c>
+      <c r="E408" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F408" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G408">
+        <v>2020</v>
+      </c>
+      <c r="H408">
+        <v>5</v>
+      </c>
+      <c r="I408">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9">
+      <c r="A409" t="s">
+        <v>9</v>
+      </c>
+      <c r="B409" t="s">
+        <v>24</v>
+      </c>
+      <c r="C409" t="s">
+        <v>25</v>
+      </c>
+      <c r="D409">
+        <v>635200</v>
+      </c>
+      <c r="E409" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F409" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G409">
+        <v>2020</v>
+      </c>
+      <c r="H409">
+        <v>5</v>
+      </c>
+      <c r="I409">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
+      <c r="A410" t="s">
+        <v>9</v>
+      </c>
+      <c r="B410" t="s">
+        <v>26</v>
+      </c>
+      <c r="C410" t="s">
+        <v>27</v>
+      </c>
+      <c r="D410">
+        <v>32300</v>
+      </c>
+      <c r="E410" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F410" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G410">
+        <v>2020</v>
+      </c>
+      <c r="H410">
+        <v>5</v>
+      </c>
+      <c r="I410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
+      <c r="A411" t="s">
+        <v>9</v>
+      </c>
+      <c r="B411" t="s">
+        <v>28</v>
+      </c>
+      <c r="C411" t="s">
+        <v>29</v>
+      </c>
+      <c r="D411">
+        <v>4327800</v>
+      </c>
+      <c r="E411" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F411" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G411">
+        <v>2020</v>
+      </c>
+      <c r="H411">
+        <v>5</v>
+      </c>
+      <c r="I411">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
+      <c r="A412" t="s">
+        <v>9</v>
+      </c>
+      <c r="B412" t="s">
+        <v>30</v>
+      </c>
+      <c r="C412" t="s">
+        <v>31</v>
+      </c>
+      <c r="D412">
+        <v>470100</v>
+      </c>
+      <c r="E412" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F412" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G412">
+        <v>2020</v>
+      </c>
+      <c r="H412">
+        <v>5</v>
+      </c>
+      <c r="I412">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9">
+      <c r="A413" t="s">
+        <v>9</v>
+      </c>
+      <c r="B413" t="s">
+        <v>32</v>
+      </c>
+      <c r="C413" t="s">
+        <v>33</v>
+      </c>
+      <c r="D413">
+        <v>516200</v>
+      </c>
+      <c r="E413" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F413" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G413">
+        <v>2020</v>
+      </c>
+      <c r="H413">
+        <v>5</v>
+      </c>
+      <c r="I413">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9">
+      <c r="A414" t="s">
+        <v>9</v>
+      </c>
+      <c r="B414" t="s">
+        <v>34</v>
+      </c>
+      <c r="C414" t="s">
+        <v>35</v>
+      </c>
+      <c r="D414">
+        <v>910800</v>
+      </c>
+      <c r="E414" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F414" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G414">
+        <v>2020</v>
+      </c>
+      <c r="H414">
+        <v>5</v>
+      </c>
+      <c r="I414">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9">
+      <c r="A415" t="s">
+        <v>9</v>
+      </c>
+      <c r="B415" t="s">
+        <v>36</v>
+      </c>
+      <c r="C415" t="s">
+        <v>37</v>
+      </c>
+      <c r="D415">
+        <v>1549800</v>
+      </c>
+      <c r="E415" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F415" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G415">
+        <v>2020</v>
+      </c>
+      <c r="H415">
+        <v>5</v>
+      </c>
+      <c r="I415">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9">
+      <c r="A416" t="s">
+        <v>9</v>
+      </c>
+      <c r="B416" t="s">
+        <v>38</v>
+      </c>
+      <c r="C416" t="s">
+        <v>39</v>
+      </c>
+      <c r="D416">
+        <v>192300</v>
+      </c>
+      <c r="E416" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F416" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G416">
+        <v>2020</v>
+      </c>
+      <c r="H416">
+        <v>5</v>
+      </c>
+      <c r="I416">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9">
+      <c r="A417" t="s">
+        <v>9</v>
+      </c>
+      <c r="B417" t="s">
+        <v>40</v>
+      </c>
+      <c r="C417" t="s">
+        <v>41</v>
+      </c>
+      <c r="D417">
+        <v>131000</v>
+      </c>
+      <c r="E417" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F417" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G417">
+        <v>2020</v>
+      </c>
+      <c r="H417">
+        <v>5</v>
+      </c>
+      <c r="I417">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9">
+      <c r="A418" t="s">
+        <v>9</v>
+      </c>
+      <c r="B418" t="s">
+        <v>42</v>
+      </c>
+      <c r="C418" t="s">
+        <v>43</v>
+      </c>
+      <c r="D418">
+        <v>159500</v>
+      </c>
+      <c r="E418" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F418" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G418">
+        <v>2020</v>
+      </c>
+      <c r="H418">
+        <v>5</v>
+      </c>
+      <c r="I418">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9">
+      <c r="A419" t="s">
+        <v>9</v>
+      </c>
+      <c r="B419" t="s">
+        <v>44</v>
+      </c>
+      <c r="C419" t="s">
+        <v>45</v>
+      </c>
+      <c r="D419">
+        <v>111300</v>
+      </c>
+      <c r="E419" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F419" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G419">
+        <v>2020</v>
+      </c>
+      <c r="H419">
+        <v>5</v>
+      </c>
+      <c r="I419">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9">
+      <c r="A420" t="s">
+        <v>9</v>
+      </c>
+      <c r="B420" t="s">
+        <v>46</v>
+      </c>
+      <c r="C420" t="s">
+        <v>47</v>
+      </c>
+      <c r="D420">
+        <v>3172200</v>
+      </c>
+      <c r="E420" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F420" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G420">
+        <v>2020</v>
+      </c>
+      <c r="H420">
+        <v>5</v>
+      </c>
+      <c r="I420">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9">
+      <c r="A421" t="s">
+        <v>9</v>
+      </c>
+      <c r="B421" t="s">
+        <v>48</v>
+      </c>
+      <c r="C421" t="s">
+        <v>49</v>
+      </c>
+      <c r="D421">
+        <v>392600</v>
+      </c>
+      <c r="E421" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F421" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G421">
+        <v>2020</v>
+      </c>
+      <c r="H421">
+        <v>5</v>
+      </c>
+      <c r="I421">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9">
+      <c r="A422" t="s">
+        <v>9</v>
+      </c>
+      <c r="B422" t="s">
+        <v>50</v>
+      </c>
+      <c r="C422" t="s">
+        <v>51</v>
+      </c>
+      <c r="D422">
+        <v>450700</v>
+      </c>
+      <c r="E422" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F422" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G422">
+        <v>2020</v>
+      </c>
+      <c r="H422">
+        <v>5</v>
+      </c>
+      <c r="I422">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9">
+      <c r="A423" t="s">
+        <v>9</v>
+      </c>
+      <c r="B423" t="s">
+        <v>52</v>
+      </c>
+      <c r="C423" t="s">
+        <v>53</v>
+      </c>
+      <c r="D423">
+        <v>225500</v>
+      </c>
+      <c r="E423" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F423" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G423">
+        <v>2020</v>
+      </c>
+      <c r="H423">
+        <v>5</v>
+      </c>
+      <c r="I423">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9">
+      <c r="A424" t="s">
+        <v>9</v>
+      </c>
+      <c r="B424" t="s">
+        <v>54</v>
+      </c>
+      <c r="C424" t="s">
+        <v>55</v>
+      </c>
+      <c r="D424">
+        <v>584100</v>
+      </c>
+      <c r="E424" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F424" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G424">
+        <v>2020</v>
+      </c>
+      <c r="H424">
+        <v>5</v>
+      </c>
+      <c r="I424">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9">
+      <c r="A425" t="s">
+        <v>9</v>
+      </c>
+      <c r="B425" t="s">
+        <v>56</v>
+      </c>
+      <c r="C425" t="s">
+        <v>57</v>
+      </c>
+      <c r="D425">
+        <v>117900</v>
+      </c>
+      <c r="E425" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F425" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G425">
+        <v>2020</v>
+      </c>
+      <c r="H425">
+        <v>5</v>
+      </c>
+      <c r="I425">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9">
+      <c r="A426" t="s">
+        <v>9</v>
+      </c>
+      <c r="B426" t="s">
+        <v>9</v>
+      </c>
+      <c r="C426" t="s">
+        <v>58</v>
+      </c>
+      <c r="D426">
+        <v>17226800</v>
+      </c>
+      <c r="E426" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F426" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G426">
+        <v>2020</v>
+      </c>
+      <c r="H426">
+        <v>5</v>
+      </c>
+      <c r="I426">
+        <v>9475</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9">
+      <c r="A427" t="s">
+        <v>9</v>
+      </c>
+      <c r="B427" t="s">
+        <v>10</v>
+      </c>
+      <c r="C427" t="s">
+        <v>11</v>
+      </c>
+      <c r="D427">
+        <v>867200</v>
+      </c>
+      <c r="E427" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F427" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G427">
+        <v>2020</v>
+      </c>
+      <c r="H427">
+        <v>6</v>
+      </c>
+      <c r="I427">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9">
+      <c r="A428" t="s">
+        <v>9</v>
+      </c>
+      <c r="B428" t="s">
+        <v>12</v>
+      </c>
+      <c r="C428" t="s">
+        <v>13</v>
+      </c>
+      <c r="D428">
+        <v>208400</v>
+      </c>
+      <c r="E428" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F428" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G428">
+        <v>2020</v>
+      </c>
+      <c r="H428">
+        <v>6</v>
+      </c>
+      <c r="I428">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9">
+      <c r="A429" t="s">
+        <v>9</v>
+      </c>
+      <c r="B429" t="s">
+        <v>14</v>
+      </c>
+      <c r="C429" t="s">
+        <v>15</v>
+      </c>
+      <c r="D429">
+        <v>276800</v>
+      </c>
+      <c r="E429" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F429" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G429">
+        <v>2020</v>
+      </c>
+      <c r="H429">
+        <v>6</v>
+      </c>
+      <c r="I429">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9">
+      <c r="A430" t="s">
+        <v>9</v>
+      </c>
+      <c r="B430" t="s">
+        <v>16</v>
+      </c>
+      <c r="C430" t="s">
+        <v>17</v>
+      </c>
+      <c r="D430">
+        <v>185500</v>
+      </c>
+      <c r="E430" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F430" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G430">
+        <v>2020</v>
+      </c>
+      <c r="H430">
+        <v>6</v>
+      </c>
+      <c r="I430">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9">
+      <c r="A431" t="s">
+        <v>9</v>
+      </c>
+      <c r="B431" t="s">
+        <v>18</v>
+      </c>
+      <c r="C431" t="s">
+        <v>19</v>
+      </c>
+      <c r="D431">
+        <v>519800</v>
+      </c>
+      <c r="E431" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F431" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G431">
+        <v>2020</v>
+      </c>
+      <c r="H431">
+        <v>6</v>
+      </c>
+      <c r="I431">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9">
+      <c r="A432" t="s">
+        <v>9</v>
+      </c>
+      <c r="B432" t="s">
+        <v>20</v>
+      </c>
+      <c r="C432" t="s">
+        <v>21</v>
+      </c>
+      <c r="D432">
+        <v>482600</v>
+      </c>
+      <c r="E432" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F432" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G432">
+        <v>2020</v>
+      </c>
+      <c r="H432">
+        <v>6</v>
+      </c>
+      <c r="I432">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9">
+      <c r="A433" t="s">
+        <v>9</v>
+      </c>
+      <c r="B433" t="s">
+        <v>22</v>
+      </c>
+      <c r="C433" t="s">
+        <v>23</v>
+      </c>
+      <c r="D433">
+        <v>707200</v>
+      </c>
+      <c r="E433" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F433" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G433">
+        <v>2020</v>
+      </c>
+      <c r="H433">
+        <v>6</v>
+      </c>
+      <c r="I433">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9">
+      <c r="A434" t="s">
+        <v>9</v>
+      </c>
+      <c r="B434" t="s">
+        <v>24</v>
+      </c>
+      <c r="C434" t="s">
+        <v>25</v>
+      </c>
+      <c r="D434">
+        <v>635200</v>
+      </c>
+      <c r="E434" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F434" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G434">
+        <v>2020</v>
+      </c>
+      <c r="H434">
+        <v>6</v>
+      </c>
+      <c r="I434">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9">
+      <c r="A435" t="s">
+        <v>9</v>
+      </c>
+      <c r="B435" t="s">
+        <v>26</v>
+      </c>
+      <c r="C435" t="s">
+        <v>27</v>
+      </c>
+      <c r="D435">
+        <v>32300</v>
+      </c>
+      <c r="E435" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F435" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G435">
+        <v>2020</v>
+      </c>
+      <c r="H435">
+        <v>6</v>
+      </c>
+      <c r="I435">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9">
+      <c r="A436" t="s">
+        <v>9</v>
+      </c>
+      <c r="B436" t="s">
+        <v>28</v>
+      </c>
+      <c r="C436" t="s">
+        <v>29</v>
+      </c>
+      <c r="D436">
+        <v>4327800</v>
+      </c>
+      <c r="E436" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F436" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G436">
+        <v>2020</v>
+      </c>
+      <c r="H436">
+        <v>6</v>
+      </c>
+      <c r="I436">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9">
+      <c r="A437" t="s">
+        <v>9</v>
+      </c>
+      <c r="B437" t="s">
+        <v>30</v>
+      </c>
+      <c r="C437" t="s">
+        <v>31</v>
+      </c>
+      <c r="D437">
+        <v>470100</v>
+      </c>
+      <c r="E437" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F437" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G437">
+        <v>2020</v>
+      </c>
+      <c r="H437">
+        <v>6</v>
+      </c>
+      <c r="I437">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9">
+      <c r="A438" t="s">
+        <v>9</v>
+      </c>
+      <c r="B438" t="s">
+        <v>32</v>
+      </c>
+      <c r="C438" t="s">
+        <v>33</v>
+      </c>
+      <c r="D438">
+        <v>516200</v>
+      </c>
+      <c r="E438" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F438" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G438">
+        <v>2020</v>
+      </c>
+      <c r="H438">
+        <v>6</v>
+      </c>
+      <c r="I438">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9">
+      <c r="A439" t="s">
+        <v>9</v>
+      </c>
+      <c r="B439" t="s">
+        <v>34</v>
+      </c>
+      <c r="C439" t="s">
+        <v>35</v>
+      </c>
+      <c r="D439">
+        <v>910800</v>
+      </c>
+      <c r="E439" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F439" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G439">
+        <v>2020</v>
+      </c>
+      <c r="H439">
+        <v>6</v>
+      </c>
+      <c r="I439">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9">
+      <c r="A440" t="s">
+        <v>9</v>
+      </c>
+      <c r="B440" t="s">
+        <v>36</v>
+      </c>
+      <c r="C440" t="s">
+        <v>37</v>
+      </c>
+      <c r="D440">
+        <v>1549800</v>
+      </c>
+      <c r="E440" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F440" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G440">
+        <v>2020</v>
+      </c>
+      <c r="H440">
+        <v>6</v>
+      </c>
+      <c r="I440">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9">
+      <c r="A441" t="s">
+        <v>9</v>
+      </c>
+      <c r="B441" t="s">
+        <v>38</v>
+      </c>
+      <c r="C441" t="s">
+        <v>39</v>
+      </c>
+      <c r="D441">
+        <v>192300</v>
+      </c>
+      <c r="E441" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F441" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G441">
+        <v>2020</v>
+      </c>
+      <c r="H441">
+        <v>6</v>
+      </c>
+      <c r="I441">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9">
+      <c r="A442" t="s">
+        <v>9</v>
+      </c>
+      <c r="B442" t="s">
+        <v>40</v>
+      </c>
+      <c r="C442" t="s">
+        <v>41</v>
+      </c>
+      <c r="D442">
+        <v>131000</v>
+      </c>
+      <c r="E442" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F442" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G442">
+        <v>2020</v>
+      </c>
+      <c r="H442">
+        <v>6</v>
+      </c>
+      <c r="I442">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9">
+      <c r="A443" t="s">
+        <v>9</v>
+      </c>
+      <c r="B443" t="s">
+        <v>42</v>
+      </c>
+      <c r="C443" t="s">
+        <v>43</v>
+      </c>
+      <c r="D443">
+        <v>159500</v>
+      </c>
+      <c r="E443" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F443" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G443">
+        <v>2020</v>
+      </c>
+      <c r="H443">
+        <v>6</v>
+      </c>
+      <c r="I443">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9">
+      <c r="A444" t="s">
+        <v>9</v>
+      </c>
+      <c r="B444" t="s">
+        <v>44</v>
+      </c>
+      <c r="C444" t="s">
+        <v>45</v>
+      </c>
+      <c r="D444">
+        <v>111300</v>
+      </c>
+      <c r="E444" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F444" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G444">
+        <v>2020</v>
+      </c>
+      <c r="H444">
+        <v>6</v>
+      </c>
+      <c r="I444">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9">
+      <c r="A445" t="s">
+        <v>9</v>
+      </c>
+      <c r="B445" t="s">
+        <v>46</v>
+      </c>
+      <c r="C445" t="s">
+        <v>47</v>
+      </c>
+      <c r="D445">
+        <v>3172200</v>
+      </c>
+      <c r="E445" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F445" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G445">
+        <v>2020</v>
+      </c>
+      <c r="H445">
+        <v>6</v>
+      </c>
+      <c r="I445">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9">
+      <c r="A446" t="s">
+        <v>9</v>
+      </c>
+      <c r="B446" t="s">
+        <v>48</v>
+      </c>
+      <c r="C446" t="s">
+        <v>49</v>
+      </c>
+      <c r="D446">
+        <v>392600</v>
+      </c>
+      <c r="E446" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F446" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G446">
+        <v>2020</v>
+      </c>
+      <c r="H446">
+        <v>6</v>
+      </c>
+      <c r="I446">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9">
+      <c r="A447" t="s">
+        <v>9</v>
+      </c>
+      <c r="B447" t="s">
+        <v>50</v>
+      </c>
+      <c r="C447" t="s">
+        <v>51</v>
+      </c>
+      <c r="D447">
+        <v>450700</v>
+      </c>
+      <c r="E447" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F447" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G447">
+        <v>2020</v>
+      </c>
+      <c r="H447">
+        <v>6</v>
+      </c>
+      <c r="I447">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9">
+      <c r="A448" t="s">
+        <v>9</v>
+      </c>
+      <c r="B448" t="s">
+        <v>52</v>
+      </c>
+      <c r="C448" t="s">
+        <v>53</v>
+      </c>
+      <c r="D448">
+        <v>225500</v>
+      </c>
+      <c r="E448" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F448" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G448">
+        <v>2020</v>
+      </c>
+      <c r="H448">
+        <v>6</v>
+      </c>
+      <c r="I448">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9">
+      <c r="A449" t="s">
+        <v>9</v>
+      </c>
+      <c r="B449" t="s">
+        <v>54</v>
+      </c>
+      <c r="C449" t="s">
+        <v>55</v>
+      </c>
+      <c r="D449">
+        <v>584100</v>
+      </c>
+      <c r="E449" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F449" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G449">
+        <v>2020</v>
+      </c>
+      <c r="H449">
+        <v>6</v>
+      </c>
+      <c r="I449">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9">
+      <c r="A450" t="s">
+        <v>9</v>
+      </c>
+      <c r="B450" t="s">
+        <v>56</v>
+      </c>
+      <c r="C450" t="s">
+        <v>57</v>
+      </c>
+      <c r="D450">
+        <v>117900</v>
+      </c>
+      <c r="E450" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F450" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G450">
+        <v>2020</v>
+      </c>
+      <c r="H450">
+        <v>6</v>
+      </c>
+      <c r="I450">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9">
+      <c r="A451" t="s">
+        <v>9</v>
+      </c>
+      <c r="B451" t="s">
+        <v>9</v>
+      </c>
+      <c r="C451" t="s">
+        <v>58</v>
+      </c>
+      <c r="D451">
+        <v>17226800</v>
+      </c>
+      <c r="E451" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F451" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G451">
+        <v>2020</v>
+      </c>
+      <c r="H451">
+        <v>6</v>
+      </c>
+      <c r="I451">
+        <v>8034</v>
       </c>
     </row>
   </sheetData>

--- a/source-data/ecuador/ecuador_total_source_latest.xlsx
+++ b/source-data/ecuador/ecuador_total_source_latest.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/ecuador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D9F302-AE66-6840-B5BC-A16A799E7288}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1369C83F-D029-A943-8EFC-0BC7F3D59BA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7520" yWindow="540" windowWidth="22380" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="500" windowWidth="27180" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ecuador_total_source_latest" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ecuador_total_source_latest!$A$1:$I$426</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ecuador_total_source_latest!$A$1:$I$476</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="59">
   <si>
     <t>country</t>
   </si>
@@ -1041,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I451"/>
+  <dimension ref="A1:I526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
-      <selection activeCell="B446" sqref="B446"/>
+    <sheetView tabSelected="1" topLeftCell="A518" workbookViewId="0">
+      <selection activeCell="C525" sqref="C525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5309,7 +5309,7 @@
         <v>6</v>
       </c>
       <c r="I147">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5442,19 +5442,19 @@
         <v>867200</v>
       </c>
       <c r="E152" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F152" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G152">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I152">
-        <v>354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5471,19 +5471,19 @@
         <v>208400</v>
       </c>
       <c r="E153" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F153" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G153">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I153">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5500,19 +5500,19 @@
         <v>276800</v>
       </c>
       <c r="E154" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F154" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G154">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I154">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5529,19 +5529,19 @@
         <v>185500</v>
       </c>
       <c r="E155" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F155" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G155">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I155">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5558,19 +5558,19 @@
         <v>519800</v>
       </c>
       <c r="E156" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F156" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G156">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I156">
-        <v>198</v>
+        <v>221</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5587,19 +5587,19 @@
         <v>482600</v>
       </c>
       <c r="E157" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F157" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G157">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I157">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5616,19 +5616,19 @@
         <v>707200</v>
       </c>
       <c r="E158" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F158" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G158">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I158">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5645,19 +5645,19 @@
         <v>635200</v>
       </c>
       <c r="E159" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F159" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G159">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I159">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5674,19 +5674,19 @@
         <v>32300</v>
       </c>
       <c r="E160" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F160" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G160">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I160">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5703,19 +5703,19 @@
         <v>4327800</v>
       </c>
       <c r="E161" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F161" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G161">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I161">
-        <v>1968</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5732,19 +5732,19 @@
         <v>470100</v>
       </c>
       <c r="E162" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F162" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G162">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I162">
-        <v>197</v>
+        <v>146</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5761,19 +5761,19 @@
         <v>516200</v>
       </c>
       <c r="E163" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F163" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G163">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I163">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5790,19 +5790,19 @@
         <v>910800</v>
       </c>
       <c r="E164" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F164" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G164">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I164">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5819,19 +5819,19 @@
         <v>1549800</v>
       </c>
       <c r="E165" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F165" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G165">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I165">
-        <v>604</v>
+        <v>526</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5848,19 +5848,19 @@
         <v>192300</v>
       </c>
       <c r="E166" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F166" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G166">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I166">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5877,19 +5877,19 @@
         <v>131000</v>
       </c>
       <c r="E167" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F167" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G167">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I167">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5906,19 +5906,19 @@
         <v>159500</v>
       </c>
       <c r="E168" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F168" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G168">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I168">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5935,19 +5935,19 @@
         <v>111300</v>
       </c>
       <c r="E169" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F169" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G169">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I169">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5964,19 +5964,19 @@
         <v>3172200</v>
       </c>
       <c r="E170" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F170" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G170">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I170">
-        <v>1221</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5993,19 +5993,19 @@
         <v>392600</v>
       </c>
       <c r="E171" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F171" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G171">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I171">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6022,19 +6022,19 @@
         <v>450700</v>
       </c>
       <c r="E172" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F172" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G172">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I172">
-        <v>226</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6051,19 +6051,19 @@
         <v>225500</v>
       </c>
       <c r="E173" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F173" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G173">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I173">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6080,19 +6080,19 @@
         <v>584100</v>
       </c>
       <c r="E174" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F174" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G174">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I174">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6109,19 +6109,19 @@
         <v>117900</v>
       </c>
       <c r="E175" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F175" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G175">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I175">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6138,19 +6138,19 @@
         <v>17226800</v>
       </c>
       <c r="E176" s="1">
-        <v>43466</v>
+        <v>43282</v>
       </c>
       <c r="F176" s="1">
-        <v>43496</v>
+        <v>43312</v>
       </c>
       <c r="G176">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I176">
-        <v>6653</v>
+        <v>5945</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6167,19 +6167,19 @@
         <v>867200</v>
       </c>
       <c r="E177" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F177" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G177">
         <v>2019</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>298</v>
+        <v>354</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6196,19 +6196,19 @@
         <v>208400</v>
       </c>
       <c r="E178" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F178" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G178">
         <v>2019</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6225,19 +6225,19 @@
         <v>276800</v>
       </c>
       <c r="E179" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F179" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G179">
         <v>2019</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6254,19 +6254,19 @@
         <v>185500</v>
       </c>
       <c r="E180" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F180" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G180">
         <v>2019</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6283,19 +6283,19 @@
         <v>519800</v>
       </c>
       <c r="E181" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F181" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G181">
         <v>2019</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6312,19 +6312,19 @@
         <v>482600</v>
       </c>
       <c r="E182" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F182" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G182">
         <v>2019</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>125</v>
+        <v>164</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6341,19 +6341,19 @@
         <v>707200</v>
       </c>
       <c r="E183" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F183" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G183">
         <v>2019</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>250</v>
+        <v>266</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6370,19 +6370,19 @@
         <v>635200</v>
       </c>
       <c r="E184" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F184" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G184">
         <v>2019</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>122</v>
+        <v>154</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6399,16 +6399,16 @@
         <v>32300</v>
       </c>
       <c r="E185" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F185" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G185">
         <v>2019</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185">
         <v>6</v>
@@ -6428,19 +6428,19 @@
         <v>4327800</v>
       </c>
       <c r="E186" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F186" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G186">
         <v>2019</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>1774</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6457,19 +6457,19 @@
         <v>470100</v>
       </c>
       <c r="E187" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F187" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G187">
         <v>2019</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>159</v>
+        <v>197</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6486,19 +6486,19 @@
         <v>516200</v>
       </c>
       <c r="E188" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F188" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G188">
         <v>2019</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6515,19 +6515,19 @@
         <v>910800</v>
       </c>
       <c r="E189" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F189" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G189">
         <v>2019</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6544,19 +6544,19 @@
         <v>1549800</v>
       </c>
       <c r="E190" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F190" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G190">
         <v>2019</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>549</v>
+        <v>604</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6573,19 +6573,19 @@
         <v>192300</v>
       </c>
       <c r="E191" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F191" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G191">
         <v>2019</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6602,19 +6602,19 @@
         <v>131000</v>
       </c>
       <c r="E192" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F192" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G192">
         <v>2019</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6631,19 +6631,19 @@
         <v>159500</v>
       </c>
       <c r="E193" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F193" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G193">
         <v>2019</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6660,19 +6660,19 @@
         <v>111300</v>
       </c>
       <c r="E194" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F194" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G194">
         <v>2019</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6689,19 +6689,19 @@
         <v>3172200</v>
       </c>
       <c r="E195" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F195" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G195">
         <v>2019</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>999</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6718,19 +6718,19 @@
         <v>392600</v>
       </c>
       <c r="E196" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F196" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G196">
         <v>2019</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -6747,19 +6747,19 @@
         <v>450700</v>
       </c>
       <c r="E197" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F197" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G197">
         <v>2019</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197">
-        <v>156</v>
+        <v>226</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6776,19 +6776,19 @@
         <v>225500</v>
       </c>
       <c r="E198" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F198" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G198">
         <v>2019</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -6805,19 +6805,19 @@
         <v>584100</v>
       </c>
       <c r="E199" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F199" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G199">
         <v>2019</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199">
-        <v>196</v>
+        <v>237</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -6834,19 +6834,19 @@
         <v>117900</v>
       </c>
       <c r="E200" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F200" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G200">
         <v>2019</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6863,19 +6863,19 @@
         <v>17226800</v>
       </c>
       <c r="E201" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="F201" s="1">
-        <v>43524</v>
+        <v>43496</v>
       </c>
       <c r="G201">
         <v>2019</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201">
-        <v>5876</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -6892,19 +6892,19 @@
         <v>867200</v>
       </c>
       <c r="E202" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F202" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G202">
         <v>2019</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I202">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6921,19 +6921,19 @@
         <v>208400</v>
       </c>
       <c r="E203" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F203" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G203">
         <v>2019</v>
       </c>
       <c r="H203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -6950,19 +6950,19 @@
         <v>276800</v>
       </c>
       <c r="E204" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F204" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G204">
         <v>2019</v>
       </c>
       <c r="H204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -6979,16 +6979,16 @@
         <v>185500</v>
       </c>
       <c r="E205" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F205" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G205">
         <v>2019</v>
       </c>
       <c r="H205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205">
         <v>57</v>
@@ -7008,19 +7008,19 @@
         <v>519800</v>
       </c>
       <c r="E206" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F206" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G206">
         <v>2019</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206">
-        <v>227</v>
+        <v>194</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -7037,19 +7037,19 @@
         <v>482600</v>
       </c>
       <c r="E207" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F207" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G207">
         <v>2019</v>
       </c>
       <c r="H207">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I207">
-        <v>168</v>
+        <v>125</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -7066,19 +7066,19 @@
         <v>707200</v>
       </c>
       <c r="E208" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F208" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G208">
         <v>2019</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I208">
-        <v>289</v>
+        <v>250</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -7095,19 +7095,19 @@
         <v>635200</v>
       </c>
       <c r="E209" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F209" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G209">
         <v>2019</v>
       </c>
       <c r="H209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209">
-        <v>154</v>
+        <v>122</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -7124,19 +7124,19 @@
         <v>32300</v>
       </c>
       <c r="E210" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F210" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G210">
         <v>2019</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -7153,19 +7153,19 @@
         <v>4327800</v>
       </c>
       <c r="E211" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F211" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G211">
         <v>2019</v>
       </c>
       <c r="H211">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211">
-        <v>1910</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -7182,19 +7182,19 @@
         <v>470100</v>
       </c>
       <c r="E212" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F212" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G212">
         <v>2019</v>
       </c>
       <c r="H212">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -7211,19 +7211,19 @@
         <v>516200</v>
       </c>
       <c r="E213" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F213" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G213">
         <v>2019</v>
       </c>
       <c r="H213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -7240,19 +7240,19 @@
         <v>910800</v>
       </c>
       <c r="E214" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F214" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G214">
         <v>2019</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>329</v>
+        <v>299</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -7269,19 +7269,19 @@
         <v>1549800</v>
       </c>
       <c r="E215" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F215" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G215">
         <v>2019</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>583</v>
+        <v>549</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -7298,19 +7298,19 @@
         <v>192300</v>
       </c>
       <c r="E216" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F216" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G216">
         <v>2019</v>
       </c>
       <c r="H216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -7327,19 +7327,19 @@
         <v>131000</v>
       </c>
       <c r="E217" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F217" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G217">
         <v>2019</v>
       </c>
       <c r="H217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -7356,19 +7356,19 @@
         <v>159500</v>
       </c>
       <c r="E218" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F218" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G218">
         <v>2019</v>
       </c>
       <c r="H218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -7385,16 +7385,16 @@
         <v>111300</v>
       </c>
       <c r="E219" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F219" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G219">
         <v>2019</v>
       </c>
       <c r="H219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219">
         <v>28</v>
@@ -7414,19 +7414,19 @@
         <v>3172200</v>
       </c>
       <c r="E220" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F220" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G220">
         <v>2019</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220">
-        <v>1100</v>
+        <v>999</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -7443,19 +7443,19 @@
         <v>392600</v>
       </c>
       <c r="E221" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F221" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G221">
         <v>2019</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -7472,19 +7472,19 @@
         <v>450700</v>
       </c>
       <c r="E222" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F222" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G222">
         <v>2019</v>
       </c>
       <c r="H222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222">
-        <v>240</v>
+        <v>156</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -7501,19 +7501,19 @@
         <v>225500</v>
       </c>
       <c r="E223" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F223" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G223">
         <v>2019</v>
       </c>
       <c r="H223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -7530,19 +7530,19 @@
         <v>584100</v>
       </c>
       <c r="E224" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F224" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G224">
         <v>2019</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I224">
-        <v>266</v>
+        <v>196</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -7559,19 +7559,19 @@
         <v>117900</v>
       </c>
       <c r="E225" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F225" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G225">
         <v>2019</v>
       </c>
       <c r="H225">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -7588,19 +7588,19 @@
         <v>17226800</v>
       </c>
       <c r="E226" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="F226" s="1">
-        <v>43555</v>
+        <v>43524</v>
       </c>
       <c r="G226">
         <v>2019</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I226">
-        <v>6500</v>
+        <v>5876</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -7617,19 +7617,19 @@
         <v>867200</v>
       </c>
       <c r="E227" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F227" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G227">
         <v>2019</v>
       </c>
       <c r="H227">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I227">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -7646,19 +7646,19 @@
         <v>208400</v>
       </c>
       <c r="E228" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F228" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G228">
         <v>2019</v>
       </c>
       <c r="H228">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I228">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -7675,19 +7675,19 @@
         <v>276800</v>
       </c>
       <c r="E229" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F229" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G229">
         <v>2019</v>
       </c>
       <c r="H229">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I229">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -7704,16 +7704,16 @@
         <v>185500</v>
       </c>
       <c r="E230" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F230" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G230">
         <v>2019</v>
       </c>
       <c r="H230">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I230">
         <v>57</v>
@@ -7733,19 +7733,19 @@
         <v>519800</v>
       </c>
       <c r="E231" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F231" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G231">
         <v>2019</v>
       </c>
       <c r="H231">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I231">
-        <v>177</v>
+        <v>227</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -7762,19 +7762,19 @@
         <v>482600</v>
       </c>
       <c r="E232" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F232" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G232">
         <v>2019</v>
       </c>
       <c r="H232">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I232">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -7791,19 +7791,19 @@
         <v>707200</v>
       </c>
       <c r="E233" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F233" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G233">
         <v>2019</v>
       </c>
       <c r="H233">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I233">
-        <v>233</v>
+        <v>289</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -7820,19 +7820,19 @@
         <v>635200</v>
       </c>
       <c r="E234" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F234" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G234">
         <v>2019</v>
       </c>
       <c r="H234">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I234">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -7849,19 +7849,19 @@
         <v>32300</v>
       </c>
       <c r="E235" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F235" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G235">
         <v>2019</v>
       </c>
       <c r="H235">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -7878,19 +7878,19 @@
         <v>4327800</v>
       </c>
       <c r="E236" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F236" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G236">
         <v>2019</v>
       </c>
       <c r="H236">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I236">
-        <v>1863</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -7907,19 +7907,19 @@
         <v>470100</v>
       </c>
       <c r="E237" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F237" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G237">
         <v>2019</v>
       </c>
       <c r="H237">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I237">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -7936,19 +7936,19 @@
         <v>516200</v>
       </c>
       <c r="E238" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F238" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G238">
         <v>2019</v>
       </c>
       <c r="H238">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I238">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -7965,19 +7965,19 @@
         <v>910800</v>
       </c>
       <c r="E239" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F239" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G239">
         <v>2019</v>
       </c>
       <c r="H239">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I239">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -7994,19 +7994,19 @@
         <v>1549800</v>
       </c>
       <c r="E240" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F240" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G240">
         <v>2019</v>
       </c>
       <c r="H240">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I240">
-        <v>554</v>
+        <v>583</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -8023,19 +8023,19 @@
         <v>192300</v>
       </c>
       <c r="E241" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F241" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G241">
         <v>2019</v>
       </c>
       <c r="H241">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I241">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -8052,19 +8052,19 @@
         <v>131000</v>
       </c>
       <c r="E242" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F242" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G242">
         <v>2019</v>
       </c>
       <c r="H242">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I242">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -8081,19 +8081,19 @@
         <v>159500</v>
       </c>
       <c r="E243" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F243" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G243">
         <v>2019</v>
       </c>
       <c r="H243">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I243">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -8110,19 +8110,19 @@
         <v>111300</v>
       </c>
       <c r="E244" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F244" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G244">
         <v>2019</v>
       </c>
       <c r="H244">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I244">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -8139,19 +8139,19 @@
         <v>3172200</v>
       </c>
       <c r="E245" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F245" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G245">
         <v>2019</v>
       </c>
       <c r="H245">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I245">
-        <v>1002</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -8168,19 +8168,19 @@
         <v>392600</v>
       </c>
       <c r="E246" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F246" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G246">
         <v>2019</v>
       </c>
       <c r="H246">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I246">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -8197,19 +8197,19 @@
         <v>450700</v>
       </c>
       <c r="E247" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F247" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G247">
         <v>2019</v>
       </c>
       <c r="H247">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I247">
-        <v>198</v>
+        <v>240</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -8226,19 +8226,19 @@
         <v>225500</v>
       </c>
       <c r="E248" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F248" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G248">
         <v>2019</v>
       </c>
       <c r="H248">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I248">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -8255,19 +8255,19 @@
         <v>584100</v>
       </c>
       <c r="E249" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F249" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G249">
         <v>2019</v>
       </c>
       <c r="H249">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I249">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -8284,19 +8284,19 @@
         <v>117900</v>
       </c>
       <c r="E250" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F250" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G250">
         <v>2019</v>
       </c>
       <c r="H250">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I250">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -8313,19 +8313,19 @@
         <v>17226800</v>
       </c>
       <c r="E251" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="F251" s="1">
-        <v>43585</v>
+        <v>43555</v>
       </c>
       <c r="G251">
         <v>2019</v>
       </c>
       <c r="H251">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I251">
-        <v>6076</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -8342,19 +8342,19 @@
         <v>867200</v>
       </c>
       <c r="E252" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F252" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G252">
         <v>2019</v>
       </c>
       <c r="H252">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I252">
-        <v>347</v>
+        <v>309</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -8371,19 +8371,19 @@
         <v>208400</v>
       </c>
       <c r="E253" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F253" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G253">
         <v>2019</v>
       </c>
       <c r="H253">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I253">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -8400,19 +8400,19 @@
         <v>276800</v>
       </c>
       <c r="E254" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F254" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G254">
         <v>2019</v>
       </c>
       <c r="H254">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I254">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -8429,19 +8429,19 @@
         <v>185500</v>
       </c>
       <c r="E255" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F255" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G255">
         <v>2019</v>
       </c>
       <c r="H255">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I255">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -8458,19 +8458,19 @@
         <v>519800</v>
       </c>
       <c r="E256" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F256" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G256">
         <v>2019</v>
       </c>
       <c r="H256">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I256">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -8487,19 +8487,19 @@
         <v>482600</v>
       </c>
       <c r="E257" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F257" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G257">
         <v>2019</v>
       </c>
       <c r="H257">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I257">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -8516,19 +8516,19 @@
         <v>707200</v>
       </c>
       <c r="E258" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F258" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G258">
         <v>2019</v>
       </c>
       <c r="H258">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I258">
-        <v>262</v>
+        <v>233</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -8545,19 +8545,19 @@
         <v>635200</v>
       </c>
       <c r="E259" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F259" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G259">
         <v>2019</v>
       </c>
       <c r="H259">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I259">
-        <v>114</v>
+        <v>151</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -8574,19 +8574,19 @@
         <v>32300</v>
       </c>
       <c r="E260" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F260" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G260">
         <v>2019</v>
       </c>
       <c r="H260">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I260">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -8603,19 +8603,19 @@
         <v>4327800</v>
       </c>
       <c r="E261" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F261" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G261">
         <v>2019</v>
       </c>
       <c r="H261">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I261">
-        <v>1705</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -8632,19 +8632,19 @@
         <v>470100</v>
       </c>
       <c r="E262" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F262" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G262">
         <v>2019</v>
       </c>
       <c r="H262">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I262">
-        <v>188</v>
+        <v>158</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -8661,19 +8661,19 @@
         <v>516200</v>
       </c>
       <c r="E263" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F263" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G263">
         <v>2019</v>
       </c>
       <c r="H263">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I263">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -8690,19 +8690,19 @@
         <v>910800</v>
       </c>
       <c r="E264" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F264" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G264">
         <v>2019</v>
       </c>
       <c r="H264">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I264">
-        <v>304</v>
+        <v>327</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -8719,19 +8719,19 @@
         <v>1549800</v>
       </c>
       <c r="E265" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F265" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G265">
         <v>2019</v>
       </c>
       <c r="H265">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I265">
-        <v>450</v>
+        <v>554</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -8748,19 +8748,19 @@
         <v>192300</v>
       </c>
       <c r="E266" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F266" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G266">
         <v>2019</v>
       </c>
       <c r="H266">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I266">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -8777,19 +8777,19 @@
         <v>131000</v>
       </c>
       <c r="E267" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F267" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G267">
         <v>2019</v>
       </c>
       <c r="H267">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I267">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -8806,19 +8806,19 @@
         <v>159500</v>
       </c>
       <c r="E268" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F268" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G268">
         <v>2019</v>
       </c>
       <c r="H268">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I268">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -8835,19 +8835,19 @@
         <v>111300</v>
       </c>
       <c r="E269" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F269" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G269">
         <v>2019</v>
       </c>
       <c r="H269">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I269">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -8864,19 +8864,19 @@
         <v>3172200</v>
       </c>
       <c r="E270" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F270" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G270">
         <v>2019</v>
       </c>
       <c r="H270">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I270">
-        <v>1074</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -8893,19 +8893,19 @@
         <v>392600</v>
       </c>
       <c r="E271" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F271" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G271">
         <v>2019</v>
       </c>
       <c r="H271">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I271">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -8922,19 +8922,19 @@
         <v>450700</v>
       </c>
       <c r="E272" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F272" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G272">
         <v>2019</v>
       </c>
       <c r="H272">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I272">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -8951,19 +8951,19 @@
         <v>225500</v>
       </c>
       <c r="E273" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F273" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G273">
         <v>2019</v>
       </c>
       <c r="H273">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I273">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -8980,19 +8980,19 @@
         <v>584100</v>
       </c>
       <c r="E274" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F274" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G274">
         <v>2019</v>
       </c>
       <c r="H274">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I274">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -9009,19 +9009,19 @@
         <v>117900</v>
       </c>
       <c r="E275" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F275" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G275">
         <v>2019</v>
       </c>
       <c r="H275">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I275">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -9038,19 +9038,19 @@
         <v>17226800</v>
       </c>
       <c r="E276" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="F276" s="1">
-        <v>43616</v>
+        <v>43585</v>
       </c>
       <c r="G276">
         <v>2019</v>
       </c>
       <c r="H276">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I276">
-        <v>5896</v>
+        <v>6076</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -9067,19 +9067,19 @@
         <v>867200</v>
       </c>
       <c r="E277" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F277" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G277">
         <v>2019</v>
       </c>
       <c r="H277">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I277">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -9096,19 +9096,19 @@
         <v>208400</v>
       </c>
       <c r="E278" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F278" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G278">
         <v>2019</v>
       </c>
       <c r="H278">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I278">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -9125,19 +9125,19 @@
         <v>276800</v>
       </c>
       <c r="E279" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F279" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G279">
         <v>2019</v>
       </c>
       <c r="H279">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I279">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -9154,19 +9154,19 @@
         <v>185500</v>
       </c>
       <c r="E280" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F280" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G280">
         <v>2019</v>
       </c>
       <c r="H280">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I280">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -9183,19 +9183,19 @@
         <v>519800</v>
       </c>
       <c r="E281" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F281" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G281">
         <v>2019</v>
       </c>
       <c r="H281">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I281">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -9212,19 +9212,19 @@
         <v>482600</v>
       </c>
       <c r="E282" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F282" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G282">
         <v>2019</v>
       </c>
       <c r="H282">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I282">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -9241,19 +9241,19 @@
         <v>707200</v>
       </c>
       <c r="E283" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F283" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G283">
         <v>2019</v>
       </c>
       <c r="H283">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I283">
-        <v>222</v>
+        <v>262</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -9270,19 +9270,19 @@
         <v>635200</v>
       </c>
       <c r="E284" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F284" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G284">
         <v>2019</v>
       </c>
       <c r="H284">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I284">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -9299,16 +9299,16 @@
         <v>32300</v>
       </c>
       <c r="E285" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F285" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G285">
         <v>2019</v>
       </c>
       <c r="H285">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I285">
         <v>2</v>
@@ -9328,19 +9328,19 @@
         <v>4327800</v>
       </c>
       <c r="E286" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F286" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G286">
         <v>2019</v>
       </c>
       <c r="H286">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I286">
-        <v>1664</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -9357,19 +9357,19 @@
         <v>470100</v>
       </c>
       <c r="E287" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F287" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G287">
         <v>2019</v>
       </c>
       <c r="H287">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I287">
-        <v>165</v>
+        <v>188</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -9386,19 +9386,19 @@
         <v>516200</v>
       </c>
       <c r="E288" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F288" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G288">
         <v>2019</v>
       </c>
       <c r="H288">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I288">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -9415,19 +9415,19 @@
         <v>910800</v>
       </c>
       <c r="E289" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F289" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G289">
         <v>2019</v>
       </c>
       <c r="H289">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I289">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -9444,19 +9444,19 @@
         <v>1549800</v>
       </c>
       <c r="E290" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F290" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G290">
         <v>2019</v>
       </c>
       <c r="H290">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I290">
-        <v>487</v>
+        <v>450</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -9473,19 +9473,19 @@
         <v>192300</v>
       </c>
       <c r="E291" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F291" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G291">
         <v>2019</v>
       </c>
       <c r="H291">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I291">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -9502,19 +9502,19 @@
         <v>131000</v>
       </c>
       <c r="E292" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F292" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G292">
         <v>2019</v>
       </c>
       <c r="H292">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I292">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -9531,19 +9531,19 @@
         <v>159500</v>
       </c>
       <c r="E293" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F293" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G293">
         <v>2019</v>
       </c>
       <c r="H293">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I293">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -9560,19 +9560,19 @@
         <v>111300</v>
       </c>
       <c r="E294" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F294" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G294">
         <v>2019</v>
       </c>
       <c r="H294">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I294">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -9589,19 +9589,19 @@
         <v>3172200</v>
       </c>
       <c r="E295" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F295" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G295">
         <v>2019</v>
       </c>
       <c r="H295">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I295">
-        <v>1105</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -9618,19 +9618,19 @@
         <v>392600</v>
       </c>
       <c r="E296" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F296" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G296">
         <v>2019</v>
       </c>
       <c r="H296">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I296">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -9647,19 +9647,19 @@
         <v>450700</v>
       </c>
       <c r="E297" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F297" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G297">
         <v>2019</v>
       </c>
       <c r="H297">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I297">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -9676,19 +9676,19 @@
         <v>225500</v>
       </c>
       <c r="E298" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F298" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G298">
         <v>2019</v>
       </c>
       <c r="H298">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I298">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -9705,19 +9705,19 @@
         <v>584100</v>
       </c>
       <c r="E299" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F299" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G299">
         <v>2019</v>
       </c>
       <c r="H299">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I299">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -9734,19 +9734,19 @@
         <v>117900</v>
       </c>
       <c r="E300" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F300" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G300">
         <v>2019</v>
       </c>
       <c r="H300">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I300">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -9763,19 +9763,19 @@
         <v>17226800</v>
       </c>
       <c r="E301" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="F301" s="1">
-        <v>43646</v>
+        <v>43616</v>
       </c>
       <c r="G301">
         <v>2019</v>
       </c>
       <c r="H301">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I301">
-        <v>5842</v>
+        <v>5896</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -9792,19 +9792,19 @@
         <v>867200</v>
       </c>
       <c r="E302" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F302" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G302">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I302">
-        <v>361</v>
+        <v>335</v>
       </c>
     </row>
     <row r="303" spans="1:9">
@@ -9821,19 +9821,19 @@
         <v>208400</v>
       </c>
       <c r="E303" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F303" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G303">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I303">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="304" spans="1:9">
@@ -9850,19 +9850,19 @@
         <v>276800</v>
       </c>
       <c r="E304" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F304" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G304">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I304">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -9879,19 +9879,19 @@
         <v>185500</v>
       </c>
       <c r="E305" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F305" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G305">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I305">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -9908,19 +9908,19 @@
         <v>519800</v>
       </c>
       <c r="E306" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F306" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G306">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I306">
-        <v>216</v>
+        <v>186</v>
       </c>
     </row>
     <row r="307" spans="1:9">
@@ -9937,19 +9937,19 @@
         <v>482600</v>
       </c>
       <c r="E307" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F307" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G307">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I307">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -9966,19 +9966,19 @@
         <v>707200</v>
       </c>
       <c r="E308" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F308" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G308">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I308">
-        <v>299</v>
+        <v>222</v>
       </c>
     </row>
     <row r="309" spans="1:9">
@@ -9995,19 +9995,19 @@
         <v>635200</v>
       </c>
       <c r="E309" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F309" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G309">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I309">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="310" spans="1:9">
@@ -10024,19 +10024,19 @@
         <v>32300</v>
       </c>
       <c r="E310" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F310" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G310">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I310">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:9">
@@ -10053,19 +10053,19 @@
         <v>4327800</v>
       </c>
       <c r="E311" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F311" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G311">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I311">
-        <v>1959</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="312" spans="1:9">
@@ -10082,19 +10082,19 @@
         <v>470100</v>
       </c>
       <c r="E312" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F312" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G312">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I312">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="313" spans="1:9">
@@ -10111,19 +10111,19 @@
         <v>516200</v>
       </c>
       <c r="E313" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F313" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G313">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I313">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="314" spans="1:9">
@@ -10140,16 +10140,16 @@
         <v>910800</v>
       </c>
       <c r="E314" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F314" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G314">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I314">
         <v>296</v>
@@ -10169,19 +10169,19 @@
         <v>1549800</v>
       </c>
       <c r="E315" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F315" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G315">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I315">
-        <v>623</v>
+        <v>487</v>
       </c>
     </row>
     <row r="316" spans="1:9">
@@ -10198,19 +10198,19 @@
         <v>192300</v>
       </c>
       <c r="E316" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F316" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G316">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I316">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="317" spans="1:9">
@@ -10227,19 +10227,19 @@
         <v>131000</v>
       </c>
       <c r="E317" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F317" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G317">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I317">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="318" spans="1:9">
@@ -10256,19 +10256,19 @@
         <v>159500</v>
       </c>
       <c r="E318" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F318" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G318">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I318">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="319" spans="1:9">
@@ -10285,19 +10285,19 @@
         <v>111300</v>
       </c>
       <c r="E319" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F319" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G319">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I319">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="320" spans="1:9">
@@ -10314,19 +10314,19 @@
         <v>3172200</v>
       </c>
       <c r="E320" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F320" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G320">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I320">
-        <v>1211</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -10343,19 +10343,19 @@
         <v>392600</v>
       </c>
       <c r="E321" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F321" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G321">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I321">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -10372,19 +10372,19 @@
         <v>450700</v>
       </c>
       <c r="E322" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F322" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G322">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I322">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -10401,19 +10401,19 @@
         <v>225500</v>
       </c>
       <c r="E323" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F323" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G323">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I323">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -10430,19 +10430,19 @@
         <v>584100</v>
       </c>
       <c r="E324" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F324" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G324">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I324">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -10459,19 +10459,19 @@
         <v>117900</v>
       </c>
       <c r="E325" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F325" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G325">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I325">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -10488,19 +10488,19 @@
         <v>17226800</v>
       </c>
       <c r="E326" s="1">
-        <v>43831</v>
+        <v>43617</v>
       </c>
       <c r="F326" s="1">
-        <v>43861</v>
+        <v>43646</v>
       </c>
       <c r="G326">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I326">
-        <v>6682</v>
+        <v>5842</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -10517,19 +10517,19 @@
         <v>867200</v>
       </c>
       <c r="E327" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F327" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G327">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I327">
-        <v>319</v>
+        <v>339</v>
       </c>
     </row>
     <row r="328" spans="1:9">
@@ -10546,19 +10546,19 @@
         <v>208400</v>
       </c>
       <c r="E328" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F328" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G328">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I328">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -10575,19 +10575,19 @@
         <v>276800</v>
       </c>
       <c r="E329" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F329" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G329">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I329">
-        <v>75</v>
+        <v>112</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -10604,19 +10604,19 @@
         <v>185500</v>
       </c>
       <c r="E330" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F330" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G330">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I330">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -10633,19 +10633,19 @@
         <v>519800</v>
       </c>
       <c r="E331" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F331" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G331">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I331">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -10662,19 +10662,19 @@
         <v>482600</v>
       </c>
       <c r="E332" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F332" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G332">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I332">
-        <v>156</v>
+        <v>189</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -10691,16 +10691,16 @@
         <v>707200</v>
       </c>
       <c r="E333" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F333" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G333">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I333">
         <v>225</v>
@@ -10720,19 +10720,19 @@
         <v>635200</v>
       </c>
       <c r="E334" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F334" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G334">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I334">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -10749,19 +10749,19 @@
         <v>32300</v>
       </c>
       <c r="E335" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F335" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G335">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H335">
+        <v>7</v>
+      </c>
+      <c r="I335">
         <v>2</v>
-      </c>
-      <c r="I335">
-        <v>4</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -10778,19 +10778,19 @@
         <v>4327800</v>
       </c>
       <c r="E336" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F336" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G336">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I336">
-        <v>1703</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="337" spans="1:9">
@@ -10807,19 +10807,19 @@
         <v>470100</v>
       </c>
       <c r="E337" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F337" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G337">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I337">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -10836,19 +10836,19 @@
         <v>516200</v>
       </c>
       <c r="E338" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F338" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G338">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I338">
-        <v>162</v>
+        <v>200</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -10865,19 +10865,19 @@
         <v>910800</v>
       </c>
       <c r="E339" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F339" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G339">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I339">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="340" spans="1:9">
@@ -10894,19 +10894,19 @@
         <v>1549800</v>
       </c>
       <c r="E340" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F340" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G340">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I340">
-        <v>533</v>
+        <v>496</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -10923,19 +10923,19 @@
         <v>192300</v>
       </c>
       <c r="E341" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F341" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G341">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I341">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -10952,19 +10952,19 @@
         <v>131000</v>
       </c>
       <c r="E342" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F342" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G342">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I342">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -10981,19 +10981,19 @@
         <v>159500</v>
       </c>
       <c r="E343" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F343" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G343">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I343">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -11010,19 +11010,19 @@
         <v>111300</v>
       </c>
       <c r="E344" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F344" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G344">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I344">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -11039,19 +11039,19 @@
         <v>3172200</v>
       </c>
       <c r="E345" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F345" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G345">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I345">
-        <v>1145</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -11068,19 +11068,19 @@
         <v>392600</v>
       </c>
       <c r="E346" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F346" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G346">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I346">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="347" spans="1:9">
@@ -11097,19 +11097,19 @@
         <v>450700</v>
       </c>
       <c r="E347" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F347" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G347">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I347">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -11126,19 +11126,19 @@
         <v>225500</v>
       </c>
       <c r="E348" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F348" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G348">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I348">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -11155,19 +11155,19 @@
         <v>584100</v>
       </c>
       <c r="E349" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F349" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G349">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I349">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -11184,19 +11184,19 @@
         <v>117900</v>
       </c>
       <c r="E350" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F350" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G350">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I350">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -11213,19 +11213,19 @@
         <v>17226800</v>
       </c>
       <c r="E351" s="1">
-        <v>43862</v>
+        <v>44013</v>
       </c>
       <c r="F351" s="1">
-        <v>43890</v>
+        <v>44043</v>
       </c>
       <c r="G351">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I351">
-        <v>5998</v>
+        <v>6042</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -11242,19 +11242,19 @@
         <v>867200</v>
       </c>
       <c r="E352" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F352" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G352">
         <v>2020</v>
       </c>
       <c r="H352">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I352">
-        <v>330</v>
+        <v>361</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -11271,19 +11271,19 @@
         <v>208400</v>
       </c>
       <c r="E353" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F353" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G353">
         <v>2020</v>
       </c>
       <c r="H353">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I353">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -11300,19 +11300,19 @@
         <v>276800</v>
       </c>
       <c r="E354" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F354" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G354">
         <v>2020</v>
       </c>
       <c r="H354">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I354">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -11329,19 +11329,19 @@
         <v>185500</v>
       </c>
       <c r="E355" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F355" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G355">
         <v>2020</v>
       </c>
       <c r="H355">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I355">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -11358,19 +11358,19 @@
         <v>519800</v>
       </c>
       <c r="E356" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F356" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G356">
         <v>2020</v>
       </c>
       <c r="H356">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I356">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -11387,19 +11387,19 @@
         <v>482600</v>
       </c>
       <c r="E357" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F357" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G357">
         <v>2020</v>
       </c>
       <c r="H357">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I357">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -11416,19 +11416,19 @@
         <v>707200</v>
       </c>
       <c r="E358" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F358" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G358">
         <v>2020</v>
       </c>
       <c r="H358">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I358">
-        <v>276</v>
+        <v>301</v>
       </c>
     </row>
     <row r="359" spans="1:9">
@@ -11445,19 +11445,19 @@
         <v>635200</v>
       </c>
       <c r="E359" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F359" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G359">
         <v>2020</v>
       </c>
       <c r="H359">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I359">
-        <v>100</v>
+        <v>133</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -11474,19 +11474,19 @@
         <v>32300</v>
       </c>
       <c r="E360" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F360" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G360">
         <v>2020</v>
       </c>
       <c r="H360">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I360">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="361" spans="1:9">
@@ -11503,19 +11503,19 @@
         <v>4327800</v>
       </c>
       <c r="E361" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F361" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G361">
         <v>2020</v>
       </c>
       <c r="H361">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I361">
-        <v>5220</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -11532,19 +11532,19 @@
         <v>470100</v>
       </c>
       <c r="E362" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F362" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G362">
         <v>2020</v>
       </c>
       <c r="H362">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I362">
-        <v>135</v>
+        <v>185</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -11561,19 +11561,19 @@
         <v>516200</v>
       </c>
       <c r="E363" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F363" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G363">
         <v>2020</v>
       </c>
       <c r="H363">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I363">
-        <v>163</v>
+        <v>213</v>
       </c>
     </row>
     <row r="364" spans="1:9">
@@ -11590,19 +11590,19 @@
         <v>910800</v>
       </c>
       <c r="E364" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F364" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G364">
         <v>2020</v>
       </c>
       <c r="H364">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I364">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="365" spans="1:9">
@@ -11619,19 +11619,19 @@
         <v>1549800</v>
       </c>
       <c r="E365" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F365" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G365">
         <v>2020</v>
       </c>
       <c r="H365">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I365">
-        <v>547</v>
+        <v>623</v>
       </c>
     </row>
     <row r="366" spans="1:9">
@@ -11648,19 +11648,19 @@
         <v>192300</v>
       </c>
       <c r="E366" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F366" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G366">
         <v>2020</v>
       </c>
       <c r="H366">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I366">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -11677,19 +11677,19 @@
         <v>131000</v>
       </c>
       <c r="E367" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F367" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G367">
         <v>2020</v>
       </c>
       <c r="H367">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I367">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="368" spans="1:9">
@@ -11706,19 +11706,19 @@
         <v>159500</v>
       </c>
       <c r="E368" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F368" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G368">
         <v>2020</v>
       </c>
       <c r="H368">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I368">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -11735,19 +11735,19 @@
         <v>111300</v>
       </c>
       <c r="E369" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F369" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G369">
         <v>2020</v>
       </c>
       <c r="H369">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I369">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -11764,19 +11764,19 @@
         <v>3172200</v>
       </c>
       <c r="E370" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F370" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G370">
         <v>2020</v>
       </c>
       <c r="H370">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I370">
-        <v>1107</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -11793,19 +11793,19 @@
         <v>392600</v>
       </c>
       <c r="E371" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F371" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G371">
         <v>2020</v>
       </c>
       <c r="H371">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I371">
-        <v>166</v>
+        <v>116</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -11822,19 +11822,19 @@
         <v>450700</v>
       </c>
       <c r="E372" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F372" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G372">
         <v>2020</v>
       </c>
       <c r="H372">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I372">
-        <v>173</v>
+        <v>204</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -11851,19 +11851,19 @@
         <v>225500</v>
       </c>
       <c r="E373" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F373" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G373">
         <v>2020</v>
       </c>
       <c r="H373">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I373">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -11880,19 +11880,19 @@
         <v>584100</v>
       </c>
       <c r="E374" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F374" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G374">
         <v>2020</v>
       </c>
       <c r="H374">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I374">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -11909,19 +11909,19 @@
         <v>117900</v>
       </c>
       <c r="E375" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F375" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G375">
         <v>2020</v>
       </c>
       <c r="H375">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I375">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -11938,19 +11938,19 @@
         <v>17226800</v>
       </c>
       <c r="E376" s="1">
-        <v>43891</v>
+        <v>43831</v>
       </c>
       <c r="F376" s="1">
-        <v>43921</v>
+        <v>43861</v>
       </c>
       <c r="G376">
         <v>2020</v>
       </c>
       <c r="H376">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I376">
-        <v>9470</v>
+        <v>6686</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -11967,19 +11967,19 @@
         <v>867200</v>
       </c>
       <c r="E377" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F377" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G377">
         <v>2020</v>
       </c>
       <c r="H377">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I377">
-        <v>345</v>
+        <v>320</v>
       </c>
     </row>
     <row r="378" spans="1:9">
@@ -11996,19 +11996,19 @@
         <v>208400</v>
       </c>
       <c r="E378" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F378" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G378">
         <v>2020</v>
       </c>
       <c r="H378">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I378">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="379" spans="1:9">
@@ -12025,19 +12025,19 @@
         <v>276800</v>
       </c>
       <c r="E379" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F379" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G379">
         <v>2020</v>
       </c>
       <c r="H379">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I379">
-        <v>153</v>
+        <v>75</v>
       </c>
     </row>
     <row r="380" spans="1:9">
@@ -12054,19 +12054,19 @@
         <v>185500</v>
       </c>
       <c r="E380" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F380" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G380">
         <v>2020</v>
       </c>
       <c r="H380">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I380">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -12083,19 +12083,19 @@
         <v>519800</v>
       </c>
       <c r="E381" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F381" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G381">
         <v>2020</v>
       </c>
       <c r="H381">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I381">
-        <v>316</v>
+        <v>187</v>
       </c>
     </row>
     <row r="382" spans="1:9">
@@ -12112,19 +12112,19 @@
         <v>482600</v>
       </c>
       <c r="E382" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F382" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G382">
         <v>2020</v>
       </c>
       <c r="H382">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I382">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="383" spans="1:9">
@@ -12141,19 +12141,19 @@
         <v>707200</v>
       </c>
       <c r="E383" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F383" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G383">
         <v>2020</v>
       </c>
       <c r="H383">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I383">
-        <v>654</v>
+        <v>225</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -12170,19 +12170,19 @@
         <v>635200</v>
       </c>
       <c r="E384" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F384" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G384">
         <v>2020</v>
       </c>
       <c r="H384">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I384">
-        <v>183</v>
+        <v>149</v>
       </c>
     </row>
     <row r="385" spans="1:9">
@@ -12199,19 +12199,19 @@
         <v>32300</v>
       </c>
       <c r="E385" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F385" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G385">
         <v>2020</v>
       </c>
       <c r="H385">
+        <v>2</v>
+      </c>
+      <c r="I385">
         <v>4</v>
-      </c>
-      <c r="I385">
-        <v>3</v>
       </c>
     </row>
     <row r="386" spans="1:9">
@@ -12228,19 +12228,19 @@
         <v>4327800</v>
       </c>
       <c r="E386" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F386" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G386">
         <v>2020</v>
       </c>
       <c r="H386">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I386">
-        <v>12004</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="387" spans="1:9">
@@ -12257,19 +12257,19 @@
         <v>470100</v>
       </c>
       <c r="E387" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F387" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G387">
         <v>2020</v>
       </c>
       <c r="H387">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I387">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="388" spans="1:9">
@@ -12286,19 +12286,19 @@
         <v>516200</v>
       </c>
       <c r="E388" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F388" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G388">
         <v>2020</v>
       </c>
       <c r="H388">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I388">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="389" spans="1:9">
@@ -12315,19 +12315,19 @@
         <v>910800</v>
       </c>
       <c r="E389" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F389" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G389">
         <v>2020</v>
       </c>
       <c r="H389">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I389">
-        <v>771</v>
+        <v>286</v>
       </c>
     </row>
     <row r="390" spans="1:9">
@@ -12344,19 +12344,19 @@
         <v>1549800</v>
       </c>
       <c r="E390" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F390" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G390">
         <v>2020</v>
       </c>
       <c r="H390">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I390">
-        <v>1574</v>
+        <v>534</v>
       </c>
     </row>
     <row r="391" spans="1:9">
@@ -12373,19 +12373,19 @@
         <v>192300</v>
       </c>
       <c r="E391" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F391" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G391">
         <v>2020</v>
       </c>
       <c r="H391">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I391">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="392" spans="1:9">
@@ -12402,19 +12402,19 @@
         <v>131000</v>
       </c>
       <c r="E392" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F392" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G392">
         <v>2020</v>
       </c>
       <c r="H392">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I392">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="393" spans="1:9">
@@ -12431,19 +12431,19 @@
         <v>159500</v>
       </c>
       <c r="E393" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F393" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G393">
         <v>2020</v>
       </c>
       <c r="H393">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I393">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="394" spans="1:9">
@@ -12460,19 +12460,19 @@
         <v>111300</v>
       </c>
       <c r="E394" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F394" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G394">
         <v>2020</v>
       </c>
       <c r="H394">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I394">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="395" spans="1:9">
@@ -12489,19 +12489,19 @@
         <v>3172200</v>
       </c>
       <c r="E395" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F395" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G395">
         <v>2020</v>
       </c>
       <c r="H395">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I395">
-        <v>1281</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="396" spans="1:9">
@@ -12518,19 +12518,19 @@
         <v>392600</v>
       </c>
       <c r="E396" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F396" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G396">
         <v>2020</v>
       </c>
       <c r="H396">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I396">
-        <v>1056</v>
+        <v>114</v>
       </c>
     </row>
     <row r="397" spans="1:9">
@@ -12547,19 +12547,19 @@
         <v>450700</v>
       </c>
       <c r="E397" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F397" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G397">
         <v>2020</v>
       </c>
       <c r="H397">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I397">
-        <v>246</v>
+        <v>202</v>
       </c>
     </row>
     <row r="398" spans="1:9">
@@ -12576,19 +12576,19 @@
         <v>225500</v>
       </c>
       <c r="E398" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F398" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G398">
         <v>2020</v>
       </c>
       <c r="H398">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I398">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="399" spans="1:9">
@@ -12605,19 +12605,19 @@
         <v>584100</v>
       </c>
       <c r="E399" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F399" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G399">
         <v>2020</v>
       </c>
       <c r="H399">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I399">
-        <v>275</v>
+        <v>235</v>
       </c>
     </row>
     <row r="400" spans="1:9">
@@ -12634,19 +12634,19 @@
         <v>117900</v>
       </c>
       <c r="E400" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F400" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G400">
         <v>2020</v>
       </c>
       <c r="H400">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I400">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="401" spans="1:9">
@@ -12663,19 +12663,19 @@
         <v>17226800</v>
       </c>
       <c r="E401" s="1">
-        <v>43922</v>
+        <v>43862</v>
       </c>
       <c r="F401" s="1">
-        <v>43951</v>
+        <v>43890</v>
       </c>
       <c r="G401">
         <v>2020</v>
       </c>
       <c r="H401">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I401">
-        <v>19709</v>
+        <v>6014</v>
       </c>
     </row>
     <row r="402" spans="1:9">
@@ -12692,19 +12692,19 @@
         <v>867200</v>
       </c>
       <c r="E402" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F402" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G402">
         <v>2020</v>
       </c>
       <c r="H402">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I402">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="403" spans="1:9">
@@ -12721,19 +12721,19 @@
         <v>208400</v>
       </c>
       <c r="E403" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F403" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G403">
         <v>2020</v>
       </c>
       <c r="H403">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I403">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="404" spans="1:9">
@@ -12750,19 +12750,19 @@
         <v>276800</v>
       </c>
       <c r="E404" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F404" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G404">
         <v>2020</v>
       </c>
       <c r="H404">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I404">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="405" spans="1:9">
@@ -12779,19 +12779,19 @@
         <v>185500</v>
       </c>
       <c r="E405" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F405" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G405">
         <v>2020</v>
       </c>
       <c r="H405">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I405">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="406" spans="1:9">
@@ -12808,19 +12808,19 @@
         <v>519800</v>
       </c>
       <c r="E406" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F406" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G406">
         <v>2020</v>
       </c>
       <c r="H406">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I406">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
     <row r="407" spans="1:9">
@@ -12837,19 +12837,19 @@
         <v>482600</v>
       </c>
       <c r="E407" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F407" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G407">
         <v>2020</v>
       </c>
       <c r="H407">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I407">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="408" spans="1:9">
@@ -12866,19 +12866,19 @@
         <v>707200</v>
       </c>
       <c r="E408" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F408" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G408">
         <v>2020</v>
       </c>
       <c r="H408">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I408">
-        <v>679</v>
+        <v>295</v>
       </c>
     </row>
     <row r="409" spans="1:9">
@@ -12895,19 +12895,19 @@
         <v>635200</v>
       </c>
       <c r="E409" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F409" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G409">
         <v>2020</v>
       </c>
       <c r="H409">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I409">
-        <v>275</v>
+        <v>105</v>
       </c>
     </row>
     <row r="410" spans="1:9">
@@ -12924,19 +12924,19 @@
         <v>32300</v>
       </c>
       <c r="E410" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F410" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G410">
         <v>2020</v>
       </c>
       <c r="H410">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I410">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="411" spans="1:9">
@@ -12953,19 +12953,19 @@
         <v>4327800</v>
       </c>
       <c r="E411" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F411" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G411">
         <v>2020</v>
       </c>
       <c r="H411">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I411">
-        <v>2543</v>
+        <v>5303</v>
       </c>
     </row>
     <row r="412" spans="1:9">
@@ -12982,19 +12982,19 @@
         <v>470100</v>
       </c>
       <c r="E412" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F412" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G412">
         <v>2020</v>
       </c>
       <c r="H412">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I412">
-        <v>166</v>
+        <v>136</v>
       </c>
     </row>
     <row r="413" spans="1:9">
@@ -13011,19 +13011,19 @@
         <v>516200</v>
       </c>
       <c r="E413" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F413" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G413">
         <v>2020</v>
       </c>
       <c r="H413">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I413">
-        <v>206</v>
+        <v>169</v>
       </c>
     </row>
     <row r="414" spans="1:9">
@@ -13040,19 +13040,19 @@
         <v>910800</v>
       </c>
       <c r="E414" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F414" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G414">
         <v>2020</v>
       </c>
       <c r="H414">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I414">
-        <v>531</v>
+        <v>336</v>
       </c>
     </row>
     <row r="415" spans="1:9">
@@ -13069,19 +13069,19 @@
         <v>1549800</v>
       </c>
       <c r="E415" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F415" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G415">
         <v>2020</v>
       </c>
       <c r="H415">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I415">
-        <v>1183</v>
+        <v>573</v>
       </c>
     </row>
     <row r="416" spans="1:9">
@@ -13098,19 +13098,19 @@
         <v>192300</v>
       </c>
       <c r="E416" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F416" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G416">
         <v>2020</v>
       </c>
       <c r="H416">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I416">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="417" spans="1:9">
@@ -13127,19 +13127,19 @@
         <v>131000</v>
       </c>
       <c r="E417" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F417" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G417">
         <v>2020</v>
       </c>
       <c r="H417">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I417">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -13156,19 +13156,19 @@
         <v>159500</v>
       </c>
       <c r="E418" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F418" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G418">
         <v>2020</v>
       </c>
       <c r="H418">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I418">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="419" spans="1:9">
@@ -13185,19 +13185,19 @@
         <v>111300</v>
       </c>
       <c r="E419" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F419" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G419">
         <v>2020</v>
       </c>
       <c r="H419">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I419">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="420" spans="1:9">
@@ -13214,19 +13214,19 @@
         <v>3172200</v>
       </c>
       <c r="E420" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F420" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G420">
         <v>2020</v>
       </c>
       <c r="H420">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I420">
-        <v>1577</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="421" spans="1:9">
@@ -13243,19 +13243,19 @@
         <v>392600</v>
       </c>
       <c r="E421" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F421" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G421">
         <v>2020</v>
       </c>
       <c r="H421">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I421">
-        <v>360</v>
+        <v>169</v>
       </c>
     </row>
     <row r="422" spans="1:9">
@@ -13272,19 +13272,19 @@
         <v>450700</v>
       </c>
       <c r="E422" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F422" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G422">
         <v>2020</v>
       </c>
       <c r="H422">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I422">
-        <v>287</v>
+        <v>178</v>
       </c>
     </row>
     <row r="423" spans="1:9">
@@ -13301,19 +13301,19 @@
         <v>225500</v>
       </c>
       <c r="E423" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F423" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G423">
         <v>2020</v>
       </c>
       <c r="H423">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I423">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="424" spans="1:9">
@@ -13330,19 +13330,19 @@
         <v>584100</v>
       </c>
       <c r="E424" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F424" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G424">
         <v>2020</v>
       </c>
       <c r="H424">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I424">
-        <v>372</v>
+        <v>223</v>
       </c>
     </row>
     <row r="425" spans="1:9">
@@ -13359,19 +13359,19 @@
         <v>117900</v>
       </c>
       <c r="E425" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F425" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G425">
         <v>2020</v>
       </c>
       <c r="H425">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I425">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="426" spans="1:9">
@@ -13388,19 +13388,19 @@
         <v>17226800</v>
       </c>
       <c r="E426" s="1">
-        <v>43952</v>
+        <v>43891</v>
       </c>
       <c r="F426" s="1">
-        <v>43982</v>
+        <v>43921</v>
       </c>
       <c r="G426">
         <v>2020</v>
       </c>
       <c r="H426">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I426">
-        <v>9475</v>
+        <v>9691</v>
       </c>
     </row>
     <row r="427" spans="1:9">
@@ -13417,19 +13417,19 @@
         <v>867200</v>
       </c>
       <c r="E427" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F427" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G427">
         <v>2020</v>
       </c>
       <c r="H427">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I427">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="428" spans="1:9">
@@ -13446,19 +13446,19 @@
         <v>208400</v>
       </c>
       <c r="E428" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F428" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G428">
         <v>2020</v>
       </c>
       <c r="H428">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I428">
-        <v>89</v>
+        <v>116</v>
       </c>
     </row>
     <row r="429" spans="1:9">
@@ -13475,19 +13475,19 @@
         <v>276800</v>
       </c>
       <c r="E429" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F429" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G429">
         <v>2020</v>
       </c>
       <c r="H429">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I429">
-        <v>88</v>
+        <v>165</v>
       </c>
     </row>
     <row r="430" spans="1:9">
@@ -13504,19 +13504,19 @@
         <v>185500</v>
       </c>
       <c r="E430" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F430" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G430">
         <v>2020</v>
       </c>
       <c r="H430">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I430">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="431" spans="1:9">
@@ -13533,19 +13533,19 @@
         <v>519800</v>
       </c>
       <c r="E431" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F431" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G431">
         <v>2020</v>
       </c>
       <c r="H431">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I431">
-        <v>262</v>
+        <v>340</v>
       </c>
     </row>
     <row r="432" spans="1:9">
@@ -13562,19 +13562,19 @@
         <v>482600</v>
       </c>
       <c r="E432" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F432" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G432">
         <v>2020</v>
       </c>
       <c r="H432">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I432">
-        <v>262</v>
+        <v>173</v>
       </c>
     </row>
     <row r="433" spans="1:9">
@@ -13591,19 +13591,19 @@
         <v>707200</v>
       </c>
       <c r="E433" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F433" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G433">
         <v>2020</v>
       </c>
       <c r="H433">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I433">
-        <v>425</v>
+        <v>680</v>
       </c>
     </row>
     <row r="434" spans="1:9">
@@ -13620,19 +13620,19 @@
         <v>635200</v>
       </c>
       <c r="E434" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F434" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G434">
         <v>2020</v>
       </c>
       <c r="H434">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I434">
-        <v>212</v>
+        <v>191</v>
       </c>
     </row>
     <row r="435" spans="1:9">
@@ -13649,19 +13649,19 @@
         <v>32300</v>
       </c>
       <c r="E435" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F435" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G435">
         <v>2020</v>
       </c>
       <c r="H435">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I435">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="436" spans="1:9">
@@ -13678,19 +13678,19 @@
         <v>4327800</v>
       </c>
       <c r="E436" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F436" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G436">
         <v>2020</v>
       </c>
       <c r="H436">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I436">
-        <v>1748</v>
+        <v>12242</v>
       </c>
     </row>
     <row r="437" spans="1:9">
@@ -13707,19 +13707,19 @@
         <v>470100</v>
       </c>
       <c r="E437" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F437" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G437">
         <v>2020</v>
       </c>
       <c r="H437">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I437">
-        <v>205</v>
+        <v>168</v>
       </c>
     </row>
     <row r="438" spans="1:9">
@@ -13736,19 +13736,19 @@
         <v>516200</v>
       </c>
       <c r="E438" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F438" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G438">
         <v>2020</v>
       </c>
       <c r="H438">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I438">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="439" spans="1:9">
@@ -13765,19 +13765,19 @@
         <v>910800</v>
       </c>
       <c r="E439" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F439" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G439">
         <v>2020</v>
       </c>
       <c r="H439">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I439">
-        <v>384</v>
+        <v>823</v>
       </c>
     </row>
     <row r="440" spans="1:9">
@@ -13794,19 +13794,19 @@
         <v>1549800</v>
       </c>
       <c r="E440" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F440" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G440">
         <v>2020</v>
       </c>
       <c r="H440">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I440">
-        <v>647</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="441" spans="1:9">
@@ -13823,19 +13823,19 @@
         <v>192300</v>
       </c>
       <c r="E441" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F441" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G441">
         <v>2020</v>
       </c>
       <c r="H441">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I441">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="442" spans="1:9">
@@ -13852,19 +13852,19 @@
         <v>131000</v>
       </c>
       <c r="E442" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F442" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G442">
         <v>2020</v>
       </c>
       <c r="H442">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I442">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="443" spans="1:9">
@@ -13881,19 +13881,19 @@
         <v>159500</v>
       </c>
       <c r="E443" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F443" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G443">
         <v>2020</v>
       </c>
       <c r="H443">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I443">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="444" spans="1:9">
@@ -13910,19 +13910,19 @@
         <v>111300</v>
       </c>
       <c r="E444" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F444" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G444">
         <v>2020</v>
       </c>
       <c r="H444">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I444">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="445" spans="1:9">
@@ -13939,19 +13939,19 @@
         <v>3172200</v>
       </c>
       <c r="E445" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F445" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G445">
         <v>2020</v>
       </c>
       <c r="H445">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I445">
-        <v>1803</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="446" spans="1:9">
@@ -13968,19 +13968,19 @@
         <v>392600</v>
       </c>
       <c r="E446" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F446" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G446">
         <v>2020</v>
       </c>
       <c r="H446">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I446">
-        <v>121</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="447" spans="1:9">
@@ -13997,19 +13997,19 @@
         <v>450700</v>
       </c>
       <c r="E447" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F447" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G447">
         <v>2020</v>
       </c>
       <c r="H447">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I447">
-        <v>360</v>
+        <v>247</v>
       </c>
     </row>
     <row r="448" spans="1:9">
@@ -14026,19 +14026,19 @@
         <v>225500</v>
       </c>
       <c r="E448" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F448" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G448">
         <v>2020</v>
       </c>
       <c r="H448">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I448">
-        <v>92</v>
+        <v>55</v>
       </c>
     </row>
     <row r="449" spans="1:9">
@@ -14055,19 +14055,19 @@
         <v>584100</v>
       </c>
       <c r="E449" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F449" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G449">
         <v>2020</v>
       </c>
       <c r="H449">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I449">
-        <v>473</v>
+        <v>281</v>
       </c>
     </row>
     <row r="450" spans="1:9">
@@ -14084,19 +14084,19 @@
         <v>117900</v>
       </c>
       <c r="E450" s="1">
-        <v>43983</v>
+        <v>43922</v>
       </c>
       <c r="F450" s="1">
-        <v>44012</v>
+        <v>43951</v>
       </c>
       <c r="G450">
         <v>2020</v>
       </c>
       <c r="H450">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I450">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="451" spans="1:9">
@@ -14113,19 +14113,2194 @@
         <v>17226800</v>
       </c>
       <c r="E451" s="1">
+        <v>43922</v>
+      </c>
+      <c r="F451" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G451">
+        <v>2020</v>
+      </c>
+      <c r="H451">
+        <v>4</v>
+      </c>
+      <c r="I451">
+        <v>20248</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9">
+      <c r="A452" t="s">
+        <v>9</v>
+      </c>
+      <c r="B452" t="s">
+        <v>10</v>
+      </c>
+      <c r="C452" t="s">
+        <v>11</v>
+      </c>
+      <c r="D452">
+        <v>867200</v>
+      </c>
+      <c r="E452" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F452" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G452">
+        <v>2020</v>
+      </c>
+      <c r="H452">
+        <v>5</v>
+      </c>
+      <c r="I452">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9">
+      <c r="A453" t="s">
+        <v>9</v>
+      </c>
+      <c r="B453" t="s">
+        <v>12</v>
+      </c>
+      <c r="C453" t="s">
+        <v>13</v>
+      </c>
+      <c r="D453">
+        <v>208400</v>
+      </c>
+      <c r="E453" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F453" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G453">
+        <v>2020</v>
+      </c>
+      <c r="H453">
+        <v>5</v>
+      </c>
+      <c r="I453">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9">
+      <c r="A454" t="s">
+        <v>9</v>
+      </c>
+      <c r="B454" t="s">
+        <v>14</v>
+      </c>
+      <c r="C454" t="s">
+        <v>15</v>
+      </c>
+      <c r="D454">
+        <v>276800</v>
+      </c>
+      <c r="E454" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F454" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G454">
+        <v>2020</v>
+      </c>
+      <c r="H454">
+        <v>5</v>
+      </c>
+      <c r="I454">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9">
+      <c r="A455" t="s">
+        <v>9</v>
+      </c>
+      <c r="B455" t="s">
+        <v>16</v>
+      </c>
+      <c r="C455" t="s">
+        <v>17</v>
+      </c>
+      <c r="D455">
+        <v>185500</v>
+      </c>
+      <c r="E455" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F455" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G455">
+        <v>2020</v>
+      </c>
+      <c r="H455">
+        <v>5</v>
+      </c>
+      <c r="I455">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9">
+      <c r="A456" t="s">
+        <v>9</v>
+      </c>
+      <c r="B456" t="s">
+        <v>18</v>
+      </c>
+      <c r="C456" t="s">
+        <v>19</v>
+      </c>
+      <c r="D456">
+        <v>519800</v>
+      </c>
+      <c r="E456" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F456" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G456">
+        <v>2020</v>
+      </c>
+      <c r="H456">
+        <v>5</v>
+      </c>
+      <c r="I456">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9">
+      <c r="A457" t="s">
+        <v>9</v>
+      </c>
+      <c r="B457" t="s">
+        <v>20</v>
+      </c>
+      <c r="C457" t="s">
+        <v>21</v>
+      </c>
+      <c r="D457">
+        <v>482600</v>
+      </c>
+      <c r="E457" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F457" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G457">
+        <v>2020</v>
+      </c>
+      <c r="H457">
+        <v>5</v>
+      </c>
+      <c r="I457">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9">
+      <c r="A458" t="s">
+        <v>9</v>
+      </c>
+      <c r="B458" t="s">
+        <v>22</v>
+      </c>
+      <c r="C458" t="s">
+        <v>23</v>
+      </c>
+      <c r="D458">
+        <v>707200</v>
+      </c>
+      <c r="E458" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F458" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G458">
+        <v>2020</v>
+      </c>
+      <c r="H458">
+        <v>5</v>
+      </c>
+      <c r="I458">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9">
+      <c r="A459" t="s">
+        <v>9</v>
+      </c>
+      <c r="B459" t="s">
+        <v>24</v>
+      </c>
+      <c r="C459" t="s">
+        <v>25</v>
+      </c>
+      <c r="D459">
+        <v>635200</v>
+      </c>
+      <c r="E459" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F459" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G459">
+        <v>2020</v>
+      </c>
+      <c r="H459">
+        <v>5</v>
+      </c>
+      <c r="I459">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9">
+      <c r="A460" t="s">
+        <v>9</v>
+      </c>
+      <c r="B460" t="s">
+        <v>26</v>
+      </c>
+      <c r="C460" t="s">
+        <v>27</v>
+      </c>
+      <c r="D460">
+        <v>32300</v>
+      </c>
+      <c r="E460" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F460" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G460">
+        <v>2020</v>
+      </c>
+      <c r="H460">
+        <v>5</v>
+      </c>
+      <c r="I460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9">
+      <c r="A461" t="s">
+        <v>9</v>
+      </c>
+      <c r="B461" t="s">
+        <v>28</v>
+      </c>
+      <c r="C461" t="s">
+        <v>29</v>
+      </c>
+      <c r="D461">
+        <v>4327800</v>
+      </c>
+      <c r="E461" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F461" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G461">
+        <v>2020</v>
+      </c>
+      <c r="H461">
+        <v>5</v>
+      </c>
+      <c r="I461">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9">
+      <c r="A462" t="s">
+        <v>9</v>
+      </c>
+      <c r="B462" t="s">
+        <v>30</v>
+      </c>
+      <c r="C462" t="s">
+        <v>31</v>
+      </c>
+      <c r="D462">
+        <v>470100</v>
+      </c>
+      <c r="E462" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F462" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G462">
+        <v>2020</v>
+      </c>
+      <c r="H462">
+        <v>5</v>
+      </c>
+      <c r="I462">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9">
+      <c r="A463" t="s">
+        <v>9</v>
+      </c>
+      <c r="B463" t="s">
+        <v>32</v>
+      </c>
+      <c r="C463" t="s">
+        <v>33</v>
+      </c>
+      <c r="D463">
+        <v>516200</v>
+      </c>
+      <c r="E463" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F463" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G463">
+        <v>2020</v>
+      </c>
+      <c r="H463">
+        <v>5</v>
+      </c>
+      <c r="I463">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9">
+      <c r="A464" t="s">
+        <v>9</v>
+      </c>
+      <c r="B464" t="s">
+        <v>34</v>
+      </c>
+      <c r="C464" t="s">
+        <v>35</v>
+      </c>
+      <c r="D464">
+        <v>910800</v>
+      </c>
+      <c r="E464" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F464" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G464">
+        <v>2020</v>
+      </c>
+      <c r="H464">
+        <v>5</v>
+      </c>
+      <c r="I464">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9">
+      <c r="A465" t="s">
+        <v>9</v>
+      </c>
+      <c r="B465" t="s">
+        <v>36</v>
+      </c>
+      <c r="C465" t="s">
+        <v>37</v>
+      </c>
+      <c r="D465">
+        <v>1549800</v>
+      </c>
+      <c r="E465" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F465" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G465">
+        <v>2020</v>
+      </c>
+      <c r="H465">
+        <v>5</v>
+      </c>
+      <c r="I465">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9">
+      <c r="A466" t="s">
+        <v>9</v>
+      </c>
+      <c r="B466" t="s">
+        <v>38</v>
+      </c>
+      <c r="C466" t="s">
+        <v>39</v>
+      </c>
+      <c r="D466">
+        <v>192300</v>
+      </c>
+      <c r="E466" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F466" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G466">
+        <v>2020</v>
+      </c>
+      <c r="H466">
+        <v>5</v>
+      </c>
+      <c r="I466">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9">
+      <c r="A467" t="s">
+        <v>9</v>
+      </c>
+      <c r="B467" t="s">
+        <v>40</v>
+      </c>
+      <c r="C467" t="s">
+        <v>41</v>
+      </c>
+      <c r="D467">
+        <v>131000</v>
+      </c>
+      <c r="E467" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F467" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G467">
+        <v>2020</v>
+      </c>
+      <c r="H467">
+        <v>5</v>
+      </c>
+      <c r="I467">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9">
+      <c r="A468" t="s">
+        <v>9</v>
+      </c>
+      <c r="B468" t="s">
+        <v>42</v>
+      </c>
+      <c r="C468" t="s">
+        <v>43</v>
+      </c>
+      <c r="D468">
+        <v>159500</v>
+      </c>
+      <c r="E468" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F468" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G468">
+        <v>2020</v>
+      </c>
+      <c r="H468">
+        <v>5</v>
+      </c>
+      <c r="I468">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9">
+      <c r="A469" t="s">
+        <v>9</v>
+      </c>
+      <c r="B469" t="s">
+        <v>44</v>
+      </c>
+      <c r="C469" t="s">
+        <v>45</v>
+      </c>
+      <c r="D469">
+        <v>111300</v>
+      </c>
+      <c r="E469" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F469" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G469">
+        <v>2020</v>
+      </c>
+      <c r="H469">
+        <v>5</v>
+      </c>
+      <c r="I469">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9">
+      <c r="A470" t="s">
+        <v>9</v>
+      </c>
+      <c r="B470" t="s">
+        <v>46</v>
+      </c>
+      <c r="C470" t="s">
+        <v>47</v>
+      </c>
+      <c r="D470">
+        <v>3172200</v>
+      </c>
+      <c r="E470" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F470" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G470">
+        <v>2020</v>
+      </c>
+      <c r="H470">
+        <v>5</v>
+      </c>
+      <c r="I470">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9">
+      <c r="A471" t="s">
+        <v>9</v>
+      </c>
+      <c r="B471" t="s">
+        <v>48</v>
+      </c>
+      <c r="C471" t="s">
+        <v>49</v>
+      </c>
+      <c r="D471">
+        <v>392600</v>
+      </c>
+      <c r="E471" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F471" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G471">
+        <v>2020</v>
+      </c>
+      <c r="H471">
+        <v>5</v>
+      </c>
+      <c r="I471">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9">
+      <c r="A472" t="s">
+        <v>9</v>
+      </c>
+      <c r="B472" t="s">
+        <v>50</v>
+      </c>
+      <c r="C472" t="s">
+        <v>51</v>
+      </c>
+      <c r="D472">
+        <v>450700</v>
+      </c>
+      <c r="E472" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F472" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G472">
+        <v>2020</v>
+      </c>
+      <c r="H472">
+        <v>5</v>
+      </c>
+      <c r="I472">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9">
+      <c r="A473" t="s">
+        <v>9</v>
+      </c>
+      <c r="B473" t="s">
+        <v>52</v>
+      </c>
+      <c r="C473" t="s">
+        <v>53</v>
+      </c>
+      <c r="D473">
+        <v>225500</v>
+      </c>
+      <c r="E473" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F473" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G473">
+        <v>2020</v>
+      </c>
+      <c r="H473">
+        <v>5</v>
+      </c>
+      <c r="I473">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9">
+      <c r="A474" t="s">
+        <v>9</v>
+      </c>
+      <c r="B474" t="s">
+        <v>54</v>
+      </c>
+      <c r="C474" t="s">
+        <v>55</v>
+      </c>
+      <c r="D474">
+        <v>584100</v>
+      </c>
+      <c r="E474" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F474" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G474">
+        <v>2020</v>
+      </c>
+      <c r="H474">
+        <v>5</v>
+      </c>
+      <c r="I474">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9">
+      <c r="A475" t="s">
+        <v>9</v>
+      </c>
+      <c r="B475" t="s">
+        <v>56</v>
+      </c>
+      <c r="C475" t="s">
+        <v>57</v>
+      </c>
+      <c r="D475">
+        <v>117900</v>
+      </c>
+      <c r="E475" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F475" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G475">
+        <v>2020</v>
+      </c>
+      <c r="H475">
+        <v>5</v>
+      </c>
+      <c r="I475">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9">
+      <c r="A476" t="s">
+        <v>9</v>
+      </c>
+      <c r="B476" t="s">
+        <v>9</v>
+      </c>
+      <c r="C476" t="s">
+        <v>58</v>
+      </c>
+      <c r="D476">
+        <v>17226800</v>
+      </c>
+      <c r="E476" s="1">
+        <v>43952</v>
+      </c>
+      <c r="F476" s="1">
+        <v>43982</v>
+      </c>
+      <c r="G476">
+        <v>2020</v>
+      </c>
+      <c r="H476">
+        <v>5</v>
+      </c>
+      <c r="I476">
+        <v>9746</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9">
+      <c r="A477" t="s">
+        <v>9</v>
+      </c>
+      <c r="B477" t="s">
+        <v>10</v>
+      </c>
+      <c r="C477" t="s">
+        <v>11</v>
+      </c>
+      <c r="D477">
+        <v>867200</v>
+      </c>
+      <c r="E477" s="1">
         <v>43983</v>
       </c>
-      <c r="F451" s="1">
+      <c r="F477" s="1">
         <v>44012</v>
       </c>
-      <c r="G451">
-        <v>2020</v>
-      </c>
-      <c r="H451">
+      <c r="G477">
+        <v>2020</v>
+      </c>
+      <c r="H477">
         <v>6</v>
       </c>
-      <c r="I451">
-        <v>8034</v>
+      <c r="I477">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9">
+      <c r="A478" t="s">
+        <v>9</v>
+      </c>
+      <c r="B478" t="s">
+        <v>12</v>
+      </c>
+      <c r="C478" t="s">
+        <v>13</v>
+      </c>
+      <c r="D478">
+        <v>208400</v>
+      </c>
+      <c r="E478" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F478" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G478">
+        <v>2020</v>
+      </c>
+      <c r="H478">
+        <v>6</v>
+      </c>
+      <c r="I478">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9">
+      <c r="A479" t="s">
+        <v>9</v>
+      </c>
+      <c r="B479" t="s">
+        <v>14</v>
+      </c>
+      <c r="C479" t="s">
+        <v>15</v>
+      </c>
+      <c r="D479">
+        <v>276800</v>
+      </c>
+      <c r="E479" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F479" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G479">
+        <v>2020</v>
+      </c>
+      <c r="H479">
+        <v>6</v>
+      </c>
+      <c r="I479">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9">
+      <c r="A480" t="s">
+        <v>9</v>
+      </c>
+      <c r="B480" t="s">
+        <v>16</v>
+      </c>
+      <c r="C480" t="s">
+        <v>17</v>
+      </c>
+      <c r="D480">
+        <v>185500</v>
+      </c>
+      <c r="E480" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F480" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G480">
+        <v>2020</v>
+      </c>
+      <c r="H480">
+        <v>6</v>
+      </c>
+      <c r="I480">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9">
+      <c r="A481" t="s">
+        <v>9</v>
+      </c>
+      <c r="B481" t="s">
+        <v>18</v>
+      </c>
+      <c r="C481" t="s">
+        <v>19</v>
+      </c>
+      <c r="D481">
+        <v>519800</v>
+      </c>
+      <c r="E481" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F481" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G481">
+        <v>2020</v>
+      </c>
+      <c r="H481">
+        <v>6</v>
+      </c>
+      <c r="I481">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9">
+      <c r="A482" t="s">
+        <v>9</v>
+      </c>
+      <c r="B482" t="s">
+        <v>20</v>
+      </c>
+      <c r="C482" t="s">
+        <v>21</v>
+      </c>
+      <c r="D482">
+        <v>482600</v>
+      </c>
+      <c r="E482" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F482" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G482">
+        <v>2020</v>
+      </c>
+      <c r="H482">
+        <v>6</v>
+      </c>
+      <c r="I482">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9">
+      <c r="A483" t="s">
+        <v>9</v>
+      </c>
+      <c r="B483" t="s">
+        <v>22</v>
+      </c>
+      <c r="C483" t="s">
+        <v>23</v>
+      </c>
+      <c r="D483">
+        <v>707200</v>
+      </c>
+      <c r="E483" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F483" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G483">
+        <v>2020</v>
+      </c>
+      <c r="H483">
+        <v>6</v>
+      </c>
+      <c r="I483">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9">
+      <c r="A484" t="s">
+        <v>9</v>
+      </c>
+      <c r="B484" t="s">
+        <v>24</v>
+      </c>
+      <c r="C484" t="s">
+        <v>25</v>
+      </c>
+      <c r="D484">
+        <v>635200</v>
+      </c>
+      <c r="E484" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F484" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G484">
+        <v>2020</v>
+      </c>
+      <c r="H484">
+        <v>6</v>
+      </c>
+      <c r="I484">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9">
+      <c r="A485" t="s">
+        <v>9</v>
+      </c>
+      <c r="B485" t="s">
+        <v>26</v>
+      </c>
+      <c r="C485" t="s">
+        <v>27</v>
+      </c>
+      <c r="D485">
+        <v>32300</v>
+      </c>
+      <c r="E485" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F485" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G485">
+        <v>2020</v>
+      </c>
+      <c r="H485">
+        <v>6</v>
+      </c>
+      <c r="I485">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9">
+      <c r="A486" t="s">
+        <v>9</v>
+      </c>
+      <c r="B486" t="s">
+        <v>28</v>
+      </c>
+      <c r="C486" t="s">
+        <v>29</v>
+      </c>
+      <c r="D486">
+        <v>4327800</v>
+      </c>
+      <c r="E486" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F486" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G486">
+        <v>2020</v>
+      </c>
+      <c r="H486">
+        <v>6</v>
+      </c>
+      <c r="I486">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9">
+      <c r="A487" t="s">
+        <v>9</v>
+      </c>
+      <c r="B487" t="s">
+        <v>30</v>
+      </c>
+      <c r="C487" t="s">
+        <v>31</v>
+      </c>
+      <c r="D487">
+        <v>470100</v>
+      </c>
+      <c r="E487" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F487" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G487">
+        <v>2020</v>
+      </c>
+      <c r="H487">
+        <v>6</v>
+      </c>
+      <c r="I487">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9">
+      <c r="A488" t="s">
+        <v>9</v>
+      </c>
+      <c r="B488" t="s">
+        <v>32</v>
+      </c>
+      <c r="C488" t="s">
+        <v>33</v>
+      </c>
+      <c r="D488">
+        <v>516200</v>
+      </c>
+      <c r="E488" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F488" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G488">
+        <v>2020</v>
+      </c>
+      <c r="H488">
+        <v>6</v>
+      </c>
+      <c r="I488">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9">
+      <c r="A489" t="s">
+        <v>9</v>
+      </c>
+      <c r="B489" t="s">
+        <v>34</v>
+      </c>
+      <c r="C489" t="s">
+        <v>35</v>
+      </c>
+      <c r="D489">
+        <v>910800</v>
+      </c>
+      <c r="E489" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F489" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G489">
+        <v>2020</v>
+      </c>
+      <c r="H489">
+        <v>6</v>
+      </c>
+      <c r="I489">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9">
+      <c r="A490" t="s">
+        <v>9</v>
+      </c>
+      <c r="B490" t="s">
+        <v>36</v>
+      </c>
+      <c r="C490" t="s">
+        <v>37</v>
+      </c>
+      <c r="D490">
+        <v>1549800</v>
+      </c>
+      <c r="E490" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F490" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G490">
+        <v>2020</v>
+      </c>
+      <c r="H490">
+        <v>6</v>
+      </c>
+      <c r="I490">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9">
+      <c r="A491" t="s">
+        <v>9</v>
+      </c>
+      <c r="B491" t="s">
+        <v>38</v>
+      </c>
+      <c r="C491" t="s">
+        <v>39</v>
+      </c>
+      <c r="D491">
+        <v>192300</v>
+      </c>
+      <c r="E491" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F491" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G491">
+        <v>2020</v>
+      </c>
+      <c r="H491">
+        <v>6</v>
+      </c>
+      <c r="I491">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9">
+      <c r="A492" t="s">
+        <v>9</v>
+      </c>
+      <c r="B492" t="s">
+        <v>40</v>
+      </c>
+      <c r="C492" t="s">
+        <v>41</v>
+      </c>
+      <c r="D492">
+        <v>131000</v>
+      </c>
+      <c r="E492" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F492" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G492">
+        <v>2020</v>
+      </c>
+      <c r="H492">
+        <v>6</v>
+      </c>
+      <c r="I492">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9">
+      <c r="A493" t="s">
+        <v>9</v>
+      </c>
+      <c r="B493" t="s">
+        <v>42</v>
+      </c>
+      <c r="C493" t="s">
+        <v>43</v>
+      </c>
+      <c r="D493">
+        <v>159500</v>
+      </c>
+      <c r="E493" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F493" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G493">
+        <v>2020</v>
+      </c>
+      <c r="H493">
+        <v>6</v>
+      </c>
+      <c r="I493">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9">
+      <c r="A494" t="s">
+        <v>9</v>
+      </c>
+      <c r="B494" t="s">
+        <v>44</v>
+      </c>
+      <c r="C494" t="s">
+        <v>45</v>
+      </c>
+      <c r="D494">
+        <v>111300</v>
+      </c>
+      <c r="E494" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F494" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G494">
+        <v>2020</v>
+      </c>
+      <c r="H494">
+        <v>6</v>
+      </c>
+      <c r="I494">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9">
+      <c r="A495" t="s">
+        <v>9</v>
+      </c>
+      <c r="B495" t="s">
+        <v>46</v>
+      </c>
+      <c r="C495" t="s">
+        <v>47</v>
+      </c>
+      <c r="D495">
+        <v>3172200</v>
+      </c>
+      <c r="E495" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F495" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G495">
+        <v>2020</v>
+      </c>
+      <c r="H495">
+        <v>6</v>
+      </c>
+      <c r="I495">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9">
+      <c r="A496" t="s">
+        <v>9</v>
+      </c>
+      <c r="B496" t="s">
+        <v>48</v>
+      </c>
+      <c r="C496" t="s">
+        <v>49</v>
+      </c>
+      <c r="D496">
+        <v>392600</v>
+      </c>
+      <c r="E496" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F496" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G496">
+        <v>2020</v>
+      </c>
+      <c r="H496">
+        <v>6</v>
+      </c>
+      <c r="I496">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9">
+      <c r="A497" t="s">
+        <v>9</v>
+      </c>
+      <c r="B497" t="s">
+        <v>50</v>
+      </c>
+      <c r="C497" t="s">
+        <v>51</v>
+      </c>
+      <c r="D497">
+        <v>450700</v>
+      </c>
+      <c r="E497" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F497" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G497">
+        <v>2020</v>
+      </c>
+      <c r="H497">
+        <v>6</v>
+      </c>
+      <c r="I497">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9">
+      <c r="A498" t="s">
+        <v>9</v>
+      </c>
+      <c r="B498" t="s">
+        <v>52</v>
+      </c>
+      <c r="C498" t="s">
+        <v>53</v>
+      </c>
+      <c r="D498">
+        <v>225500</v>
+      </c>
+      <c r="E498" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F498" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G498">
+        <v>2020</v>
+      </c>
+      <c r="H498">
+        <v>6</v>
+      </c>
+      <c r="I498">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9">
+      <c r="A499" t="s">
+        <v>9</v>
+      </c>
+      <c r="B499" t="s">
+        <v>54</v>
+      </c>
+      <c r="C499" t="s">
+        <v>55</v>
+      </c>
+      <c r="D499">
+        <v>584100</v>
+      </c>
+      <c r="E499" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F499" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G499">
+        <v>2020</v>
+      </c>
+      <c r="H499">
+        <v>6</v>
+      </c>
+      <c r="I499">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9">
+      <c r="A500" t="s">
+        <v>9</v>
+      </c>
+      <c r="B500" t="s">
+        <v>56</v>
+      </c>
+      <c r="C500" t="s">
+        <v>57</v>
+      </c>
+      <c r="D500">
+        <v>117900</v>
+      </c>
+      <c r="E500" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F500" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G500">
+        <v>2020</v>
+      </c>
+      <c r="H500">
+        <v>6</v>
+      </c>
+      <c r="I500">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9">
+      <c r="A501" t="s">
+        <v>9</v>
+      </c>
+      <c r="B501" t="s">
+        <v>9</v>
+      </c>
+      <c r="C501" t="s">
+        <v>58</v>
+      </c>
+      <c r="D501">
+        <v>17226800</v>
+      </c>
+      <c r="E501" s="1">
+        <v>43983</v>
+      </c>
+      <c r="F501" s="1">
+        <v>44012</v>
+      </c>
+      <c r="G501">
+        <v>2020</v>
+      </c>
+      <c r="H501">
+        <v>6</v>
+      </c>
+      <c r="I501">
+        <v>8738</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9">
+      <c r="A502" t="s">
+        <v>9</v>
+      </c>
+      <c r="B502" t="s">
+        <v>10</v>
+      </c>
+      <c r="C502" t="s">
+        <v>11</v>
+      </c>
+      <c r="D502">
+        <v>867200</v>
+      </c>
+      <c r="E502" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F502" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G502">
+        <v>2020</v>
+      </c>
+      <c r="H502">
+        <v>7</v>
+      </c>
+      <c r="I502">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9">
+      <c r="A503" t="s">
+        <v>9</v>
+      </c>
+      <c r="B503" t="s">
+        <v>12</v>
+      </c>
+      <c r="C503" t="s">
+        <v>13</v>
+      </c>
+      <c r="D503">
+        <v>208400</v>
+      </c>
+      <c r="E503" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F503" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G503">
+        <v>2020</v>
+      </c>
+      <c r="H503">
+        <v>7</v>
+      </c>
+      <c r="I503">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9">
+      <c r="A504" t="s">
+        <v>9</v>
+      </c>
+      <c r="B504" t="s">
+        <v>14</v>
+      </c>
+      <c r="C504" t="s">
+        <v>15</v>
+      </c>
+      <c r="D504">
+        <v>276800</v>
+      </c>
+      <c r="E504" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F504" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G504">
+        <v>2020</v>
+      </c>
+      <c r="H504">
+        <v>7</v>
+      </c>
+      <c r="I504">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9">
+      <c r="A505" t="s">
+        <v>9</v>
+      </c>
+      <c r="B505" t="s">
+        <v>16</v>
+      </c>
+      <c r="C505" t="s">
+        <v>17</v>
+      </c>
+      <c r="D505">
+        <v>185500</v>
+      </c>
+      <c r="E505" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F505" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G505">
+        <v>2020</v>
+      </c>
+      <c r="H505">
+        <v>7</v>
+      </c>
+      <c r="I505">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9">
+      <c r="A506" t="s">
+        <v>9</v>
+      </c>
+      <c r="B506" t="s">
+        <v>18</v>
+      </c>
+      <c r="C506" t="s">
+        <v>19</v>
+      </c>
+      <c r="D506">
+        <v>519800</v>
+      </c>
+      <c r="E506" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F506" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G506">
+        <v>2020</v>
+      </c>
+      <c r="H506">
+        <v>7</v>
+      </c>
+      <c r="I506">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9">
+      <c r="A507" t="s">
+        <v>9</v>
+      </c>
+      <c r="B507" t="s">
+        <v>20</v>
+      </c>
+      <c r="C507" t="s">
+        <v>21</v>
+      </c>
+      <c r="D507">
+        <v>482600</v>
+      </c>
+      <c r="E507" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F507" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G507">
+        <v>2020</v>
+      </c>
+      <c r="H507">
+        <v>7</v>
+      </c>
+      <c r="I507">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9">
+      <c r="A508" t="s">
+        <v>9</v>
+      </c>
+      <c r="B508" t="s">
+        <v>22</v>
+      </c>
+      <c r="C508" t="s">
+        <v>23</v>
+      </c>
+      <c r="D508">
+        <v>707200</v>
+      </c>
+      <c r="E508" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F508" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G508">
+        <v>2020</v>
+      </c>
+      <c r="H508">
+        <v>7</v>
+      </c>
+      <c r="I508">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9">
+      <c r="A509" t="s">
+        <v>9</v>
+      </c>
+      <c r="B509" t="s">
+        <v>24</v>
+      </c>
+      <c r="C509" t="s">
+        <v>25</v>
+      </c>
+      <c r="D509">
+        <v>635200</v>
+      </c>
+      <c r="E509" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F509" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G509">
+        <v>2020</v>
+      </c>
+      <c r="H509">
+        <v>7</v>
+      </c>
+      <c r="I509">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9">
+      <c r="A510" t="s">
+        <v>9</v>
+      </c>
+      <c r="B510" t="s">
+        <v>26</v>
+      </c>
+      <c r="C510" t="s">
+        <v>27</v>
+      </c>
+      <c r="D510">
+        <v>32300</v>
+      </c>
+      <c r="E510" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F510" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G510">
+        <v>2020</v>
+      </c>
+      <c r="H510">
+        <v>7</v>
+      </c>
+      <c r="I510">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9">
+      <c r="A511" t="s">
+        <v>9</v>
+      </c>
+      <c r="B511" t="s">
+        <v>28</v>
+      </c>
+      <c r="C511" t="s">
+        <v>29</v>
+      </c>
+      <c r="D511">
+        <v>4327800</v>
+      </c>
+      <c r="E511" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F511" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G511">
+        <v>2020</v>
+      </c>
+      <c r="H511">
+        <v>7</v>
+      </c>
+      <c r="I511">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9">
+      <c r="A512" t="s">
+        <v>9</v>
+      </c>
+      <c r="B512" t="s">
+        <v>30</v>
+      </c>
+      <c r="C512" t="s">
+        <v>31</v>
+      </c>
+      <c r="D512">
+        <v>470100</v>
+      </c>
+      <c r="E512" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F512" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G512">
+        <v>2020</v>
+      </c>
+      <c r="H512">
+        <v>7</v>
+      </c>
+      <c r="I512">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9">
+      <c r="A513" t="s">
+        <v>9</v>
+      </c>
+      <c r="B513" t="s">
+        <v>32</v>
+      </c>
+      <c r="C513" t="s">
+        <v>33</v>
+      </c>
+      <c r="D513">
+        <v>516200</v>
+      </c>
+      <c r="E513" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F513" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G513">
+        <v>2020</v>
+      </c>
+      <c r="H513">
+        <v>7</v>
+      </c>
+      <c r="I513">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9">
+      <c r="A514" t="s">
+        <v>9</v>
+      </c>
+      <c r="B514" t="s">
+        <v>34</v>
+      </c>
+      <c r="C514" t="s">
+        <v>35</v>
+      </c>
+      <c r="D514">
+        <v>910800</v>
+      </c>
+      <c r="E514" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F514" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G514">
+        <v>2020</v>
+      </c>
+      <c r="H514">
+        <v>7</v>
+      </c>
+      <c r="I514">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9">
+      <c r="A515" t="s">
+        <v>9</v>
+      </c>
+      <c r="B515" t="s">
+        <v>36</v>
+      </c>
+      <c r="C515" t="s">
+        <v>37</v>
+      </c>
+      <c r="D515">
+        <v>1549800</v>
+      </c>
+      <c r="E515" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F515" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G515">
+        <v>2020</v>
+      </c>
+      <c r="H515">
+        <v>7</v>
+      </c>
+      <c r="I515">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9">
+      <c r="A516" t="s">
+        <v>9</v>
+      </c>
+      <c r="B516" t="s">
+        <v>38</v>
+      </c>
+      <c r="C516" t="s">
+        <v>39</v>
+      </c>
+      <c r="D516">
+        <v>192300</v>
+      </c>
+      <c r="E516" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F516" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G516">
+        <v>2020</v>
+      </c>
+      <c r="H516">
+        <v>7</v>
+      </c>
+      <c r="I516">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9">
+      <c r="A517" t="s">
+        <v>9</v>
+      </c>
+      <c r="B517" t="s">
+        <v>40</v>
+      </c>
+      <c r="C517" t="s">
+        <v>41</v>
+      </c>
+      <c r="D517">
+        <v>131000</v>
+      </c>
+      <c r="E517" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F517" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G517">
+        <v>2020</v>
+      </c>
+      <c r="H517">
+        <v>7</v>
+      </c>
+      <c r="I517">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9">
+      <c r="A518" t="s">
+        <v>9</v>
+      </c>
+      <c r="B518" t="s">
+        <v>42</v>
+      </c>
+      <c r="C518" t="s">
+        <v>43</v>
+      </c>
+      <c r="D518">
+        <v>159500</v>
+      </c>
+      <c r="E518" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F518" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G518">
+        <v>2020</v>
+      </c>
+      <c r="H518">
+        <v>7</v>
+      </c>
+      <c r="I518">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9">
+      <c r="A519" t="s">
+        <v>9</v>
+      </c>
+      <c r="B519" t="s">
+        <v>44</v>
+      </c>
+      <c r="C519" t="s">
+        <v>45</v>
+      </c>
+      <c r="D519">
+        <v>111300</v>
+      </c>
+      <c r="E519" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F519" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G519">
+        <v>2020</v>
+      </c>
+      <c r="H519">
+        <v>7</v>
+      </c>
+      <c r="I519">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9">
+      <c r="A520" t="s">
+        <v>9</v>
+      </c>
+      <c r="B520" t="s">
+        <v>46</v>
+      </c>
+      <c r="C520" t="s">
+        <v>47</v>
+      </c>
+      <c r="D520">
+        <v>3172200</v>
+      </c>
+      <c r="E520" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F520" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G520">
+        <v>2020</v>
+      </c>
+      <c r="H520">
+        <v>7</v>
+      </c>
+      <c r="I520">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9">
+      <c r="A521" t="s">
+        <v>9</v>
+      </c>
+      <c r="B521" t="s">
+        <v>48</v>
+      </c>
+      <c r="C521" t="s">
+        <v>49</v>
+      </c>
+      <c r="D521">
+        <v>392600</v>
+      </c>
+      <c r="E521" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F521" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G521">
+        <v>2020</v>
+      </c>
+      <c r="H521">
+        <v>7</v>
+      </c>
+      <c r="I521">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9">
+      <c r="A522" t="s">
+        <v>9</v>
+      </c>
+      <c r="B522" t="s">
+        <v>50</v>
+      </c>
+      <c r="C522" t="s">
+        <v>51</v>
+      </c>
+      <c r="D522">
+        <v>450700</v>
+      </c>
+      <c r="E522" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F522" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G522">
+        <v>2020</v>
+      </c>
+      <c r="H522">
+        <v>7</v>
+      </c>
+      <c r="I522">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9">
+      <c r="A523" t="s">
+        <v>9</v>
+      </c>
+      <c r="B523" t="s">
+        <v>52</v>
+      </c>
+      <c r="C523" t="s">
+        <v>53</v>
+      </c>
+      <c r="D523">
+        <v>225500</v>
+      </c>
+      <c r="E523" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F523" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G523">
+        <v>2020</v>
+      </c>
+      <c r="H523">
+        <v>7</v>
+      </c>
+      <c r="I523">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9">
+      <c r="A524" t="s">
+        <v>9</v>
+      </c>
+      <c r="B524" t="s">
+        <v>54</v>
+      </c>
+      <c r="C524" t="s">
+        <v>55</v>
+      </c>
+      <c r="D524">
+        <v>584100</v>
+      </c>
+      <c r="E524" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F524" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G524">
+        <v>2020</v>
+      </c>
+      <c r="H524">
+        <v>7</v>
+      </c>
+      <c r="I524">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9">
+      <c r="A525" t="s">
+        <v>9</v>
+      </c>
+      <c r="B525" t="s">
+        <v>56</v>
+      </c>
+      <c r="C525" t="s">
+        <v>57</v>
+      </c>
+      <c r="D525">
+        <v>117900</v>
+      </c>
+      <c r="E525" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F525" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G525">
+        <v>2020</v>
+      </c>
+      <c r="H525">
+        <v>7</v>
+      </c>
+      <c r="I525">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9">
+      <c r="A526" t="s">
+        <v>9</v>
+      </c>
+      <c r="B526" t="s">
+        <v>9</v>
+      </c>
+      <c r="C526" t="s">
+        <v>58</v>
+      </c>
+      <c r="D526">
+        <v>17226800</v>
+      </c>
+      <c r="E526" s="1">
+        <v>44013</v>
+      </c>
+      <c r="F526" s="1">
+        <v>44043</v>
+      </c>
+      <c r="G526">
+        <v>2020</v>
+      </c>
+      <c r="H526">
+        <v>7</v>
+      </c>
+      <c r="I526">
+        <v>9961</v>
       </c>
     </row>
   </sheetData>

--- a/source-data/ecuador/ecuador_total_source_latest.xlsx
+++ b/source-data/ecuador/ecuador_total_source_latest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/ecuador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3866A173-DDF9-5D49-BCEB-C4B2AA1623BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126D6FC0-49B0-BD49-8EE9-6C49AB15C3F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2580" yWindow="460" windowWidth="21820" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="59">
   <si>
     <t>country</t>
   </si>
@@ -1041,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I926"/>
+  <dimension ref="A1:I976"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A914" workbookViewId="0">
-      <selection activeCell="C923" sqref="C923"/>
+    <sheetView tabSelected="1" topLeftCell="A947" workbookViewId="0">
+      <selection activeCell="I965" sqref="I965"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27204,7 +27204,7 @@
         <v>1</v>
       </c>
       <c r="I902">
-        <v>435</v>
+        <v>500</v>
       </c>
     </row>
     <row r="903" spans="1:9" x14ac:dyDescent="0.2">
@@ -27233,7 +27233,7 @@
         <v>1</v>
       </c>
       <c r="I903">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="904" spans="1:9" x14ac:dyDescent="0.2">
@@ -27262,7 +27262,7 @@
         <v>1</v>
       </c>
       <c r="I904">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="905" spans="1:9" x14ac:dyDescent="0.2">
@@ -27291,7 +27291,7 @@
         <v>1</v>
       </c>
       <c r="I905">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="906" spans="1:9" x14ac:dyDescent="0.2">
@@ -27320,7 +27320,7 @@
         <v>1</v>
       </c>
       <c r="I906">
-        <v>273</v>
+        <v>312</v>
       </c>
     </row>
     <row r="907" spans="1:9" x14ac:dyDescent="0.2">
@@ -27349,7 +27349,7 @@
         <v>1</v>
       </c>
       <c r="I907">
-        <v>234</v>
+        <v>272</v>
       </c>
     </row>
     <row r="908" spans="1:9" x14ac:dyDescent="0.2">
@@ -27378,7 +27378,7 @@
         <v>1</v>
       </c>
       <c r="I908">
-        <v>368</v>
+        <v>437</v>
       </c>
     </row>
     <row r="909" spans="1:9" x14ac:dyDescent="0.2">
@@ -27407,7 +27407,7 @@
         <v>1</v>
       </c>
       <c r="I909">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="910" spans="1:9" x14ac:dyDescent="0.2">
@@ -27465,7 +27465,7 @@
         <v>1</v>
       </c>
       <c r="I911">
-        <v>2476</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="912" spans="1:9" x14ac:dyDescent="0.2">
@@ -27494,7 +27494,7 @@
         <v>1</v>
       </c>
       <c r="I912">
-        <v>228</v>
+        <v>272</v>
       </c>
     </row>
     <row r="913" spans="1:9" x14ac:dyDescent="0.2">
@@ -27523,7 +27523,7 @@
         <v>1</v>
       </c>
       <c r="I913">
-        <v>184</v>
+        <v>243</v>
       </c>
     </row>
     <row r="914" spans="1:9" x14ac:dyDescent="0.2">
@@ -27552,7 +27552,7 @@
         <v>1</v>
       </c>
       <c r="I914">
-        <v>370</v>
+        <v>430</v>
       </c>
     </row>
     <row r="915" spans="1:9" x14ac:dyDescent="0.2">
@@ -27581,7 +27581,7 @@
         <v>1</v>
       </c>
       <c r="I915">
-        <v>653</v>
+        <v>763</v>
       </c>
     </row>
     <row r="916" spans="1:9" x14ac:dyDescent="0.2">
@@ -27610,7 +27610,7 @@
         <v>1</v>
       </c>
       <c r="I916">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="917" spans="1:9" x14ac:dyDescent="0.2">
@@ -27639,7 +27639,7 @@
         <v>1</v>
       </c>
       <c r="I917">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="918" spans="1:9" x14ac:dyDescent="0.2">
@@ -27668,7 +27668,7 @@
         <v>1</v>
       </c>
       <c r="I918">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="919" spans="1:9" x14ac:dyDescent="0.2">
@@ -27697,7 +27697,7 @@
         <v>1</v>
       </c>
       <c r="I919">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="920" spans="1:9" x14ac:dyDescent="0.2">
@@ -27726,7 +27726,7 @@
         <v>1</v>
       </c>
       <c r="I920">
-        <v>1715</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="921" spans="1:9" x14ac:dyDescent="0.2">
@@ -27755,7 +27755,7 @@
         <v>1</v>
       </c>
       <c r="I921">
-        <v>147</v>
+        <v>171</v>
       </c>
     </row>
     <row r="922" spans="1:9" x14ac:dyDescent="0.2">
@@ -27784,7 +27784,7 @@
         <v>1</v>
       </c>
       <c r="I922">
-        <v>212</v>
+        <v>243</v>
       </c>
     </row>
     <row r="923" spans="1:9" x14ac:dyDescent="0.2">
@@ -27813,7 +27813,7 @@
         <v>1</v>
       </c>
       <c r="I923">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="924" spans="1:9" x14ac:dyDescent="0.2">
@@ -27842,7 +27842,7 @@
         <v>1</v>
       </c>
       <c r="I924">
-        <v>409</v>
+        <v>447</v>
       </c>
     </row>
     <row r="925" spans="1:9" x14ac:dyDescent="0.2">
@@ -27871,7 +27871,7 @@
         <v>1</v>
       </c>
       <c r="I925">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="926" spans="1:9" x14ac:dyDescent="0.2">
@@ -27900,7 +27900,1457 @@
         <v>1</v>
       </c>
       <c r="I926">
-        <v>8454</v>
+        <v>9445</v>
+      </c>
+    </row>
+    <row r="927" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A927" t="s">
+        <v>9</v>
+      </c>
+      <c r="B927" t="s">
+        <v>10</v>
+      </c>
+      <c r="C927" t="s">
+        <v>11</v>
+      </c>
+      <c r="D927">
+        <v>867200</v>
+      </c>
+      <c r="E927" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F927" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G927">
+        <v>2021</v>
+      </c>
+      <c r="H927">
+        <v>2</v>
+      </c>
+      <c r="I927">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="928" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A928" t="s">
+        <v>9</v>
+      </c>
+      <c r="B928" t="s">
+        <v>12</v>
+      </c>
+      <c r="C928" t="s">
+        <v>13</v>
+      </c>
+      <c r="D928">
+        <v>208400</v>
+      </c>
+      <c r="E928" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F928" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G928">
+        <v>2021</v>
+      </c>
+      <c r="H928">
+        <v>2</v>
+      </c>
+      <c r="I928">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="929" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A929" t="s">
+        <v>9</v>
+      </c>
+      <c r="B929" t="s">
+        <v>14</v>
+      </c>
+      <c r="C929" t="s">
+        <v>15</v>
+      </c>
+      <c r="D929">
+        <v>276800</v>
+      </c>
+      <c r="E929" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F929" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G929">
+        <v>2021</v>
+      </c>
+      <c r="H929">
+        <v>2</v>
+      </c>
+      <c r="I929">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="930" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A930" t="s">
+        <v>9</v>
+      </c>
+      <c r="B930" t="s">
+        <v>16</v>
+      </c>
+      <c r="C930" t="s">
+        <v>17</v>
+      </c>
+      <c r="D930">
+        <v>185500</v>
+      </c>
+      <c r="E930" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F930" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G930">
+        <v>2021</v>
+      </c>
+      <c r="H930">
+        <v>2</v>
+      </c>
+      <c r="I930">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="931" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A931" t="s">
+        <v>9</v>
+      </c>
+      <c r="B931" t="s">
+        <v>18</v>
+      </c>
+      <c r="C931" t="s">
+        <v>19</v>
+      </c>
+      <c r="D931">
+        <v>519800</v>
+      </c>
+      <c r="E931" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F931" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G931">
+        <v>2021</v>
+      </c>
+      <c r="H931">
+        <v>2</v>
+      </c>
+      <c r="I931">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="932" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A932" t="s">
+        <v>9</v>
+      </c>
+      <c r="B932" t="s">
+        <v>20</v>
+      </c>
+      <c r="C932" t="s">
+        <v>21</v>
+      </c>
+      <c r="D932">
+        <v>482600</v>
+      </c>
+      <c r="E932" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F932" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G932">
+        <v>2021</v>
+      </c>
+      <c r="H932">
+        <v>2</v>
+      </c>
+      <c r="I932">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="933" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A933" t="s">
+        <v>9</v>
+      </c>
+      <c r="B933" t="s">
+        <v>22</v>
+      </c>
+      <c r="C933" t="s">
+        <v>23</v>
+      </c>
+      <c r="D933">
+        <v>707200</v>
+      </c>
+      <c r="E933" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F933" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G933">
+        <v>2021</v>
+      </c>
+      <c r="H933">
+        <v>2</v>
+      </c>
+      <c r="I933">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="934" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A934" t="s">
+        <v>9</v>
+      </c>
+      <c r="B934" t="s">
+        <v>24</v>
+      </c>
+      <c r="C934" t="s">
+        <v>25</v>
+      </c>
+      <c r="D934">
+        <v>635200</v>
+      </c>
+      <c r="E934" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F934" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G934">
+        <v>2021</v>
+      </c>
+      <c r="H934">
+        <v>2</v>
+      </c>
+      <c r="I934">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="935" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A935" t="s">
+        <v>9</v>
+      </c>
+      <c r="B935" t="s">
+        <v>26</v>
+      </c>
+      <c r="C935" t="s">
+        <v>27</v>
+      </c>
+      <c r="D935">
+        <v>32300</v>
+      </c>
+      <c r="E935" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F935" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G935">
+        <v>2021</v>
+      </c>
+      <c r="H935">
+        <v>2</v>
+      </c>
+      <c r="I935">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="936" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A936" t="s">
+        <v>9</v>
+      </c>
+      <c r="B936" t="s">
+        <v>28</v>
+      </c>
+      <c r="C936" t="s">
+        <v>29</v>
+      </c>
+      <c r="D936">
+        <v>4327800</v>
+      </c>
+      <c r="E936" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F936" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G936">
+        <v>2021</v>
+      </c>
+      <c r="H936">
+        <v>2</v>
+      </c>
+      <c r="I936">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="937" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A937" t="s">
+        <v>9</v>
+      </c>
+      <c r="B937" t="s">
+        <v>30</v>
+      </c>
+      <c r="C937" t="s">
+        <v>31</v>
+      </c>
+      <c r="D937">
+        <v>470100</v>
+      </c>
+      <c r="E937" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F937" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G937">
+        <v>2021</v>
+      </c>
+      <c r="H937">
+        <v>2</v>
+      </c>
+      <c r="I937">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="938" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A938" t="s">
+        <v>9</v>
+      </c>
+      <c r="B938" t="s">
+        <v>32</v>
+      </c>
+      <c r="C938" t="s">
+        <v>33</v>
+      </c>
+      <c r="D938">
+        <v>516200</v>
+      </c>
+      <c r="E938" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F938" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G938">
+        <v>2021</v>
+      </c>
+      <c r="H938">
+        <v>2</v>
+      </c>
+      <c r="I938">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="939" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A939" t="s">
+        <v>9</v>
+      </c>
+      <c r="B939" t="s">
+        <v>34</v>
+      </c>
+      <c r="C939" t="s">
+        <v>35</v>
+      </c>
+      <c r="D939">
+        <v>910800</v>
+      </c>
+      <c r="E939" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F939" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G939">
+        <v>2021</v>
+      </c>
+      <c r="H939">
+        <v>2</v>
+      </c>
+      <c r="I939">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="940" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A940" t="s">
+        <v>9</v>
+      </c>
+      <c r="B940" t="s">
+        <v>36</v>
+      </c>
+      <c r="C940" t="s">
+        <v>37</v>
+      </c>
+      <c r="D940">
+        <v>1549800</v>
+      </c>
+      <c r="E940" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F940" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G940">
+        <v>2021</v>
+      </c>
+      <c r="H940">
+        <v>2</v>
+      </c>
+      <c r="I940">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="941" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A941" t="s">
+        <v>9</v>
+      </c>
+      <c r="B941" t="s">
+        <v>38</v>
+      </c>
+      <c r="C941" t="s">
+        <v>39</v>
+      </c>
+      <c r="D941">
+        <v>192300</v>
+      </c>
+      <c r="E941" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F941" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G941">
+        <v>2021</v>
+      </c>
+      <c r="H941">
+        <v>2</v>
+      </c>
+      <c r="I941">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="942" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A942" t="s">
+        <v>9</v>
+      </c>
+      <c r="B942" t="s">
+        <v>40</v>
+      </c>
+      <c r="C942" t="s">
+        <v>41</v>
+      </c>
+      <c r="D942">
+        <v>131000</v>
+      </c>
+      <c r="E942" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F942" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G942">
+        <v>2021</v>
+      </c>
+      <c r="H942">
+        <v>2</v>
+      </c>
+      <c r="I942">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="943" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A943" t="s">
+        <v>9</v>
+      </c>
+      <c r="B943" t="s">
+        <v>42</v>
+      </c>
+      <c r="C943" t="s">
+        <v>43</v>
+      </c>
+      <c r="D943">
+        <v>159500</v>
+      </c>
+      <c r="E943" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F943" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G943">
+        <v>2021</v>
+      </c>
+      <c r="H943">
+        <v>2</v>
+      </c>
+      <c r="I943">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="944" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A944" t="s">
+        <v>9</v>
+      </c>
+      <c r="B944" t="s">
+        <v>44</v>
+      </c>
+      <c r="C944" t="s">
+        <v>45</v>
+      </c>
+      <c r="D944">
+        <v>111300</v>
+      </c>
+      <c r="E944" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F944" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G944">
+        <v>2021</v>
+      </c>
+      <c r="H944">
+        <v>2</v>
+      </c>
+      <c r="I944">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="945" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A945" t="s">
+        <v>9</v>
+      </c>
+      <c r="B945" t="s">
+        <v>46</v>
+      </c>
+      <c r="C945" t="s">
+        <v>47</v>
+      </c>
+      <c r="D945">
+        <v>3172200</v>
+      </c>
+      <c r="E945" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F945" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G945">
+        <v>2021</v>
+      </c>
+      <c r="H945">
+        <v>2</v>
+      </c>
+      <c r="I945">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="946" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A946" t="s">
+        <v>9</v>
+      </c>
+      <c r="B946" t="s">
+        <v>48</v>
+      </c>
+      <c r="C946" t="s">
+        <v>49</v>
+      </c>
+      <c r="D946">
+        <v>392600</v>
+      </c>
+      <c r="E946" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F946" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G946">
+        <v>2021</v>
+      </c>
+      <c r="H946">
+        <v>2</v>
+      </c>
+      <c r="I946">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="947" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A947" t="s">
+        <v>9</v>
+      </c>
+      <c r="B947" t="s">
+        <v>50</v>
+      </c>
+      <c r="C947" t="s">
+        <v>51</v>
+      </c>
+      <c r="D947">
+        <v>450700</v>
+      </c>
+      <c r="E947" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F947" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G947">
+        <v>2021</v>
+      </c>
+      <c r="H947">
+        <v>2</v>
+      </c>
+      <c r="I947">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="948" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A948" t="s">
+        <v>9</v>
+      </c>
+      <c r="B948" t="s">
+        <v>52</v>
+      </c>
+      <c r="C948" t="s">
+        <v>53</v>
+      </c>
+      <c r="D948">
+        <v>225500</v>
+      </c>
+      <c r="E948" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F948" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G948">
+        <v>2021</v>
+      </c>
+      <c r="H948">
+        <v>2</v>
+      </c>
+      <c r="I948">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="949" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A949" t="s">
+        <v>9</v>
+      </c>
+      <c r="B949" t="s">
+        <v>54</v>
+      </c>
+      <c r="C949" t="s">
+        <v>55</v>
+      </c>
+      <c r="D949">
+        <v>584100</v>
+      </c>
+      <c r="E949" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F949" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G949">
+        <v>2021</v>
+      </c>
+      <c r="H949">
+        <v>2</v>
+      </c>
+      <c r="I949">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="950" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A950" t="s">
+        <v>9</v>
+      </c>
+      <c r="B950" t="s">
+        <v>56</v>
+      </c>
+      <c r="C950" t="s">
+        <v>57</v>
+      </c>
+      <c r="D950">
+        <v>117900</v>
+      </c>
+      <c r="E950" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F950" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G950">
+        <v>2021</v>
+      </c>
+      <c r="H950">
+        <v>2</v>
+      </c>
+      <c r="I950">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="951" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A951" t="s">
+        <v>9</v>
+      </c>
+      <c r="B951" t="s">
+        <v>9</v>
+      </c>
+      <c r="C951" t="s">
+        <v>58</v>
+      </c>
+      <c r="D951">
+        <v>17226800</v>
+      </c>
+      <c r="E951" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F951" s="1">
+        <v>44255</v>
+      </c>
+      <c r="G951">
+        <v>2021</v>
+      </c>
+      <c r="H951">
+        <v>2</v>
+      </c>
+      <c r="I951">
+        <v>8793</v>
+      </c>
+    </row>
+    <row r="952" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A952" t="s">
+        <v>9</v>
+      </c>
+      <c r="B952" t="s">
+        <v>10</v>
+      </c>
+      <c r="C952" t="s">
+        <v>11</v>
+      </c>
+      <c r="D952">
+        <v>867200</v>
+      </c>
+      <c r="E952" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F952" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G952">
+        <v>2021</v>
+      </c>
+      <c r="H952">
+        <v>3</v>
+      </c>
+      <c r="I952">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="953" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A953" t="s">
+        <v>9</v>
+      </c>
+      <c r="B953" t="s">
+        <v>12</v>
+      </c>
+      <c r="C953" t="s">
+        <v>13</v>
+      </c>
+      <c r="D953">
+        <v>208400</v>
+      </c>
+      <c r="E953" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F953" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G953">
+        <v>2021</v>
+      </c>
+      <c r="H953">
+        <v>3</v>
+      </c>
+      <c r="I953">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="954" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A954" t="s">
+        <v>9</v>
+      </c>
+      <c r="B954" t="s">
+        <v>14</v>
+      </c>
+      <c r="C954" t="s">
+        <v>15</v>
+      </c>
+      <c r="D954">
+        <v>276800</v>
+      </c>
+      <c r="E954" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F954" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G954">
+        <v>2021</v>
+      </c>
+      <c r="H954">
+        <v>3</v>
+      </c>
+      <c r="I954">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="955" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A955" t="s">
+        <v>9</v>
+      </c>
+      <c r="B955" t="s">
+        <v>16</v>
+      </c>
+      <c r="C955" t="s">
+        <v>17</v>
+      </c>
+      <c r="D955">
+        <v>185500</v>
+      </c>
+      <c r="E955" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F955" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G955">
+        <v>2021</v>
+      </c>
+      <c r="H955">
+        <v>3</v>
+      </c>
+      <c r="I955">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="956" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A956" t="s">
+        <v>9</v>
+      </c>
+      <c r="B956" t="s">
+        <v>18</v>
+      </c>
+      <c r="C956" t="s">
+        <v>19</v>
+      </c>
+      <c r="D956">
+        <v>519800</v>
+      </c>
+      <c r="E956" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F956" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G956">
+        <v>2021</v>
+      </c>
+      <c r="H956">
+        <v>3</v>
+      </c>
+      <c r="I956">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="957" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A957" t="s">
+        <v>9</v>
+      </c>
+      <c r="B957" t="s">
+        <v>20</v>
+      </c>
+      <c r="C957" t="s">
+        <v>21</v>
+      </c>
+      <c r="D957">
+        <v>482600</v>
+      </c>
+      <c r="E957" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F957" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G957">
+        <v>2021</v>
+      </c>
+      <c r="H957">
+        <v>3</v>
+      </c>
+      <c r="I957">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="958" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A958" t="s">
+        <v>9</v>
+      </c>
+      <c r="B958" t="s">
+        <v>22</v>
+      </c>
+      <c r="C958" t="s">
+        <v>23</v>
+      </c>
+      <c r="D958">
+        <v>707200</v>
+      </c>
+      <c r="E958" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F958" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G958">
+        <v>2021</v>
+      </c>
+      <c r="H958">
+        <v>3</v>
+      </c>
+      <c r="I958">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="959" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A959" t="s">
+        <v>9</v>
+      </c>
+      <c r="B959" t="s">
+        <v>24</v>
+      </c>
+      <c r="C959" t="s">
+        <v>25</v>
+      </c>
+      <c r="D959">
+        <v>635200</v>
+      </c>
+      <c r="E959" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F959" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G959">
+        <v>2021</v>
+      </c>
+      <c r="H959">
+        <v>3</v>
+      </c>
+      <c r="I959">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="960" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A960" t="s">
+        <v>9</v>
+      </c>
+      <c r="B960" t="s">
+        <v>26</v>
+      </c>
+      <c r="C960" t="s">
+        <v>27</v>
+      </c>
+      <c r="D960">
+        <v>32300</v>
+      </c>
+      <c r="E960" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F960" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G960">
+        <v>2021</v>
+      </c>
+      <c r="H960">
+        <v>3</v>
+      </c>
+      <c r="I960">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="961" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A961" t="s">
+        <v>9</v>
+      </c>
+      <c r="B961" t="s">
+        <v>28</v>
+      </c>
+      <c r="C961" t="s">
+        <v>29</v>
+      </c>
+      <c r="D961">
+        <v>4327800</v>
+      </c>
+      <c r="E961" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F961" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G961">
+        <v>2021</v>
+      </c>
+      <c r="H961">
+        <v>3</v>
+      </c>
+      <c r="I961">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="962" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A962" t="s">
+        <v>9</v>
+      </c>
+      <c r="B962" t="s">
+        <v>30</v>
+      </c>
+      <c r="C962" t="s">
+        <v>31</v>
+      </c>
+      <c r="D962">
+        <v>470100</v>
+      </c>
+      <c r="E962" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F962" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G962">
+        <v>2021</v>
+      </c>
+      <c r="H962">
+        <v>3</v>
+      </c>
+      <c r="I962">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="963" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A963" t="s">
+        <v>9</v>
+      </c>
+      <c r="B963" t="s">
+        <v>32</v>
+      </c>
+      <c r="C963" t="s">
+        <v>33</v>
+      </c>
+      <c r="D963">
+        <v>516200</v>
+      </c>
+      <c r="E963" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F963" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G963">
+        <v>2021</v>
+      </c>
+      <c r="H963">
+        <v>3</v>
+      </c>
+      <c r="I963">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="964" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A964" t="s">
+        <v>9</v>
+      </c>
+      <c r="B964" t="s">
+        <v>34</v>
+      </c>
+      <c r="C964" t="s">
+        <v>35</v>
+      </c>
+      <c r="D964">
+        <v>910800</v>
+      </c>
+      <c r="E964" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F964" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G964">
+        <v>2021</v>
+      </c>
+      <c r="H964">
+        <v>3</v>
+      </c>
+      <c r="I964">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="965" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A965" t="s">
+        <v>9</v>
+      </c>
+      <c r="B965" t="s">
+        <v>36</v>
+      </c>
+      <c r="C965" t="s">
+        <v>37</v>
+      </c>
+      <c r="D965">
+        <v>1549800</v>
+      </c>
+      <c r="E965" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F965" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G965">
+        <v>2021</v>
+      </c>
+      <c r="H965">
+        <v>3</v>
+      </c>
+      <c r="I965">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="966" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A966" t="s">
+        <v>9</v>
+      </c>
+      <c r="B966" t="s">
+        <v>38</v>
+      </c>
+      <c r="C966" t="s">
+        <v>39</v>
+      </c>
+      <c r="D966">
+        <v>192300</v>
+      </c>
+      <c r="E966" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F966" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G966">
+        <v>2021</v>
+      </c>
+      <c r="H966">
+        <v>3</v>
+      </c>
+      <c r="I966">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="967" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A967" t="s">
+        <v>9</v>
+      </c>
+      <c r="B967" t="s">
+        <v>40</v>
+      </c>
+      <c r="C967" t="s">
+        <v>41</v>
+      </c>
+      <c r="D967">
+        <v>131000</v>
+      </c>
+      <c r="E967" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F967" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G967">
+        <v>2021</v>
+      </c>
+      <c r="H967">
+        <v>3</v>
+      </c>
+      <c r="I967">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="968" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A968" t="s">
+        <v>9</v>
+      </c>
+      <c r="B968" t="s">
+        <v>42</v>
+      </c>
+      <c r="C968" t="s">
+        <v>43</v>
+      </c>
+      <c r="D968">
+        <v>159500</v>
+      </c>
+      <c r="E968" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F968" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G968">
+        <v>2021</v>
+      </c>
+      <c r="H968">
+        <v>3</v>
+      </c>
+      <c r="I968">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="969" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A969" t="s">
+        <v>9</v>
+      </c>
+      <c r="B969" t="s">
+        <v>44</v>
+      </c>
+      <c r="C969" t="s">
+        <v>45</v>
+      </c>
+      <c r="D969">
+        <v>111300</v>
+      </c>
+      <c r="E969" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F969" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G969">
+        <v>2021</v>
+      </c>
+      <c r="H969">
+        <v>3</v>
+      </c>
+      <c r="I969">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="970" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A970" t="s">
+        <v>9</v>
+      </c>
+      <c r="B970" t="s">
+        <v>46</v>
+      </c>
+      <c r="C970" t="s">
+        <v>47</v>
+      </c>
+      <c r="D970">
+        <v>3172200</v>
+      </c>
+      <c r="E970" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F970" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G970">
+        <v>2021</v>
+      </c>
+      <c r="H970">
+        <v>3</v>
+      </c>
+      <c r="I970">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="971" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A971" t="s">
+        <v>9</v>
+      </c>
+      <c r="B971" t="s">
+        <v>48</v>
+      </c>
+      <c r="C971" t="s">
+        <v>49</v>
+      </c>
+      <c r="D971">
+        <v>392600</v>
+      </c>
+      <c r="E971" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F971" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G971">
+        <v>2021</v>
+      </c>
+      <c r="H971">
+        <v>3</v>
+      </c>
+      <c r="I971">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="972" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A972" t="s">
+        <v>9</v>
+      </c>
+      <c r="B972" t="s">
+        <v>50</v>
+      </c>
+      <c r="C972" t="s">
+        <v>51</v>
+      </c>
+      <c r="D972">
+        <v>450700</v>
+      </c>
+      <c r="E972" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F972" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G972">
+        <v>2021</v>
+      </c>
+      <c r="H972">
+        <v>3</v>
+      </c>
+      <c r="I972">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="973" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A973" t="s">
+        <v>9</v>
+      </c>
+      <c r="B973" t="s">
+        <v>52</v>
+      </c>
+      <c r="C973" t="s">
+        <v>53</v>
+      </c>
+      <c r="D973">
+        <v>225500</v>
+      </c>
+      <c r="E973" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F973" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G973">
+        <v>2021</v>
+      </c>
+      <c r="H973">
+        <v>3</v>
+      </c>
+      <c r="I973">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="974" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A974" t="s">
+        <v>9</v>
+      </c>
+      <c r="B974" t="s">
+        <v>54</v>
+      </c>
+      <c r="C974" t="s">
+        <v>55</v>
+      </c>
+      <c r="D974">
+        <v>584100</v>
+      </c>
+      <c r="E974" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F974" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G974">
+        <v>2021</v>
+      </c>
+      <c r="H974">
+        <v>3</v>
+      </c>
+      <c r="I974">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="975" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A975" t="s">
+        <v>9</v>
+      </c>
+      <c r="B975" t="s">
+        <v>56</v>
+      </c>
+      <c r="C975" t="s">
+        <v>57</v>
+      </c>
+      <c r="D975">
+        <v>117900</v>
+      </c>
+      <c r="E975" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F975" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G975">
+        <v>2021</v>
+      </c>
+      <c r="H975">
+        <v>3</v>
+      </c>
+      <c r="I975">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="976" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A976" t="s">
+        <v>9</v>
+      </c>
+      <c r="B976" t="s">
+        <v>9</v>
+      </c>
+      <c r="C976" t="s">
+        <v>58</v>
+      </c>
+      <c r="D976">
+        <v>17226800</v>
+      </c>
+      <c r="E976" s="1">
+        <v>44256</v>
+      </c>
+      <c r="F976" s="1">
+        <v>44286</v>
+      </c>
+      <c r="G976">
+        <v>2021</v>
+      </c>
+      <c r="H976">
+        <v>3</v>
+      </c>
+      <c r="I976">
+        <v>10241</v>
       </c>
     </row>
   </sheetData>

--- a/source-data/ecuador/ecuador_total_source_latest.xlsx
+++ b/source-data/ecuador/ecuador_total_source_latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamestozer/Documents/GitHub/covid-19-excess-deaths-tracker/source-data/ecuador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126D6FC0-49B0-BD49-8EE9-6C49AB15C3F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60AD40D-4F42-3748-BA80-70C129B971E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="460" windowWidth="21820" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="460" windowWidth="14500" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ecuador_total_source_latest" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="59">
   <si>
     <t>country</t>
   </si>
@@ -1041,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I976"/>
+  <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A947" workbookViewId="0">
-      <selection activeCell="I965" sqref="I965"/>
+    <sheetView tabSelected="1" topLeftCell="A971" workbookViewId="0">
+      <selection activeCell="I996" sqref="I996"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28654,7 +28654,7 @@
         <v>3</v>
       </c>
       <c r="I952">
-        <v>470</v>
+        <v>514</v>
       </c>
     </row>
     <row r="953" spans="1:9" x14ac:dyDescent="0.2">
@@ -28683,7 +28683,7 @@
         <v>3</v>
       </c>
       <c r="I953">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="954" spans="1:9" x14ac:dyDescent="0.2">
@@ -28712,7 +28712,7 @@
         <v>3</v>
       </c>
       <c r="I954">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="955" spans="1:9" x14ac:dyDescent="0.2">
@@ -28741,7 +28741,7 @@
         <v>3</v>
       </c>
       <c r="I955">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="956" spans="1:9" x14ac:dyDescent="0.2">
@@ -28770,7 +28770,7 @@
         <v>3</v>
       </c>
       <c r="I956">
-        <v>293</v>
+        <v>330</v>
       </c>
     </row>
     <row r="957" spans="1:9" x14ac:dyDescent="0.2">
@@ -28799,7 +28799,7 @@
         <v>3</v>
       </c>
       <c r="I957">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="958" spans="1:9" x14ac:dyDescent="0.2">
@@ -28828,7 +28828,7 @@
         <v>3</v>
       </c>
       <c r="I958">
-        <v>444</v>
+        <v>490</v>
       </c>
     </row>
     <row r="959" spans="1:9" x14ac:dyDescent="0.2">
@@ -28857,7 +28857,7 @@
         <v>3</v>
       </c>
       <c r="I959">
-        <v>255</v>
+        <v>288</v>
       </c>
     </row>
     <row r="960" spans="1:9" x14ac:dyDescent="0.2">
@@ -28915,7 +28915,7 @@
         <v>3</v>
       </c>
       <c r="I961">
-        <v>3001</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="962" spans="1:9" x14ac:dyDescent="0.2">
@@ -28944,7 +28944,7 @@
         <v>3</v>
       </c>
       <c r="I962">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
     <row r="963" spans="1:9" x14ac:dyDescent="0.2">
@@ -28973,7 +28973,7 @@
         <v>3</v>
       </c>
       <c r="I963">
-        <v>375</v>
+        <v>434</v>
       </c>
     </row>
     <row r="964" spans="1:9" x14ac:dyDescent="0.2">
@@ -29002,7 +29002,7 @@
         <v>3</v>
       </c>
       <c r="I964">
-        <v>509</v>
+        <v>572</v>
       </c>
     </row>
     <row r="965" spans="1:9" x14ac:dyDescent="0.2">
@@ -29031,7 +29031,7 @@
         <v>3</v>
       </c>
       <c r="I965">
-        <v>995</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="966" spans="1:9" x14ac:dyDescent="0.2">
@@ -29060,7 +29060,7 @@
         <v>3</v>
       </c>
       <c r="I966">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="967" spans="1:9" x14ac:dyDescent="0.2">
@@ -29089,7 +29089,7 @@
         <v>3</v>
       </c>
       <c r="I967">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="968" spans="1:9" x14ac:dyDescent="0.2">
@@ -29118,7 +29118,7 @@
         <v>3</v>
       </c>
       <c r="I968">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="969" spans="1:9" x14ac:dyDescent="0.2">
@@ -29147,7 +29147,7 @@
         <v>3</v>
       </c>
       <c r="I969">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="970" spans="1:9" x14ac:dyDescent="0.2">
@@ -29176,7 +29176,7 @@
         <v>3</v>
       </c>
       <c r="I970">
-        <v>1858</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="971" spans="1:9" x14ac:dyDescent="0.2">
@@ -29205,7 +29205,7 @@
         <v>3</v>
       </c>
       <c r="I971">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="972" spans="1:9" x14ac:dyDescent="0.2">
@@ -29234,7 +29234,7 @@
         <v>3</v>
       </c>
       <c r="I972">
-        <v>358</v>
+        <v>383</v>
       </c>
     </row>
     <row r="973" spans="1:9" x14ac:dyDescent="0.2">
@@ -29263,7 +29263,7 @@
         <v>3</v>
       </c>
       <c r="I973">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="974" spans="1:9" x14ac:dyDescent="0.2">
@@ -29292,7 +29292,7 @@
         <v>3</v>
       </c>
       <c r="I974">
-        <v>337</v>
+        <v>359</v>
       </c>
     </row>
     <row r="975" spans="1:9" x14ac:dyDescent="0.2">
@@ -29321,7 +29321,7 @@
         <v>3</v>
       </c>
       <c r="I975">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="976" spans="1:9" x14ac:dyDescent="0.2">
@@ -29350,7 +29350,732 @@
         <v>3</v>
       </c>
       <c r="I976">
-        <v>10241</v>
+        <v>10988</v>
+      </c>
+    </row>
+    <row r="977" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A977" t="s">
+        <v>9</v>
+      </c>
+      <c r="B977" t="s">
+        <v>10</v>
+      </c>
+      <c r="C977" t="s">
+        <v>11</v>
+      </c>
+      <c r="D977">
+        <v>867200</v>
+      </c>
+      <c r="E977" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F977" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G977">
+        <v>2021</v>
+      </c>
+      <c r="H977">
+        <v>4</v>
+      </c>
+      <c r="I977">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="978" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A978" t="s">
+        <v>9</v>
+      </c>
+      <c r="B978" t="s">
+        <v>12</v>
+      </c>
+      <c r="C978" t="s">
+        <v>13</v>
+      </c>
+      <c r="D978">
+        <v>208400</v>
+      </c>
+      <c r="E978" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F978" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G978">
+        <v>2021</v>
+      </c>
+      <c r="H978">
+        <v>4</v>
+      </c>
+      <c r="I978">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="979" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A979" t="s">
+        <v>9</v>
+      </c>
+      <c r="B979" t="s">
+        <v>14</v>
+      </c>
+      <c r="C979" t="s">
+        <v>15</v>
+      </c>
+      <c r="D979">
+        <v>276800</v>
+      </c>
+      <c r="E979" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F979" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G979">
+        <v>2021</v>
+      </c>
+      <c r="H979">
+        <v>4</v>
+      </c>
+      <c r="I979">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="980" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A980" t="s">
+        <v>9</v>
+      </c>
+      <c r="B980" t="s">
+        <v>16</v>
+      </c>
+      <c r="C980" t="s">
+        <v>17</v>
+      </c>
+      <c r="D980">
+        <v>185500</v>
+      </c>
+      <c r="E980" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F980" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G980">
+        <v>2021</v>
+      </c>
+      <c r="H980">
+        <v>4</v>
+      </c>
+      <c r="I980">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="981" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A981" t="s">
+        <v>9</v>
+      </c>
+      <c r="B981" t="s">
+        <v>18</v>
+      </c>
+      <c r="C981" t="s">
+        <v>19</v>
+      </c>
+      <c r="D981">
+        <v>519800</v>
+      </c>
+      <c r="E981" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F981" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G981">
+        <v>2021</v>
+      </c>
+      <c r="H981">
+        <v>4</v>
+      </c>
+      <c r="I981">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="982" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A982" t="s">
+        <v>9</v>
+      </c>
+      <c r="B982" t="s">
+        <v>20</v>
+      </c>
+      <c r="C982" t="s">
+        <v>21</v>
+      </c>
+      <c r="D982">
+        <v>482600</v>
+      </c>
+      <c r="E982" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F982" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G982">
+        <v>2021</v>
+      </c>
+      <c r="H982">
+        <v>4</v>
+      </c>
+      <c r="I982">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="983" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A983" t="s">
+        <v>9</v>
+      </c>
+      <c r="B983" t="s">
+        <v>22</v>
+      </c>
+      <c r="C983" t="s">
+        <v>23</v>
+      </c>
+      <c r="D983">
+        <v>707200</v>
+      </c>
+      <c r="E983" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F983" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G983">
+        <v>2021</v>
+      </c>
+      <c r="H983">
+        <v>4</v>
+      </c>
+      <c r="I983">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="984" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A984" t="s">
+        <v>9</v>
+      </c>
+      <c r="B984" t="s">
+        <v>24</v>
+      </c>
+      <c r="C984" t="s">
+        <v>25</v>
+      </c>
+      <c r="D984">
+        <v>635200</v>
+      </c>
+      <c r="E984" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F984" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G984">
+        <v>2021</v>
+      </c>
+      <c r="H984">
+        <v>4</v>
+      </c>
+      <c r="I984">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="985" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A985" t="s">
+        <v>9</v>
+      </c>
+      <c r="B985" t="s">
+        <v>26</v>
+      </c>
+      <c r="C985" t="s">
+        <v>27</v>
+      </c>
+      <c r="D985">
+        <v>32300</v>
+      </c>
+      <c r="E985" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F985" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G985">
+        <v>2021</v>
+      </c>
+      <c r="H985">
+        <v>4</v>
+      </c>
+      <c r="I985">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="986" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A986" t="s">
+        <v>9</v>
+      </c>
+      <c r="B986" t="s">
+        <v>28</v>
+      </c>
+      <c r="C986" t="s">
+        <v>29</v>
+      </c>
+      <c r="D986">
+        <v>4327800</v>
+      </c>
+      <c r="E986" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F986" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G986">
+        <v>2021</v>
+      </c>
+      <c r="H986">
+        <v>4</v>
+      </c>
+      <c r="I986">
+        <v>3534</v>
+      </c>
+    </row>
+    <row r="987" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A987" t="s">
+        <v>9</v>
+      </c>
+      <c r="B987" t="s">
+        <v>30</v>
+      </c>
+      <c r="C987" t="s">
+        <v>31</v>
+      </c>
+      <c r="D987">
+        <v>470100</v>
+      </c>
+      <c r="E987" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F987" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G987">
+        <v>2021</v>
+      </c>
+      <c r="H987">
+        <v>4</v>
+      </c>
+      <c r="I987">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="988" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A988" t="s">
+        <v>9</v>
+      </c>
+      <c r="B988" t="s">
+        <v>32</v>
+      </c>
+      <c r="C988" t="s">
+        <v>33</v>
+      </c>
+      <c r="D988">
+        <v>516200</v>
+      </c>
+      <c r="E988" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F988" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G988">
+        <v>2021</v>
+      </c>
+      <c r="H988">
+        <v>4</v>
+      </c>
+      <c r="I988">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="989" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A989" t="s">
+        <v>9</v>
+      </c>
+      <c r="B989" t="s">
+        <v>34</v>
+      </c>
+      <c r="C989" t="s">
+        <v>35</v>
+      </c>
+      <c r="D989">
+        <v>910800</v>
+      </c>
+      <c r="E989" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F989" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G989">
+        <v>2021</v>
+      </c>
+      <c r="H989">
+        <v>4</v>
+      </c>
+      <c r="I989">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="990" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A990" t="s">
+        <v>9</v>
+      </c>
+      <c r="B990" t="s">
+        <v>36</v>
+      </c>
+      <c r="C990" t="s">
+        <v>37</v>
+      </c>
+      <c r="D990">
+        <v>1549800</v>
+      </c>
+      <c r="E990" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F990" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G990">
+        <v>2021</v>
+      </c>
+      <c r="H990">
+        <v>4</v>
+      </c>
+      <c r="I990">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="991" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A991" t="s">
+        <v>9</v>
+      </c>
+      <c r="B991" t="s">
+        <v>38</v>
+      </c>
+      <c r="C991" t="s">
+        <v>39</v>
+      </c>
+      <c r="D991">
+        <v>192300</v>
+      </c>
+      <c r="E991" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F991" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G991">
+        <v>2021</v>
+      </c>
+      <c r="H991">
+        <v>4</v>
+      </c>
+      <c r="I991">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="992" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A992" t="s">
+        <v>9</v>
+      </c>
+      <c r="B992" t="s">
+        <v>40</v>
+      </c>
+      <c r="C992" t="s">
+        <v>41</v>
+      </c>
+      <c r="D992">
+        <v>131000</v>
+      </c>
+      <c r="E992" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F992" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G992">
+        <v>2021</v>
+      </c>
+      <c r="H992">
+        <v>4</v>
+      </c>
+      <c r="I992">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="993" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A993" t="s">
+        <v>9</v>
+      </c>
+      <c r="B993" t="s">
+        <v>42</v>
+      </c>
+      <c r="C993" t="s">
+        <v>43</v>
+      </c>
+      <c r="D993">
+        <v>159500</v>
+      </c>
+      <c r="E993" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F993" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G993">
+        <v>2021</v>
+      </c>
+      <c r="H993">
+        <v>4</v>
+      </c>
+      <c r="I993">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="994" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A994" t="s">
+        <v>9</v>
+      </c>
+      <c r="B994" t="s">
+        <v>44</v>
+      </c>
+      <c r="C994" t="s">
+        <v>45</v>
+      </c>
+      <c r="D994">
+        <v>111300</v>
+      </c>
+      <c r="E994" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F994" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G994">
+        <v>2021</v>
+      </c>
+      <c r="H994">
+        <v>4</v>
+      </c>
+      <c r="I994">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="995" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A995" t="s">
+        <v>9</v>
+      </c>
+      <c r="B995" t="s">
+        <v>46</v>
+      </c>
+      <c r="C995" t="s">
+        <v>47</v>
+      </c>
+      <c r="D995">
+        <v>3172200</v>
+      </c>
+      <c r="E995" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F995" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G995">
+        <v>2021</v>
+      </c>
+      <c r="H995">
+        <v>4</v>
+      </c>
+      <c r="I995">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="996" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A996" t="s">
+        <v>9</v>
+      </c>
+      <c r="B996" t="s">
+        <v>48</v>
+      </c>
+      <c r="C996" t="s">
+        <v>49</v>
+      </c>
+      <c r="D996">
+        <v>392600</v>
+      </c>
+      <c r="E996" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F996" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G996">
+        <v>2021</v>
+      </c>
+      <c r="H996">
+        <v>4</v>
+      </c>
+      <c r="I996">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="997" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A997" t="s">
+        <v>9</v>
+      </c>
+      <c r="B997" t="s">
+        <v>50</v>
+      </c>
+      <c r="C997" t="s">
+        <v>51</v>
+      </c>
+      <c r="D997">
+        <v>450700</v>
+      </c>
+      <c r="E997" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F997" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G997">
+        <v>2021</v>
+      </c>
+      <c r="H997">
+        <v>4</v>
+      </c>
+      <c r="I997">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="998" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A998" t="s">
+        <v>9</v>
+      </c>
+      <c r="B998" t="s">
+        <v>52</v>
+      </c>
+      <c r="C998" t="s">
+        <v>53</v>
+      </c>
+      <c r="D998">
+        <v>225500</v>
+      </c>
+      <c r="E998" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F998" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G998">
+        <v>2021</v>
+      </c>
+      <c r="H998">
+        <v>4</v>
+      </c>
+      <c r="I998">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="999" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A999" t="s">
+        <v>9</v>
+      </c>
+      <c r="B999" t="s">
+        <v>54</v>
+      </c>
+      <c r="C999" t="s">
+        <v>55</v>
+      </c>
+      <c r="D999">
+        <v>584100</v>
+      </c>
+      <c r="E999" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F999" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G999">
+        <v>2021</v>
+      </c>
+      <c r="H999">
+        <v>4</v>
+      </c>
+      <c r="I999">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1000" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1000">
+        <v>117900</v>
+      </c>
+      <c r="E1000" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F1000" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G1000">
+        <v>2021</v>
+      </c>
+      <c r="H1000">
+        <v>4</v>
+      </c>
+      <c r="I1000">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1001" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1001">
+        <v>17226800</v>
+      </c>
+      <c r="E1001" s="1">
+        <v>44287</v>
+      </c>
+      <c r="F1001" s="1">
+        <v>44316</v>
+      </c>
+      <c r="G1001">
+        <v>2021</v>
+      </c>
+      <c r="H1001">
+        <v>4</v>
+      </c>
+      <c r="I1001">
+        <v>11976</v>
       </c>
     </row>
   </sheetData>
